--- a/final data set-1.xlsx
+++ b/final data set-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon\Documents\Grad School\Urban &amp; Regional (ECON 8080)\Regional Inequality\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD6D514-689F-1A43-B364-3A2353362DD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D7F09F-500B-4EE0-AAAE-367B3E9CAA41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25440" windowHeight="14420" xr2:uid="{DC3E5AA7-7033-AF48-8182-68477F67646B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC3E5AA7-7033-AF48-8182-68477F67646B}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -964,8 +964,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1041,7 +1041,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1050,23 +1050,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1082,7 +1082,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1382,29 +1382,29 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE302" sqref="AE302"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.796875" style="2"/>
+    <col min="3" max="3" width="12.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="46" width="10.83203125" style="2"/>
+    <col min="22" max="25" width="11.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="11.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="46" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>124</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>124</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>124</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>124</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>124</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>124</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>124</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>124</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>124</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>124</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>124</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>124</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>124</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>124</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>124</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>124</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>124</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>124</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>124</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>114341</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>124</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>124</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>124</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>92942</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>124</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>94597</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>97998</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>130948</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>93751</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>124</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>117058</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>107978</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>124</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>120724</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>108418</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>94309</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>124</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>115343</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>125912</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>124</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>108117</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>91609</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>98740</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>115671</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>124</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>104433</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>122169</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>124</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>100139</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>102236</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>111326</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>124</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>100932</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>124</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>95852</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>98981</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>92274</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>84864</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>142410</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>109156</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>124</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>95849</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>103127</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>93763</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>124</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>98536</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>104807</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>119140</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>124</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>92971</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>124</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>115955</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>124</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>99544</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>124</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>95692</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>124</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>117386</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>124</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>95554</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>124</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>107995</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>124</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>120962</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>124</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>115884</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>124</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>122151</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>124</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>122421</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>124</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>110187</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>124</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>105947</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>124</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>97699</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>124</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>95492</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>124</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>129604</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>124</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>97931</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>124</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>99351</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>124</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>103881</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>124</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>98892</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>124</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>113598</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>205</v>
       </c>
@@ -10447,6 +10447,9 @@
       <c r="O94" s="2">
         <v>18656</v>
       </c>
+      <c r="P94" s="10">
+        <v>0.46300000000000002</v>
+      </c>
       <c r="Q94" s="10">
         <v>0.60099999999999998</v>
       </c>
@@ -10493,7 +10496,7 @@
         <v>105533</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>205</v>
       </c>
@@ -10539,6 +10542,9 @@
       <c r="O95" s="2">
         <v>19956</v>
       </c>
+      <c r="P95" s="10">
+        <v>0.51100000000000001</v>
+      </c>
       <c r="Q95" s="10">
         <v>0.64500000000000002</v>
       </c>
@@ -10585,7 +10591,7 @@
         <v>83204</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>205</v>
       </c>
@@ -10631,6 +10637,9 @@
       <c r="O96" s="2">
         <v>21421</v>
       </c>
+      <c r="P96" s="10">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="Q96" s="10">
         <v>0.80400000000000005</v>
       </c>
@@ -10677,7 +10686,7 @@
         <v>98434</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>205</v>
       </c>
@@ -10723,6 +10732,9 @@
       <c r="O97" s="2">
         <v>8249</v>
       </c>
+      <c r="P97" s="10">
+        <v>0.64200000000000002</v>
+      </c>
       <c r="Q97" s="10">
         <v>0.76300000000000001</v>
       </c>
@@ -10769,7 +10781,7 @@
         <v>115080</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>205</v>
       </c>
@@ -10815,6 +10827,9 @@
       <c r="O98" s="2">
         <v>42173</v>
       </c>
+      <c r="P98" s="10">
+        <v>0.54500000000000004</v>
+      </c>
       <c r="Q98" s="10">
         <v>0.69499999999999995</v>
       </c>
@@ -10861,7 +10876,7 @@
         <v>101085</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>205</v>
       </c>
@@ -10907,6 +10922,9 @@
       <c r="O99" s="2">
         <v>11591</v>
       </c>
+      <c r="P99" s="10">
+        <v>0.46300000000000002</v>
+      </c>
       <c r="Q99" s="10">
         <v>0.59</v>
       </c>
@@ -10953,7 +10971,7 @@
         <v>100751</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>205</v>
       </c>
@@ -10999,6 +11017,9 @@
       <c r="O100" s="2">
         <v>28691</v>
       </c>
+      <c r="P100" s="10">
+        <v>0.46700000000000003</v>
+      </c>
       <c r="Q100" s="10">
         <v>0.56599999999999995</v>
       </c>
@@ -11045,7 +11066,7 @@
         <v>76529</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>205</v>
       </c>
@@ -11091,6 +11112,9 @@
       <c r="O101" s="2">
         <v>118811</v>
       </c>
+      <c r="P101" s="10">
+        <v>0.76400000000000001</v>
+      </c>
       <c r="Q101" s="10">
         <v>0.85099999999999998</v>
       </c>
@@ -11137,7 +11161,7 @@
         <v>143590</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>205</v>
       </c>
@@ -11183,6 +11207,9 @@
       <c r="O102" s="2">
         <v>19985</v>
       </c>
+      <c r="P102" s="10">
+        <v>0.64</v>
+      </c>
       <c r="Q102" s="10">
         <v>0.754</v>
       </c>
@@ -11229,7 +11256,7 @@
         <v>112447</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
@@ -11275,6 +11302,9 @@
       <c r="O103" s="2">
         <v>49542</v>
       </c>
+      <c r="P103" s="10">
+        <v>0.68899999999999995</v>
+      </c>
       <c r="Q103" s="10">
         <v>0.78</v>
       </c>
@@ -11321,7 +11351,7 @@
         <v>108601</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>205</v>
       </c>
@@ -11367,6 +11397,9 @@
       <c r="O104" s="2">
         <v>28432</v>
       </c>
+      <c r="P104" s="10">
+        <v>0.65400000000000003</v>
+      </c>
       <c r="Q104" s="10">
         <v>0.76600000000000001</v>
       </c>
@@ -11413,7 +11446,7 @@
         <v>114748</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>205</v>
       </c>
@@ -11459,6 +11492,9 @@
       <c r="O105" s="2">
         <v>8488</v>
       </c>
+      <c r="P105" s="10">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="Q105" s="10">
         <v>0.69599999999999995</v>
       </c>
@@ -11505,7 +11541,7 @@
         <v>95869</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>205</v>
       </c>
@@ -11551,6 +11587,9 @@
       <c r="O106" s="2">
         <v>13878</v>
       </c>
+      <c r="P106" s="10">
+        <v>0.47799999999999998</v>
+      </c>
       <c r="Q106" s="10">
         <v>0.57499999999999996</v>
       </c>
@@ -11597,7 +11636,7 @@
         <v>75048</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>205</v>
       </c>
@@ -11643,6 +11682,9 @@
       <c r="O107" s="2">
         <v>20059</v>
       </c>
+      <c r="P107" s="10">
+        <v>0.56699999999999995</v>
+      </c>
       <c r="Q107" s="10">
         <v>0.68899999999999995</v>
       </c>
@@ -11689,7 +11731,7 @@
         <v>92085</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>205</v>
       </c>
@@ -11735,6 +11777,9 @@
       <c r="O108" s="2">
         <v>74319</v>
       </c>
+      <c r="P108" s="10">
+        <v>0.64700000000000002</v>
+      </c>
       <c r="Q108" s="10">
         <v>0.76</v>
       </c>
@@ -11781,7 +11826,7 @@
         <v>103821</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>205</v>
       </c>
@@ -11827,6 +11872,9 @@
       <c r="O109" s="2">
         <v>12690</v>
       </c>
+      <c r="P109" s="10">
+        <v>0.46600000000000003</v>
+      </c>
       <c r="Q109" s="10">
         <v>0.60699999999999998</v>
       </c>
@@ -11873,7 +11921,7 @@
         <v>89382</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>205</v>
       </c>
@@ -11919,6 +11967,9 @@
       <c r="O110" s="2">
         <v>12984</v>
       </c>
+      <c r="P110" s="10">
+        <v>0.61899999999999999</v>
+      </c>
       <c r="Q110" s="10">
         <v>0.73099999999999998</v>
       </c>
@@ -11965,7 +12016,7 @@
         <v>98034</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>205</v>
       </c>
@@ -12011,6 +12062,9 @@
       <c r="O111" s="2">
         <v>37191</v>
       </c>
+      <c r="P111" s="10">
+        <v>0.69099999999999995</v>
+      </c>
       <c r="Q111" s="10">
         <v>0.77900000000000003</v>
       </c>
@@ -12057,7 +12111,7 @@
         <v>98917</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>205</v>
       </c>
@@ -12103,6 +12157,9 @@
       <c r="O112" s="2">
         <v>90336</v>
       </c>
+      <c r="P112" s="10">
+        <v>0.71</v>
+      </c>
       <c r="Q112" s="10">
         <v>0.80800000000000005</v>
       </c>
@@ -12149,7 +12206,7 @@
         <v>119185</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>205</v>
       </c>
@@ -12195,6 +12252,9 @@
       <c r="O113" s="2">
         <v>5104</v>
       </c>
+      <c r="P113" s="10">
+        <v>0.623</v>
+      </c>
       <c r="Q113" s="10">
         <v>0.73399999999999999</v>
       </c>
@@ -12241,7 +12301,7 @@
         <v>92922</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>205</v>
       </c>
@@ -12287,6 +12347,9 @@
       <c r="O114" s="2">
         <v>10811</v>
       </c>
+      <c r="P114" s="10">
+        <v>0.59599999999999997</v>
+      </c>
       <c r="Q114" s="10">
         <v>0.68100000000000005</v>
       </c>
@@ -12333,7 +12396,7 @@
         <v>95796</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>205</v>
       </c>
@@ -12379,6 +12442,9 @@
       <c r="O115" s="2">
         <v>27720</v>
       </c>
+      <c r="P115" s="10">
+        <v>0.51300000000000001</v>
+      </c>
       <c r="Q115" s="10">
         <v>0.64400000000000002</v>
       </c>
@@ -12425,7 +12491,7 @@
         <v>83728</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>205</v>
       </c>
@@ -12471,6 +12537,9 @@
       <c r="O116" s="2">
         <v>15955</v>
       </c>
+      <c r="P116" s="10">
+        <v>0.43099999999999999</v>
+      </c>
       <c r="Q116" s="10">
         <v>0.57399999999999995</v>
       </c>
@@ -12517,7 +12586,7 @@
         <v>80957</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>205</v>
       </c>
@@ -12563,6 +12632,9 @@
       <c r="O117" s="2">
         <v>73955</v>
       </c>
+      <c r="P117" s="10">
+        <v>0.72199999999999998</v>
+      </c>
       <c r="Q117" s="10">
         <v>0.77200000000000002</v>
       </c>
@@ -12609,7 +12681,7 @@
         <v>89431</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>205</v>
       </c>
@@ -12655,6 +12727,9 @@
       <c r="O118" s="2">
         <v>35613</v>
       </c>
+      <c r="P118" s="10">
+        <v>0.65100000000000002</v>
+      </c>
       <c r="Q118" s="10">
         <v>0.75</v>
       </c>
@@ -12701,7 +12776,7 @@
         <v>109085</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>205</v>
       </c>
@@ -12747,6 +12822,9 @@
       <c r="O119" s="2">
         <v>21730</v>
       </c>
+      <c r="P119" s="10">
+        <v>0.38900000000000001</v>
+      </c>
       <c r="Q119" s="10">
         <v>0.49399999999999999</v>
       </c>
@@ -12793,7 +12871,7 @@
         <v>67680</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>205</v>
       </c>
@@ -12839,6 +12917,9 @@
       <c r="O120" s="2">
         <v>10272</v>
       </c>
+      <c r="P120" s="10">
+        <v>0.44400000000000001</v>
+      </c>
       <c r="Q120" s="10">
         <v>0.53500000000000003</v>
       </c>
@@ -12885,7 +12966,7 @@
         <v>85355</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>205</v>
       </c>
@@ -12931,6 +13012,9 @@
       <c r="O121" s="2">
         <v>9315</v>
       </c>
+      <c r="P121" s="10">
+        <v>0.59599999999999997</v>
+      </c>
       <c r="Q121" s="10">
         <v>0.67</v>
       </c>
@@ -12977,7 +13061,7 @@
         <v>84791</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>205</v>
       </c>
@@ -13023,6 +13107,9 @@
       <c r="O122" s="2">
         <v>6856</v>
       </c>
+      <c r="P122" s="10">
+        <v>0.39500000000000002</v>
+      </c>
       <c r="Q122" s="10">
         <v>0.56000000000000005</v>
       </c>
@@ -13069,7 +13156,7 @@
         <v>78756</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>205</v>
       </c>
@@ -13115,6 +13202,9 @@
       <c r="O123" s="2">
         <v>96656</v>
       </c>
+      <c r="P123" s="10">
+        <v>0.72299999999999998</v>
+      </c>
       <c r="Q123" s="10">
         <v>0.80700000000000005</v>
       </c>
@@ -13161,7 +13251,7 @@
         <v>112550</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>205</v>
       </c>
@@ -13207,6 +13297,9 @@
       <c r="O124" s="2">
         <v>12161</v>
       </c>
+      <c r="P124" s="10">
+        <v>0.48599999999999999</v>
+      </c>
       <c r="Q124" s="10">
         <v>0.61699999999999999</v>
       </c>
@@ -13253,7 +13346,7 @@
         <v>92979</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>205</v>
       </c>
@@ -13299,6 +13392,9 @@
       <c r="O125" s="2">
         <v>7852</v>
       </c>
+      <c r="P125" s="10">
+        <v>0.44</v>
+      </c>
       <c r="Q125" s="10">
         <v>0.52600000000000002</v>
       </c>
@@ -13345,7 +13441,7 @@
         <v>80358</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>205</v>
       </c>
@@ -13391,6 +13487,9 @@
       <c r="O126" s="2">
         <v>14672</v>
       </c>
+      <c r="P126" s="10">
+        <v>0.46500000000000002</v>
+      </c>
       <c r="Q126" s="10">
         <v>0.58499999999999996</v>
       </c>
@@ -13437,7 +13536,7 @@
         <v>75502</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>205</v>
       </c>
@@ -13483,6 +13582,9 @@
       <c r="O127" s="2">
         <v>295803</v>
       </c>
+      <c r="P127" s="10">
+        <v>0.80200000000000005</v>
+      </c>
       <c r="Q127" s="10">
         <v>0.85799999999999998</v>
       </c>
@@ -13529,7 +13631,7 @@
         <v>137342</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>205</v>
       </c>
@@ -13575,6 +13677,9 @@
       <c r="O128" s="2">
         <v>14348</v>
       </c>
+      <c r="P128" s="10">
+        <v>0.53800000000000003</v>
+      </c>
       <c r="Q128" s="10">
         <v>0.66500000000000004</v>
       </c>
@@ -13621,7 +13726,7 @@
         <v>86566</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>205</v>
       </c>
@@ -13667,6 +13772,9 @@
       <c r="O129" s="2">
         <v>39451</v>
       </c>
+      <c r="P129" s="10">
+        <v>0.50800000000000001</v>
+      </c>
       <c r="Q129" s="10">
         <v>0.61299999999999999</v>
       </c>
@@ -13713,7 +13821,7 @@
         <v>83069</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>205</v>
       </c>
@@ -13759,6 +13867,9 @@
       <c r="O130" s="2">
         <v>49285</v>
       </c>
+      <c r="P130" s="10">
+        <v>0.76</v>
+      </c>
       <c r="Q130" s="10">
         <v>0.78800000000000003</v>
       </c>
@@ -13805,7 +13916,7 @@
         <v>118680</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>205</v>
       </c>
@@ -13851,6 +13962,9 @@
       <c r="O131" s="2">
         <v>6813</v>
       </c>
+      <c r="P131" s="10">
+        <v>0.54400000000000004</v>
+      </c>
       <c r="Q131" s="10">
         <v>0.69499999999999995</v>
       </c>
@@ -13897,7 +14011,7 @@
         <v>88341</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>205</v>
       </c>
@@ -13943,6 +14057,9 @@
       <c r="O132" s="2">
         <v>8589</v>
       </c>
+      <c r="P132" s="10">
+        <v>0.59799999999999998</v>
+      </c>
       <c r="Q132" s="10">
         <v>0.68</v>
       </c>
@@ -13989,7 +14106,7 @@
         <v>101456</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>205</v>
       </c>
@@ -14035,6 +14152,9 @@
       <c r="O133" s="2">
         <v>16912</v>
       </c>
+      <c r="P133" s="10">
+        <v>0.54300000000000004</v>
+      </c>
       <c r="Q133" s="10">
         <v>0.69399999999999995</v>
       </c>
@@ -14081,7 +14201,7 @@
         <v>101359</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>205</v>
       </c>
@@ -14127,6 +14247,9 @@
       <c r="O134" s="2">
         <v>24662</v>
       </c>
+      <c r="P134" s="10">
+        <v>0.61599999999999999</v>
+      </c>
       <c r="Q134" s="10">
         <v>0.72399999999999998</v>
       </c>
@@ -14173,7 +14296,7 @@
         <v>98189</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>205</v>
       </c>
@@ -14219,6 +14342,9 @@
       <c r="O135" s="2">
         <v>37121</v>
       </c>
+      <c r="P135" s="10">
+        <v>0.62</v>
+      </c>
       <c r="Q135" s="10">
         <v>0.73399999999999999</v>
       </c>
@@ -14265,7 +14391,7 @@
         <v>103879</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>205</v>
       </c>
@@ -14311,6 +14437,9 @@
       <c r="O136" s="2">
         <v>25746</v>
       </c>
+      <c r="P136" s="10">
+        <v>0.48299999999999998</v>
+      </c>
       <c r="Q136" s="10">
         <v>0.628</v>
       </c>
@@ -14357,7 +14486,7 @@
         <v>89359</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>205</v>
       </c>
@@ -14403,6 +14532,9 @@
       <c r="O137" s="2">
         <v>11258</v>
       </c>
+      <c r="P137" s="10">
+        <v>0.49</v>
+      </c>
       <c r="Q137" s="10">
         <v>0.61399999999999999</v>
       </c>
@@ -14449,7 +14581,7 @@
         <v>109815</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>205</v>
       </c>
@@ -14495,6 +14627,9 @@
       <c r="O138" s="2">
         <v>36910</v>
       </c>
+      <c r="P138" s="10">
+        <v>0.64700000000000002</v>
+      </c>
       <c r="Q138" s="10">
         <v>0.751</v>
       </c>
@@ -14541,7 +14676,7 @@
         <v>105097</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>205</v>
       </c>
@@ -14587,6 +14722,9 @@
       <c r="O139" s="2">
         <v>8565</v>
       </c>
+      <c r="P139" s="10">
+        <v>0.69299999999999995</v>
+      </c>
       <c r="Q139" s="10">
         <v>0.77200000000000002</v>
       </c>
@@ -14633,7 +14771,7 @@
         <v>94257</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>205</v>
       </c>
@@ -14679,6 +14817,9 @@
       <c r="O140" s="2">
         <v>105543</v>
       </c>
+      <c r="P140" s="10">
+        <v>0.753</v>
+      </c>
       <c r="Q140" s="10">
         <v>0.82299999999999995</v>
       </c>
@@ -14725,7 +14866,7 @@
         <v>103576</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>205</v>
       </c>
@@ -14771,6 +14912,9 @@
       <c r="O141" s="2">
         <v>29278</v>
       </c>
+      <c r="P141" s="10">
+        <v>0.495</v>
+      </c>
       <c r="Q141" s="10">
         <v>0.58699999999999997</v>
       </c>
@@ -14817,7 +14961,7 @@
         <v>80441</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>205</v>
       </c>
@@ -14863,6 +15007,9 @@
       <c r="O142" s="2">
         <v>18846</v>
       </c>
+      <c r="P142" s="10">
+        <v>0.624</v>
+      </c>
       <c r="Q142" s="10">
         <v>0.74199999999999999</v>
       </c>
@@ -14909,7 +15056,7 @@
         <v>100385</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>205</v>
       </c>
@@ -14955,6 +15102,9 @@
       <c r="O143" s="2">
         <v>18199</v>
       </c>
+      <c r="P143" s="10">
+        <v>0.45300000000000001</v>
+      </c>
       <c r="Q143" s="10">
         <v>0.58199999999999996</v>
       </c>
@@ -15001,7 +15151,7 @@
         <v>88621</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>205</v>
       </c>
@@ -15047,6 +15197,9 @@
       <c r="O144" s="2">
         <v>46250</v>
       </c>
+      <c r="P144" s="10">
+        <v>0.68500000000000005</v>
+      </c>
       <c r="Q144" s="10">
         <v>0.78300000000000003</v>
       </c>
@@ -15093,7 +15246,7 @@
         <v>106341</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>205</v>
       </c>
@@ -15139,6 +15292,9 @@
       <c r="O145" s="2">
         <v>15416</v>
       </c>
+      <c r="P145" s="10">
+        <v>0.60899999999999999</v>
+      </c>
       <c r="Q145" s="10">
         <v>0.73399999999999999</v>
       </c>
@@ -15185,7 +15341,7 @@
         <v>106379</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>205</v>
       </c>
@@ -15231,6 +15387,9 @@
       <c r="O146" s="2">
         <v>4902</v>
       </c>
+      <c r="P146" s="10">
+        <v>0.56799999999999995</v>
+      </c>
       <c r="Q146" s="10">
         <v>0.64400000000000002</v>
       </c>
@@ -15277,7 +15436,7 @@
         <v>96843</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>205</v>
       </c>
@@ -15323,6 +15482,9 @@
       <c r="O147" s="2">
         <v>46920</v>
       </c>
+      <c r="P147" s="10">
+        <v>0.625</v>
+      </c>
       <c r="Q147" s="10">
         <v>0.71299999999999997</v>
       </c>
@@ -15369,7 +15531,7 @@
         <v>108513</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>205</v>
       </c>
@@ -15415,6 +15577,9 @@
       <c r="O148" s="2">
         <v>13494</v>
       </c>
+      <c r="P148" s="10">
+        <v>0.38300000000000001</v>
+      </c>
       <c r="Q148" s="10">
         <v>0.52900000000000003</v>
       </c>
@@ -15461,7 +15626,7 @@
         <v>66218</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>205</v>
       </c>
@@ -15507,6 +15672,9 @@
       <c r="O149" s="2">
         <v>741096</v>
       </c>
+      <c r="P149" s="10">
+        <v>0.74099999999999999</v>
+      </c>
       <c r="Q149" s="10">
         <v>0.81799999999999995</v>
       </c>
@@ -15553,7 +15721,7 @@
         <v>134350</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>205</v>
       </c>
@@ -15599,6 +15767,9 @@
       <c r="O150" s="2">
         <v>48586</v>
       </c>
+      <c r="P150" s="10">
+        <v>0.69</v>
+      </c>
       <c r="Q150" s="10">
         <v>0.79100000000000004</v>
       </c>
@@ -15645,7 +15816,7 @@
         <v>125126</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>205</v>
       </c>
@@ -15691,6 +15862,9 @@
       <c r="O151" s="2">
         <v>23356</v>
       </c>
+      <c r="P151" s="10">
+        <v>0.54700000000000004</v>
+      </c>
       <c r="Q151" s="10">
         <v>0.63800000000000001</v>
       </c>
@@ -15737,7 +15911,7 @@
         <v>95031</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>205</v>
       </c>
@@ -15783,6 +15957,9 @@
       <c r="O152" s="2">
         <v>159720</v>
       </c>
+      <c r="P152" s="10">
+        <v>0.74399999999999999</v>
+      </c>
       <c r="Q152" s="10">
         <v>0.82099999999999995</v>
       </c>
@@ -15829,7 +16006,7 @@
         <v>132634</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>205</v>
       </c>
@@ -15875,6 +16052,9 @@
       <c r="O153" s="2">
         <v>16346</v>
       </c>
+      <c r="P153" s="10">
+        <v>0.45100000000000001</v>
+      </c>
       <c r="Q153" s="10">
         <v>0.58699999999999997</v>
       </c>
@@ -15921,7 +16101,7 @@
         <v>77057</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>205</v>
       </c>
@@ -15967,6 +16147,9 @@
       <c r="O154" s="2">
         <v>31883</v>
       </c>
+      <c r="P154" s="10">
+        <v>0.46600000000000003</v>
+      </c>
       <c r="Q154" s="10">
         <v>0.54100000000000004</v>
       </c>
@@ -16013,7 +16196,7 @@
         <v>71029</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -16059,6 +16242,9 @@
       <c r="O155" s="2">
         <v>14193</v>
       </c>
+      <c r="P155" s="10">
+        <v>0.59</v>
+      </c>
       <c r="Q155" s="10">
         <v>0.71</v>
       </c>
@@ -16105,7 +16291,7 @@
         <v>92900</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -16151,6 +16337,9 @@
       <c r="O156" s="2">
         <v>58849</v>
       </c>
+      <c r="P156" s="10">
+        <v>0.52700000000000002</v>
+      </c>
       <c r="Q156" s="10">
         <v>0.63900000000000001</v>
       </c>
@@ -16197,7 +16386,7 @@
         <v>90825</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -16243,6 +16432,9 @@
       <c r="O157" s="2">
         <v>15860</v>
       </c>
+      <c r="P157" s="10">
+        <v>0.46400000000000002</v>
+      </c>
       <c r="Q157" s="10">
         <v>0.58199999999999996</v>
       </c>
@@ -16289,7 +16481,7 @@
         <v>81576</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -16335,6 +16527,9 @@
       <c r="O158" s="2">
         <v>7887</v>
       </c>
+      <c r="P158" s="10">
+        <v>0.434</v>
+      </c>
       <c r="Q158" s="10">
         <v>0.50900000000000001</v>
       </c>
@@ -16381,7 +16576,7 @@
         <v>105387</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -16427,6 +16622,9 @@
       <c r="O159" s="2">
         <v>11310</v>
       </c>
+      <c r="P159" s="10">
+        <v>0.40400000000000003</v>
+      </c>
       <c r="Q159" s="10">
         <v>0.52500000000000002</v>
       </c>
@@ -16473,7 +16671,7 @@
         <v>66246</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -16519,6 +16717,9 @@
       <c r="O160" s="2">
         <v>24519</v>
       </c>
+      <c r="P160" s="10">
+        <v>0.45600000000000002</v>
+      </c>
       <c r="Q160" s="10">
         <v>0.58499999999999996</v>
       </c>
@@ -16565,7 +16766,7 @@
         <v>75913</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -16611,6 +16812,9 @@
       <c r="O161" s="2">
         <v>13870</v>
       </c>
+      <c r="P161" s="10">
+        <v>0.45400000000000001</v>
+      </c>
       <c r="Q161" s="10">
         <v>0.57399999999999995</v>
       </c>
@@ -16657,7 +16861,7 @@
         <v>77221</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -16703,6 +16907,9 @@
       <c r="O162" s="2">
         <v>24742</v>
       </c>
+      <c r="P162" s="10">
+        <v>0.504</v>
+      </c>
       <c r="Q162" s="10">
         <v>0.64600000000000002</v>
       </c>
@@ -16749,7 +16956,7 @@
         <v>81211</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -16795,6 +17002,9 @@
       <c r="O163" s="2">
         <v>9519</v>
       </c>
+      <c r="P163" s="10">
+        <v>0.63100000000000001</v>
+      </c>
       <c r="Q163" s="10">
         <v>0.74299999999999999</v>
       </c>
@@ -16841,7 +17051,7 @@
         <v>98651</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -16887,6 +17097,9 @@
       <c r="O164" s="2">
         <v>26835</v>
       </c>
+      <c r="P164" s="10">
+        <v>0.57699999999999996</v>
+      </c>
       <c r="Q164" s="10">
         <v>0.68500000000000005</v>
       </c>
@@ -16933,7 +17146,7 @@
         <v>92141</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -16979,6 +17192,9 @@
       <c r="O165" s="2">
         <v>8314</v>
       </c>
+      <c r="P165" s="10">
+        <v>0.61</v>
+      </c>
       <c r="Q165" s="10">
         <v>0.68</v>
       </c>
@@ -17025,7 +17241,7 @@
         <v>90319</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -17071,6 +17287,9 @@
       <c r="O166" s="2">
         <v>65565</v>
       </c>
+      <c r="P166" s="10">
+        <v>0.73099999999999998</v>
+      </c>
       <c r="Q166" s="10">
         <v>0.80300000000000005</v>
       </c>
@@ -17117,7 +17336,7 @@
         <v>113177</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -17163,6 +17382,9 @@
       <c r="O167" s="2">
         <v>18306</v>
       </c>
+      <c r="P167" s="10">
+        <v>0.40200000000000002</v>
+      </c>
       <c r="Q167" s="10">
         <v>0.52600000000000002</v>
       </c>
@@ -17209,7 +17431,7 @@
         <v>61824</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -17255,6 +17477,9 @@
       <c r="O168" s="2">
         <v>9531</v>
       </c>
+      <c r="P168" s="10">
+        <v>0.58599999999999997</v>
+      </c>
       <c r="Q168" s="10">
         <v>0.70799999999999996</v>
       </c>
@@ -17301,7 +17526,7 @@
         <v>97458</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -17347,6 +17572,9 @@
       <c r="O169" s="2">
         <v>82916</v>
       </c>
+      <c r="P169" s="10">
+        <v>0.64800000000000002</v>
+      </c>
       <c r="Q169" s="10">
         <v>0.752</v>
       </c>
@@ -17393,7 +17621,7 @@
         <v>104490</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -17439,6 +17667,9 @@
       <c r="O170" s="2">
         <v>13333</v>
       </c>
+      <c r="P170" s="10">
+        <v>0.38200000000000001</v>
+      </c>
       <c r="Q170" s="10">
         <v>0.501</v>
       </c>
@@ -17485,7 +17716,7 @@
         <v>75294</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -17531,6 +17762,9 @@
       <c r="O171" s="2">
         <v>19820</v>
       </c>
+      <c r="P171" s="10">
+        <v>0.58899999999999997</v>
+      </c>
       <c r="Q171" s="10">
         <v>0.70499999999999996</v>
       </c>
@@ -17577,7 +17811,7 @@
         <v>92643</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -17623,6 +17857,9 @@
       <c r="O172" s="2">
         <v>31448</v>
       </c>
+      <c r="P172" s="10">
+        <v>0.67600000000000005</v>
+      </c>
       <c r="Q172" s="10">
         <v>0.76900000000000002</v>
       </c>
@@ -17669,7 +17906,7 @@
         <v>97609</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -17715,6 +17952,9 @@
       <c r="O173" s="2">
         <v>12929</v>
       </c>
+      <c r="P173" s="10">
+        <v>0.44400000000000001</v>
+      </c>
       <c r="Q173" s="10">
         <v>0.54</v>
       </c>
@@ -17761,7 +18001,7 @@
         <v>73584</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -17807,6 +18047,9 @@
       <c r="O174" s="2">
         <v>17490</v>
       </c>
+      <c r="P174" s="10">
+        <v>0.60699999999999998</v>
+      </c>
       <c r="Q174" s="10">
         <v>0.73299999999999998</v>
       </c>
@@ -17853,7 +18096,7 @@
         <v>99947</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -17899,6 +18142,9 @@
       <c r="O175" s="2">
         <v>28602</v>
       </c>
+      <c r="P175" s="10">
+        <v>0.74299999999999999</v>
+      </c>
       <c r="Q175" s="10">
         <v>0.77900000000000003</v>
       </c>
@@ -17945,7 +18191,7 @@
         <v>96698</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -17991,6 +18237,9 @@
       <c r="O176" s="2">
         <v>6306</v>
       </c>
+      <c r="P176" s="10">
+        <v>0.46</v>
+      </c>
       <c r="Q176" s="10">
         <v>0.57599999999999996</v>
       </c>
@@ -18037,7 +18286,7 @@
         <v>70431</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -18083,6 +18332,9 @@
       <c r="O177" s="2">
         <v>21331</v>
       </c>
+      <c r="P177" s="10">
+        <v>0.628</v>
+      </c>
       <c r="Q177" s="10">
         <v>0.75800000000000001</v>
       </c>
@@ -18129,7 +18381,7 @@
         <v>99004</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -18175,6 +18427,9 @@
       <c r="O178" s="2">
         <v>10099</v>
       </c>
+      <c r="P178" s="10">
+        <v>0.45200000000000001</v>
+      </c>
       <c r="Q178" s="10">
         <v>0.57999999999999996</v>
       </c>
@@ -18221,7 +18476,7 @@
         <v>82692</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -18267,6 +18522,9 @@
       <c r="O179" s="2">
         <v>10963</v>
       </c>
+      <c r="P179" s="10">
+        <v>0.47099999999999997</v>
+      </c>
       <c r="Q179" s="10">
         <v>0.57799999999999996</v>
       </c>
@@ -18313,7 +18571,7 @@
         <v>97145</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -18359,6 +18617,9 @@
       <c r="O180" s="2">
         <v>26499</v>
       </c>
+      <c r="P180" s="10">
+        <v>0.56100000000000005</v>
+      </c>
       <c r="Q180" s="10">
         <v>0.70499999999999996</v>
       </c>
@@ -18405,7 +18666,7 @@
         <v>100006</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -18451,6 +18712,9 @@
       <c r="O181" s="2">
         <v>13923</v>
       </c>
+      <c r="P181" s="10">
+        <v>0.441</v>
+      </c>
       <c r="Q181" s="10">
         <v>0.56399999999999995</v>
       </c>
@@ -18497,7 +18761,7 @@
         <v>102404</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -18543,6 +18807,9 @@
       <c r="O182" s="2">
         <v>31499</v>
       </c>
+      <c r="P182" s="10">
+        <v>0.54900000000000004</v>
+      </c>
       <c r="Q182" s="10">
         <v>0.65800000000000003</v>
       </c>
@@ -18589,7 +18856,7 @@
         <v>92270</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -18635,6 +18902,9 @@
       <c r="O183" s="2">
         <v>43437</v>
       </c>
+      <c r="P183" s="10">
+        <v>0.67400000000000004</v>
+      </c>
       <c r="Q183" s="10">
         <v>0.79</v>
       </c>
@@ -18681,7 +18951,7 @@
         <v>113235</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -18727,6 +18997,9 @@
       <c r="O184" s="2">
         <v>7135</v>
       </c>
+      <c r="P184" s="10">
+        <v>0.55400000000000005</v>
+      </c>
       <c r="Q184" s="10">
         <v>0.629</v>
       </c>
@@ -18773,7 +19046,7 @@
         <v>100893</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -18819,6 +19092,9 @@
       <c r="O185" s="2">
         <v>23842</v>
       </c>
+      <c r="P185" s="10">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="Q185" s="10">
         <v>0.67</v>
       </c>
@@ -18865,7 +19141,7 @@
         <v>95621</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -18911,6 +19187,9 @@
       <c r="O186" s="2">
         <v>60316</v>
       </c>
+      <c r="P186" s="10">
+        <v>0.80200000000000005</v>
+      </c>
       <c r="Q186" s="10">
         <v>0.86499999999999999</v>
       </c>
@@ -18957,7 +19236,7 @@
         <v>171439</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -19003,6 +19282,9 @@
       <c r="O187" s="2">
         <v>10841</v>
       </c>
+      <c r="P187" s="10">
+        <v>0.55200000000000005</v>
+      </c>
       <c r="Q187" s="10">
         <v>0.67900000000000005</v>
       </c>
@@ -19049,7 +19331,7 @@
         <v>89734</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -19095,6 +19377,9 @@
       <c r="O188" s="2">
         <v>4755</v>
       </c>
+      <c r="P188" s="10">
+        <v>0.35499999999999998</v>
+      </c>
       <c r="Q188" s="10">
         <v>0.49199999999999999</v>
       </c>
@@ -19141,7 +19426,7 @@
         <v>79117</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -19187,6 +19472,9 @@
       <c r="O189" s="2">
         <v>14877</v>
       </c>
+      <c r="P189" s="10">
+        <v>0.60099999999999998</v>
+      </c>
       <c r="Q189" s="10">
         <v>0.72799999999999998</v>
       </c>
@@ -19233,7 +19521,7 @@
         <v>102703</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -19279,6 +19567,9 @@
       <c r="O190" s="2">
         <v>28712</v>
       </c>
+      <c r="P190" s="10">
+        <v>0.47599999999999998</v>
+      </c>
       <c r="Q190" s="10">
         <v>0.58299999999999996</v>
       </c>
@@ -19325,7 +19616,7 @@
         <v>80431</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -19371,6 +19662,9 @@
       <c r="O191" s="2">
         <v>65024</v>
       </c>
+      <c r="P191" s="10">
+        <v>0.502</v>
+      </c>
       <c r="Q191" s="10">
         <v>0.61799999999999999</v>
       </c>
@@ -19417,7 +19711,7 @@
         <v>91032</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -19463,6 +19757,9 @@
       <c r="O192" s="2">
         <v>12613</v>
       </c>
+      <c r="P192" s="10">
+        <v>0.501</v>
+      </c>
       <c r="Q192" s="10">
         <v>0.56100000000000005</v>
       </c>
@@ -19509,7 +19806,7 @@
         <v>82919</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -19555,6 +19852,9 @@
       <c r="O193" s="2">
         <v>63063</v>
       </c>
+      <c r="P193" s="10">
+        <v>0.56200000000000006</v>
+      </c>
       <c r="Q193" s="10">
         <v>0.65600000000000003</v>
       </c>
@@ -19601,7 +19901,7 @@
         <v>96454</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -19647,6 +19947,9 @@
       <c r="O194" s="2">
         <v>2282</v>
       </c>
+      <c r="P194" s="10">
+        <v>0.50800000000000001</v>
+      </c>
       <c r="Q194" s="10">
         <v>0.60899999999999999</v>
       </c>
@@ -19693,7 +19996,7 @@
         <v>77199</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -19739,6 +20042,9 @@
       <c r="O195" s="2">
         <v>17056</v>
       </c>
+      <c r="P195" s="10">
+        <v>0.44900000000000001</v>
+      </c>
       <c r="Q195" s="10">
         <v>0.57699999999999996</v>
       </c>
@@ -19785,7 +20091,7 @@
         <v>74217</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -19831,6 +20137,9 @@
       <c r="O196" s="2">
         <v>23333</v>
       </c>
+      <c r="P196" s="10">
+        <v>0.57899999999999996</v>
+      </c>
       <c r="Q196" s="10">
         <v>0.70899999999999996</v>
       </c>
@@ -19877,7 +20186,7 @@
         <v>92543</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -19923,6 +20232,9 @@
       <c r="O197" s="2">
         <v>17565</v>
       </c>
+      <c r="P197" s="10">
+        <v>0.502</v>
+      </c>
       <c r="Q197" s="10">
         <v>0.61799999999999999</v>
       </c>
@@ -19969,7 +20281,7 @@
         <v>79074</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -20015,6 +20327,9 @@
       <c r="O198" s="2">
         <v>47173</v>
       </c>
+      <c r="P198" s="10">
+        <v>0.69099999999999995</v>
+      </c>
       <c r="Q198" s="10">
         <v>0.80500000000000005</v>
       </c>
@@ -20061,7 +20376,7 @@
         <v>130355</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>205</v>
       </c>
@@ -20107,6 +20422,9 @@
       <c r="O199" s="2">
         <v>42074</v>
       </c>
+      <c r="P199" s="10">
+        <v>0.69899999999999995</v>
+      </c>
       <c r="Q199" s="10">
         <v>0.79100000000000004</v>
       </c>
@@ -20153,7 +20471,7 @@
         <v>122103</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>205</v>
       </c>
@@ -20199,6 +20517,9 @@
       <c r="O200" s="2">
         <v>17327</v>
       </c>
+      <c r="P200" s="10">
+        <v>0.58899999999999997</v>
+      </c>
       <c r="Q200" s="10">
         <v>0.73599999999999999</v>
       </c>
@@ -20245,7 +20566,7 @@
         <v>98971</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>205</v>
       </c>
@@ -20291,6 +20612,9 @@
       <c r="O201" s="2">
         <v>17061</v>
       </c>
+      <c r="P201" s="10">
+        <v>0.57499999999999996</v>
+      </c>
       <c r="Q201" s="10">
         <v>0.754</v>
       </c>
@@ -20337,7 +20661,7 @@
         <v>117656</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>205</v>
       </c>
@@ -20383,6 +20707,9 @@
       <c r="O202" s="2">
         <v>24512</v>
       </c>
+      <c r="P202" s="10">
+        <v>0.57399999999999995</v>
+      </c>
       <c r="Q202" s="10">
         <v>0.68</v>
       </c>
@@ -20429,7 +20756,7 @@
         <v>94255</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>205</v>
       </c>
@@ -20475,6 +20802,9 @@
       <c r="O203" s="2">
         <v>12460</v>
       </c>
+      <c r="P203" s="10">
+        <v>0.50600000000000001</v>
+      </c>
       <c r="Q203" s="10">
         <v>0.63500000000000001</v>
       </c>
@@ -20521,7 +20851,7 @@
         <v>97757</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>205</v>
       </c>
@@ -20567,6 +20897,9 @@
       <c r="O204" s="2">
         <v>14339</v>
       </c>
+      <c r="P204" s="10">
+        <v>0.58899999999999997</v>
+      </c>
       <c r="Q204" s="10">
         <v>0.72099999999999997</v>
       </c>
@@ -20613,7 +20946,7 @@
         <v>94640</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>205</v>
       </c>
@@ -20659,6 +20992,9 @@
       <c r="O205" s="2">
         <v>8809</v>
       </c>
+      <c r="P205" s="10">
+        <v>0.61599999999999999</v>
+      </c>
       <c r="Q205" s="10">
         <v>0.70699999999999996</v>
       </c>
@@ -20705,7 +21041,7 @@
         <v>93600</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -20751,6 +21087,9 @@
       <c r="O206" s="2">
         <v>15007</v>
       </c>
+      <c r="P206" s="10">
+        <v>0.68100000000000005</v>
+      </c>
       <c r="Q206" s="10">
         <v>0.76900000000000002</v>
       </c>
@@ -20797,7 +21136,7 @@
         <v>112921</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -20843,6 +21182,9 @@
       <c r="O207" s="2">
         <v>113792</v>
       </c>
+      <c r="P207" s="10">
+        <v>0.70899999999999996</v>
+      </c>
       <c r="Q207" s="10">
         <v>0.80300000000000005</v>
       </c>
@@ -20889,7 +21231,7 @@
         <v>121083</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>205</v>
       </c>
@@ -20935,6 +21277,9 @@
       <c r="O208" s="2">
         <v>11717</v>
       </c>
+      <c r="P208" s="10">
+        <v>0.57799999999999996</v>
+      </c>
       <c r="Q208" s="10">
         <v>0.68799999999999994</v>
       </c>
@@ -20981,7 +21326,7 @@
         <v>99371</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>205</v>
       </c>
@@ -21027,6 +21372,9 @@
       <c r="O209" s="2">
         <v>20813</v>
       </c>
+      <c r="P209" s="10">
+        <v>0.44600000000000001</v>
+      </c>
       <c r="Q209" s="10">
         <v>0.57799999999999996</v>
       </c>
@@ -21073,7 +21421,7 @@
         <v>84940</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>205</v>
       </c>
@@ -21119,6 +21467,9 @@
       <c r="O210" s="2">
         <v>13621</v>
       </c>
+      <c r="P210" s="10">
+        <v>0.60699999999999998</v>
+      </c>
       <c r="Q210" s="10">
         <v>0.70899999999999996</v>
       </c>
@@ -21165,7 +21516,7 @@
         <v>87401</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>205</v>
       </c>
@@ -21211,6 +21562,9 @@
       <c r="O211" s="2">
         <v>35637</v>
       </c>
+      <c r="P211" s="10">
+        <v>0.53</v>
+      </c>
       <c r="Q211" s="10">
         <v>0.61299999999999999</v>
       </c>
@@ -21257,7 +21611,7 @@
         <v>86385</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>205</v>
       </c>
@@ -21303,6 +21657,9 @@
       <c r="O212" s="2">
         <v>7355</v>
       </c>
+      <c r="P212" s="10">
+        <v>0.42799999999999999</v>
+      </c>
       <c r="Q212" s="10">
         <v>0.53600000000000003</v>
       </c>
@@ -21349,7 +21706,7 @@
         <v>63163</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>205</v>
       </c>
@@ -21395,6 +21752,9 @@
       <c r="O213" s="2">
         <v>24939</v>
       </c>
+      <c r="P213" s="10">
+        <v>0.73499999999999999</v>
+      </c>
       <c r="Q213" s="10">
         <v>0.82599999999999996</v>
       </c>
@@ -21441,7 +21801,7 @@
         <v>129425</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>254</v>
       </c>
@@ -21536,7 +21896,7 @@
         <v>89124</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>254</v>
       </c>
@@ -21631,7 +21991,7 @@
         <v>104745</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>254</v>
       </c>
@@ -21726,7 +22086,7 @@
         <v>97801</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>254</v>
       </c>
@@ -21821,7 +22181,7 @@
         <v>95883</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>254</v>
       </c>
@@ -21916,7 +22276,7 @@
         <v>96657</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>254</v>
       </c>
@@ -22011,7 +22371,7 @@
         <v>112469</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>254</v>
       </c>
@@ -22106,7 +22466,7 @@
         <v>94438</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>254</v>
       </c>
@@ -22201,7 +22561,7 @@
         <v>102675</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>254</v>
       </c>
@@ -22296,7 +22656,7 @@
         <v>132723</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>254</v>
       </c>
@@ -22391,7 +22751,7 @@
         <v>94449</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>254</v>
       </c>
@@ -22486,7 +22846,7 @@
         <v>105633</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>254</v>
       </c>
@@ -22581,7 +22941,7 @@
         <v>109675</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>254</v>
       </c>
@@ -22676,7 +23036,7 @@
         <v>134305</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>254</v>
       </c>
@@ -22771,7 +23131,7 @@
         <v>103105</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>254</v>
       </c>
@@ -22866,7 +23226,7 @@
         <v>96567</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>254</v>
       </c>
@@ -22961,7 +23321,7 @@
         <v>90166</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>254</v>
       </c>
@@ -23056,7 +23416,7 @@
         <v>93521</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>254</v>
       </c>
@@ -23151,7 +23511,7 @@
         <v>136762</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>254</v>
       </c>
@@ -23246,7 +23606,7 @@
         <v>108789</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>254</v>
       </c>
@@ -23341,7 +23701,7 @@
         <v>104630</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>254</v>
       </c>
@@ -23436,7 +23796,7 @@
         <v>209739</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>254</v>
       </c>
@@ -23531,7 +23891,7 @@
         <v>122957</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>254</v>
       </c>
@@ -23626,7 +23986,7 @@
         <v>128413</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>254</v>
       </c>
@@ -23721,7 +24081,7 @@
         <v>104448</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>254</v>
       </c>
@@ -23816,7 +24176,7 @@
         <v>133530</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>254</v>
       </c>
@@ -23911,7 +24271,7 @@
         <v>107826</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>254</v>
       </c>
@@ -24006,7 +24366,7 @@
         <v>92768</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>254</v>
       </c>
@@ -24101,7 +24461,7 @@
         <v>193712</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>254</v>
       </c>
@@ -24196,7 +24556,7 @@
         <v>138849</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>254</v>
       </c>
@@ -24291,7 +24651,7 @@
         <v>92827</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>254</v>
       </c>
@@ -24386,7 +24746,7 @@
         <v>151317</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>254</v>
       </c>
@@ -24481,7 +24841,7 @@
         <v>119214</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>254</v>
       </c>
@@ -24576,7 +24936,7 @@
         <v>95683</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>254</v>
       </c>
@@ -24671,7 +25031,7 @@
         <v>98202</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>254</v>
       </c>
@@ -24766,7 +25126,7 @@
         <v>103709</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>254</v>
       </c>
@@ -24861,7 +25221,7 @@
         <v>96401</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>254</v>
       </c>
@@ -24956,7 +25316,7 @@
         <v>93083</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>254</v>
       </c>
@@ -25051,7 +25411,7 @@
         <v>113115</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>254</v>
       </c>
@@ -25146,7 +25506,7 @@
         <v>101970</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>254</v>
       </c>
@@ -25241,7 +25601,7 @@
         <v>87095</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>254</v>
       </c>
@@ -25336,7 +25696,7 @@
         <v>93458</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -25431,7 +25791,7 @@
         <v>106990</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -25526,7 +25886,7 @@
         <v>126534</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>254</v>
       </c>
@@ -25621,7 +25981,7 @@
         <v>86404</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>254</v>
       </c>
@@ -25716,7 +26076,7 @@
         <v>118155</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>254</v>
       </c>
@@ -25811,7 +26171,7 @@
         <v>103811</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>254</v>
       </c>
@@ -25906,7 +26266,7 @@
         <v>128207</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>254</v>
       </c>
@@ -26001,7 +26361,7 @@
         <v>123970</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>254</v>
       </c>
@@ -26096,7 +26456,7 @@
         <v>112839</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>254</v>
       </c>
@@ -26191,7 +26551,7 @@
         <v>112755</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>254</v>
       </c>
@@ -26286,7 +26646,7 @@
         <v>106860</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>254</v>
       </c>
@@ -26381,7 +26741,7 @@
         <v>145099</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>254</v>
       </c>
@@ -26476,7 +26836,7 @@
         <v>79932</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>254</v>
       </c>
@@ -26571,7 +26931,7 @@
         <v>109770</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>254</v>
       </c>
@@ -26666,7 +27026,7 @@
         <v>125350</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>254</v>
       </c>
@@ -26761,7 +27121,7 @@
         <v>88201</v>
       </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>254</v>
       </c>
@@ -26856,7 +27216,7 @@
         <v>126356</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>254</v>
       </c>
@@ -26951,7 +27311,7 @@
         <v>76981</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>254</v>
       </c>
@@ -27046,7 +27406,7 @@
         <v>102671</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>254</v>
       </c>
@@ -27141,7 +27501,7 @@
         <v>105083</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>254</v>
       </c>
@@ -27236,7 +27596,7 @@
         <v>89360</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>254</v>
       </c>
@@ -27331,7 +27691,7 @@
         <v>118761</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>254</v>
       </c>
@@ -27426,7 +27786,7 @@
         <v>99790</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>254</v>
       </c>
@@ -27521,7 +27881,7 @@
         <v>95343</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>254</v>
       </c>
@@ -27616,7 +27976,7 @@
         <v>104397</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>254</v>
       </c>
@@ -27711,7 +28071,7 @@
         <v>106545</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>254</v>
       </c>
@@ -27806,7 +28166,7 @@
         <v>122287</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>254</v>
       </c>
@@ -27901,7 +28261,7 @@
         <v>100452</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>254</v>
       </c>
@@ -27996,7 +28356,7 @@
         <v>109897</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>254</v>
       </c>
@@ -28091,7 +28451,7 @@
         <v>109258</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>254</v>
       </c>
@@ -28186,7 +28546,7 @@
         <v>101871</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>254</v>
       </c>
@@ -28281,7 +28641,7 @@
         <v>108209</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>254</v>
       </c>
@@ -28376,7 +28736,7 @@
         <v>98012</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>254</v>
       </c>
@@ -28471,7 +28831,7 @@
         <v>93330</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>254</v>
       </c>
@@ -28566,7 +28926,7 @@
         <v>117037</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>254</v>
       </c>
@@ -28661,7 +29021,7 @@
         <v>121984</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>254</v>
       </c>
@@ -28756,7 +29116,7 @@
         <v>136347</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>254</v>
       </c>
@@ -28851,7 +29211,7 @@
         <v>110626</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>254</v>
       </c>
@@ -28946,7 +29306,7 @@
         <v>97897</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>254</v>
       </c>
@@ -29041,7 +29401,7 @@
         <v>115033</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>254</v>
       </c>
@@ -29136,7 +29496,7 @@
         <v>98929</v>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>254</v>
       </c>
@@ -29231,7 +29591,7 @@
         <v>80623</v>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>254</v>
       </c>
@@ -29326,7 +29686,7 @@
         <v>158230</v>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>254</v>
       </c>
@@ -29421,7 +29781,7 @@
         <v>104499</v>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>254</v>
       </c>
@@ -29516,7 +29876,7 @@
         <v>110991</v>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>254</v>
       </c>
@@ -29611,7 +29971,7 @@
         <v>98824</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>254</v>
       </c>
@@ -29706,7 +30066,7 @@
         <v>130554</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>254</v>
       </c>
@@ -29801,7 +30161,7 @@
         <v>88417</v>
       </c>
     </row>
-    <row r="302" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>258</v>
       </c>
@@ -29876,94 +30236,94 @@
       <c r="AD302" s="11"/>
       <c r="AE302" s="11"/>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
       <c r="D303" s="3"/>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
       <c r="D304" s="3"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305" s="3"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306" s="3"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308" s="3"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309" s="3"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310" s="3"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311" s="3"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312" s="3"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313" s="3"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D314" s="3"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D315" s="3"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D317" s="3"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D318" s="3"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D321" s="3"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D323" s="3"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D324" s="3"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D325" s="3"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D326" s="3"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D327" s="3"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D328" s="3"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D329" s="3"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D331" s="3"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D332" s="3"/>
     </row>
   </sheetData>

--- a/final data set-1.xlsx
+++ b/final data set-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon\Documents\Grad School\Urban &amp; Regional (ECON 8080)\Regional Inequality\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D7F09F-500B-4EE0-AAAE-367B3E9CAA41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACF2D52-538F-3340-93FA-C25EC5657EAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC3E5AA7-7033-AF48-8182-68477F67646B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{DC3E5AA7-7033-AF48-8182-68477F67646B}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="310">
   <si>
     <t>STATE</t>
   </si>
@@ -957,6 +957,9 @@
   </si>
   <si>
     <t>High School Educational Attainment of Adult Population (25 and Older)</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/tables/time-series/demo/income-poverty/historical-income-households.html</t>
   </si>
 </sst>
 </file>
@@ -964,10 +967,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1021,16 +1024,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1038,35 +1053,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAC1D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAC1D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1082,7 +1111,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1380,31 +1409,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A7E2-1E9C-554D-B7C1-C1CBE767890F}">
   <dimension ref="A1:AT332"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="83" zoomScaleNormal="107" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V302" sqref="V302:AJ302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.796875" style="2"/>
-    <col min="3" max="3" width="12.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="11.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="11.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="46" width="10.796875" style="2"/>
+    <col min="22" max="25" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="11.1640625" style="2" bestFit="1"/>
+    <col min="35" max="36" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="46" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1557,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -1627,7 +1658,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -1725,7 +1756,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -1823,7 +1854,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
@@ -1921,7 +1952,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -2019,7 +2050,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>124</v>
       </c>
@@ -2117,7 +2148,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>124</v>
       </c>
@@ -2215,7 +2246,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
@@ -2316,7 +2347,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
@@ -2417,7 +2448,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>124</v>
       </c>
@@ -2515,7 +2546,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>124</v>
       </c>
@@ -2613,7 +2644,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -2711,7 +2742,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>124</v>
       </c>
@@ -2809,7 +2840,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>124</v>
       </c>
@@ -2907,7 +2938,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>124</v>
       </c>
@@ -3005,7 +3036,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>124</v>
       </c>
@@ -3103,7 +3134,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>124</v>
       </c>
@@ -3210,7 +3241,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
@@ -3311,7 +3342,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>124</v>
       </c>
@@ -3412,7 +3443,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>124</v>
       </c>
@@ -3509,8 +3540,11 @@
       <c r="AQ21" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR21" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>124</v>
       </c>
@@ -3607,8 +3641,11 @@
       <c r="AQ22" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR22" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>124</v>
       </c>
@@ -3705,8 +3742,11 @@
       <c r="AQ23" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR23" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -3803,8 +3843,11 @@
       <c r="AQ24" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR24" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -3901,8 +3944,11 @@
       <c r="AQ25" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR25" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -3999,8 +4045,11 @@
       <c r="AQ26" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR26" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>124</v>
       </c>
@@ -4097,8 +4146,11 @@
       <c r="AQ27" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR27" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -4195,8 +4247,11 @@
       <c r="AQ28" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR28" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>124</v>
       </c>
@@ -4293,8 +4348,11 @@
       <c r="AQ29" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR29" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
@@ -4391,8 +4449,11 @@
       <c r="AQ30" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR30" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>124</v>
       </c>
@@ -4489,8 +4550,11 @@
       <c r="AQ31" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AR31" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
@@ -4587,8 +4651,11 @@
       <c r="AQ32" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AR32" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>124</v>
       </c>
@@ -4685,8 +4752,11 @@
       <c r="AQ33" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AR33" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>124</v>
       </c>
@@ -4783,8 +4853,11 @@
       <c r="AQ34" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AR34" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
@@ -4881,8 +4954,11 @@
       <c r="AQ35" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AR35" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>124</v>
       </c>
@@ -4977,7 +5053,7 @@
         <v>114341</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>124</v>
       </c>
@@ -5075,7 +5151,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>124</v>
       </c>
@@ -5176,7 +5252,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>124</v>
       </c>
@@ -5271,7 +5347,7 @@
         <v>92942</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>124</v>
       </c>
@@ -5366,7 +5442,7 @@
         <v>94597</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -5461,7 +5537,7 @@
         <v>97998</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -5556,7 +5632,7 @@
         <v>130948</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
@@ -5651,7 +5727,7 @@
         <v>93751</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>124</v>
       </c>
@@ -5746,7 +5822,7 @@
         <v>117058</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -5841,7 +5917,7 @@
         <v>107978</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>124</v>
       </c>
@@ -5936,7 +6012,7 @@
         <v>120724</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
@@ -6031,7 +6107,7 @@
         <v>108418</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -6126,7 +6202,7 @@
         <v>94309</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>124</v>
       </c>
@@ -6221,7 +6297,7 @@
         <v>115343</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
@@ -6316,7 +6392,7 @@
         <v>125912</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>124</v>
       </c>
@@ -6411,7 +6487,7 @@
         <v>108117</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
@@ -6506,7 +6582,7 @@
         <v>91609</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -6601,7 +6677,7 @@
         <v>98740</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
@@ -6696,7 +6772,7 @@
         <v>115671</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>124</v>
       </c>
@@ -6791,7 +6867,7 @@
         <v>104433</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -6886,7 +6962,7 @@
         <v>122169</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>124</v>
       </c>
@@ -6981,7 +7057,7 @@
         <v>100139</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
@@ -7076,7 +7152,7 @@
         <v>102236</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
@@ -7171,7 +7247,7 @@
         <v>111326</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>124</v>
       </c>
@@ -7266,7 +7342,7 @@
         <v>100932</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>124</v>
       </c>
@@ -7361,7 +7437,7 @@
         <v>95852</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -7456,7 +7532,7 @@
         <v>98981</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -7551,7 +7627,7 @@
         <v>92274</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -7646,7 +7722,7 @@
         <v>84864</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
@@ -7741,7 +7817,7 @@
         <v>142410</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -7836,7 +7912,7 @@
         <v>109156</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>124</v>
       </c>
@@ -7931,7 +8007,7 @@
         <v>95849</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -8026,7 +8102,7 @@
         <v>103127</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -8121,7 +8197,7 @@
         <v>93763</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>124</v>
       </c>
@@ -8216,7 +8292,7 @@
         <v>98536</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -8311,7 +8387,7 @@
         <v>104807</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -8406,7 +8482,7 @@
         <v>119140</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>124</v>
       </c>
@@ -8501,7 +8577,7 @@
         <v>92971</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>124</v>
       </c>
@@ -8596,7 +8672,7 @@
         <v>115955</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>124</v>
       </c>
@@ -8691,7 +8767,7 @@
         <v>99544</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>124</v>
       </c>
@@ -8786,7 +8862,7 @@
         <v>95692</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>124</v>
       </c>
@@ -8881,7 +8957,7 @@
         <v>117386</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>124</v>
       </c>
@@ -8976,7 +9052,7 @@
         <v>95554</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>124</v>
       </c>
@@ -9071,7 +9147,7 @@
         <v>107995</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>124</v>
       </c>
@@ -9166,7 +9242,7 @@
         <v>120962</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>124</v>
       </c>
@@ -9261,7 +9337,7 @@
         <v>115884</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>124</v>
       </c>
@@ -9356,7 +9432,7 @@
         <v>122151</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>124</v>
       </c>
@@ -9451,7 +9527,7 @@
         <v>122421</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>124</v>
       </c>
@@ -9546,7 +9622,7 @@
         <v>110187</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>124</v>
       </c>
@@ -9641,7 +9717,7 @@
         <v>105947</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>124</v>
       </c>
@@ -9736,7 +9812,7 @@
         <v>97699</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>124</v>
       </c>
@@ -9831,7 +9907,7 @@
         <v>95492</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>124</v>
       </c>
@@ -9926,7 +10002,7 @@
         <v>129604</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>124</v>
       </c>
@@ -10021,7 +10097,7 @@
         <v>97931</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>124</v>
       </c>
@@ -10116,7 +10192,7 @@
         <v>99351</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>124</v>
       </c>
@@ -10211,7 +10287,7 @@
         <v>103881</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>124</v>
       </c>
@@ -10306,7 +10382,7 @@
         <v>98892</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>124</v>
       </c>
@@ -10401,7 +10477,7 @@
         <v>113598</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>205</v>
       </c>
@@ -10496,7 +10572,7 @@
         <v>105533</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>205</v>
       </c>
@@ -10591,7 +10667,7 @@
         <v>83204</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>205</v>
       </c>
@@ -10686,7 +10762,7 @@
         <v>98434</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>205</v>
       </c>
@@ -10781,7 +10857,7 @@
         <v>115080</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>205</v>
       </c>
@@ -10876,7 +10952,7 @@
         <v>101085</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>205</v>
       </c>
@@ -10971,7 +11047,7 @@
         <v>100751</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>205</v>
       </c>
@@ -11066,7 +11142,7 @@
         <v>76529</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>205</v>
       </c>
@@ -11161,7 +11237,7 @@
         <v>143590</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>205</v>
       </c>
@@ -11256,7 +11332,7 @@
         <v>112447</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
@@ -11351,7 +11427,7 @@
         <v>108601</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>205</v>
       </c>
@@ -11446,7 +11522,7 @@
         <v>114748</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>205</v>
       </c>
@@ -11541,7 +11617,7 @@
         <v>95869</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>205</v>
       </c>
@@ -11636,7 +11712,7 @@
         <v>75048</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>205</v>
       </c>
@@ -11731,7 +11807,7 @@
         <v>92085</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>205</v>
       </c>
@@ -11826,7 +11902,7 @@
         <v>103821</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>205</v>
       </c>
@@ -11921,7 +11997,7 @@
         <v>89382</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>205</v>
       </c>
@@ -12016,7 +12092,7 @@
         <v>98034</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>205</v>
       </c>
@@ -12111,7 +12187,7 @@
         <v>98917</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>205</v>
       </c>
@@ -12206,7 +12282,7 @@
         <v>119185</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>205</v>
       </c>
@@ -12301,7 +12377,7 @@
         <v>92922</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>205</v>
       </c>
@@ -12396,7 +12472,7 @@
         <v>95796</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>205</v>
       </c>
@@ -12491,7 +12567,7 @@
         <v>83728</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>205</v>
       </c>
@@ -12586,7 +12662,7 @@
         <v>80957</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>205</v>
       </c>
@@ -12681,7 +12757,7 @@
         <v>89431</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>205</v>
       </c>
@@ -12776,7 +12852,7 @@
         <v>109085</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>205</v>
       </c>
@@ -12871,7 +12947,7 @@
         <v>67680</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>205</v>
       </c>
@@ -12966,7 +13042,7 @@
         <v>85355</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>205</v>
       </c>
@@ -13061,7 +13137,7 @@
         <v>84791</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>205</v>
       </c>
@@ -13156,7 +13232,7 @@
         <v>78756</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>205</v>
       </c>
@@ -13251,7 +13327,7 @@
         <v>112550</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>205</v>
       </c>
@@ -13346,7 +13422,7 @@
         <v>92979</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>205</v>
       </c>
@@ -13441,7 +13517,7 @@
         <v>80358</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>205</v>
       </c>
@@ -13536,7 +13612,7 @@
         <v>75502</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>205</v>
       </c>
@@ -13631,7 +13707,7 @@
         <v>137342</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>205</v>
       </c>
@@ -13726,7 +13802,7 @@
         <v>86566</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>205</v>
       </c>
@@ -13821,7 +13897,7 @@
         <v>83069</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>205</v>
       </c>
@@ -13916,7 +13992,7 @@
         <v>118680</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>205</v>
       </c>
@@ -14011,7 +14087,7 @@
         <v>88341</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>205</v>
       </c>
@@ -14106,7 +14182,7 @@
         <v>101456</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>205</v>
       </c>
@@ -14201,7 +14277,7 @@
         <v>101359</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>205</v>
       </c>
@@ -14296,7 +14372,7 @@
         <v>98189</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>205</v>
       </c>
@@ -14391,7 +14467,7 @@
         <v>103879</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>205</v>
       </c>
@@ -14486,7 +14562,7 @@
         <v>89359</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>205</v>
       </c>
@@ -14581,7 +14657,7 @@
         <v>109815</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>205</v>
       </c>
@@ -14676,7 +14752,7 @@
         <v>105097</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>205</v>
       </c>
@@ -14771,7 +14847,7 @@
         <v>94257</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>205</v>
       </c>
@@ -14866,7 +14942,7 @@
         <v>103576</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>205</v>
       </c>
@@ -14961,7 +15037,7 @@
         <v>80441</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>205</v>
       </c>
@@ -15056,7 +15132,7 @@
         <v>100385</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>205</v>
       </c>
@@ -15151,7 +15227,7 @@
         <v>88621</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>205</v>
       </c>
@@ -15246,7 +15322,7 @@
         <v>106341</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>205</v>
       </c>
@@ -15341,7 +15417,7 @@
         <v>106379</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>205</v>
       </c>
@@ -15436,7 +15512,7 @@
         <v>96843</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>205</v>
       </c>
@@ -15531,7 +15607,7 @@
         <v>108513</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>205</v>
       </c>
@@ -15626,7 +15702,7 @@
         <v>66218</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>205</v>
       </c>
@@ -15721,7 +15797,7 @@
         <v>134350</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>205</v>
       </c>
@@ -15816,7 +15892,7 @@
         <v>125126</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>205</v>
       </c>
@@ -15911,7 +15987,7 @@
         <v>95031</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>205</v>
       </c>
@@ -16006,7 +16082,7 @@
         <v>132634</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>205</v>
       </c>
@@ -16101,7 +16177,7 @@
         <v>77057</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>205</v>
       </c>
@@ -16196,7 +16272,7 @@
         <v>71029</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -16291,7 +16367,7 @@
         <v>92900</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -16386,7 +16462,7 @@
         <v>90825</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -16481,7 +16557,7 @@
         <v>81576</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -16576,7 +16652,7 @@
         <v>105387</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -16671,7 +16747,7 @@
         <v>66246</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -16766,7 +16842,7 @@
         <v>75913</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -16861,7 +16937,7 @@
         <v>77221</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -16956,7 +17032,7 @@
         <v>81211</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -17051,7 +17127,7 @@
         <v>98651</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -17146,7 +17222,7 @@
         <v>92141</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -17241,7 +17317,7 @@
         <v>90319</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -17336,7 +17412,7 @@
         <v>113177</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -17431,7 +17507,7 @@
         <v>61824</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -17526,7 +17602,7 @@
         <v>97458</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -17621,7 +17697,7 @@
         <v>104490</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -17716,7 +17792,7 @@
         <v>75294</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -17811,7 +17887,7 @@
         <v>92643</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -17906,7 +17982,7 @@
         <v>97609</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -18001,7 +18077,7 @@
         <v>73584</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -18096,7 +18172,7 @@
         <v>99947</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -18191,7 +18267,7 @@
         <v>96698</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -18286,7 +18362,7 @@
         <v>70431</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -18381,7 +18457,7 @@
         <v>99004</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -18476,7 +18552,7 @@
         <v>82692</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -18571,7 +18647,7 @@
         <v>97145</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -18666,7 +18742,7 @@
         <v>100006</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -18761,7 +18837,7 @@
         <v>102404</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -18856,7 +18932,7 @@
         <v>92270</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -18951,7 +19027,7 @@
         <v>113235</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -19046,7 +19122,7 @@
         <v>100893</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -19141,7 +19217,7 @@
         <v>95621</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -19236,7 +19312,7 @@
         <v>171439</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -19331,7 +19407,7 @@
         <v>89734</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -19426,7 +19502,7 @@
         <v>79117</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -19521,7 +19597,7 @@
         <v>102703</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -19616,7 +19692,7 @@
         <v>80431</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -19711,7 +19787,7 @@
         <v>91032</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -19806,7 +19882,7 @@
         <v>82919</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -19901,7 +19977,7 @@
         <v>96454</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -19996,7 +20072,7 @@
         <v>77199</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -20091,7 +20167,7 @@
         <v>74217</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -20186,7 +20262,7 @@
         <v>92543</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -20281,7 +20357,7 @@
         <v>79074</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -20376,7 +20452,7 @@
         <v>130355</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>205</v>
       </c>
@@ -20471,7 +20547,7 @@
         <v>122103</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>205</v>
       </c>
@@ -20566,7 +20642,7 @@
         <v>98971</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>205</v>
       </c>
@@ -20661,7 +20737,7 @@
         <v>117656</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>205</v>
       </c>
@@ -20756,7 +20832,7 @@
         <v>94255</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>205</v>
       </c>
@@ -20851,7 +20927,7 @@
         <v>97757</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>205</v>
       </c>
@@ -20946,7 +21022,7 @@
         <v>94640</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>205</v>
       </c>
@@ -21041,7 +21117,7 @@
         <v>93600</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -21136,7 +21212,7 @@
         <v>112921</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -21231,7 +21307,7 @@
         <v>121083</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>205</v>
       </c>
@@ -21326,7 +21402,7 @@
         <v>99371</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>205</v>
       </c>
@@ -21421,7 +21497,7 @@
         <v>84940</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>205</v>
       </c>
@@ -21516,7 +21592,7 @@
         <v>87401</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>205</v>
       </c>
@@ -21611,7 +21687,7 @@
         <v>86385</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>205</v>
       </c>
@@ -21706,7 +21782,7 @@
         <v>63163</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>205</v>
       </c>
@@ -21801,7 +21877,7 @@
         <v>129425</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>254</v>
       </c>
@@ -21896,7 +21972,7 @@
         <v>89124</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>254</v>
       </c>
@@ -21991,7 +22067,7 @@
         <v>104745</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>254</v>
       </c>
@@ -22086,7 +22162,7 @@
         <v>97801</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>254</v>
       </c>
@@ -22181,7 +22257,7 @@
         <v>95883</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>254</v>
       </c>
@@ -22276,7 +22352,7 @@
         <v>96657</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>254</v>
       </c>
@@ -22371,7 +22447,7 @@
         <v>112469</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>254</v>
       </c>
@@ -22466,7 +22542,7 @@
         <v>94438</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>254</v>
       </c>
@@ -22561,7 +22637,7 @@
         <v>102675</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>254</v>
       </c>
@@ -22656,7 +22732,7 @@
         <v>132723</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>254</v>
       </c>
@@ -22751,7 +22827,7 @@
         <v>94449</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>254</v>
       </c>
@@ -22846,7 +22922,7 @@
         <v>105633</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>254</v>
       </c>
@@ -22941,7 +23017,7 @@
         <v>109675</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>254</v>
       </c>
@@ -23036,7 +23112,7 @@
         <v>134305</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>254</v>
       </c>
@@ -23131,7 +23207,7 @@
         <v>103105</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>254</v>
       </c>
@@ -23226,7 +23302,7 @@
         <v>96567</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>254</v>
       </c>
@@ -23321,7 +23397,7 @@
         <v>90166</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>254</v>
       </c>
@@ -23416,7 +23492,7 @@
         <v>93521</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>254</v>
       </c>
@@ -23511,7 +23587,7 @@
         <v>136762</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>254</v>
       </c>
@@ -23606,7 +23682,7 @@
         <v>108789</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>254</v>
       </c>
@@ -23701,7 +23777,7 @@
         <v>104630</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>254</v>
       </c>
@@ -23796,7 +23872,7 @@
         <v>209739</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>254</v>
       </c>
@@ -23891,7 +23967,7 @@
         <v>122957</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>254</v>
       </c>
@@ -23986,7 +24062,7 @@
         <v>128413</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>254</v>
       </c>
@@ -24081,7 +24157,7 @@
         <v>104448</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>254</v>
       </c>
@@ -24176,7 +24252,7 @@
         <v>133530</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>254</v>
       </c>
@@ -24271,7 +24347,7 @@
         <v>107826</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>254</v>
       </c>
@@ -24366,7 +24442,7 @@
         <v>92768</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>254</v>
       </c>
@@ -24461,7 +24537,7 @@
         <v>193712</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>254</v>
       </c>
@@ -24556,7 +24632,7 @@
         <v>138849</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>254</v>
       </c>
@@ -24651,7 +24727,7 @@
         <v>92827</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>254</v>
       </c>
@@ -24746,7 +24822,7 @@
         <v>151317</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>254</v>
       </c>
@@ -24841,7 +24917,7 @@
         <v>119214</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>254</v>
       </c>
@@ -24936,7 +25012,7 @@
         <v>95683</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>254</v>
       </c>
@@ -25031,7 +25107,7 @@
         <v>98202</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>254</v>
       </c>
@@ -25126,7 +25202,7 @@
         <v>103709</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>254</v>
       </c>
@@ -25221,7 +25297,7 @@
         <v>96401</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>254</v>
       </c>
@@ -25316,7 +25392,7 @@
         <v>93083</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>254</v>
       </c>
@@ -25411,7 +25487,7 @@
         <v>113115</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>254</v>
       </c>
@@ -25506,7 +25582,7 @@
         <v>101970</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>254</v>
       </c>
@@ -25601,7 +25677,7 @@
         <v>87095</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>254</v>
       </c>
@@ -25696,7 +25772,7 @@
         <v>93458</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -25791,7 +25867,7 @@
         <v>106990</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -25886,7 +25962,7 @@
         <v>126534</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>254</v>
       </c>
@@ -25981,7 +26057,7 @@
         <v>86404</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>254</v>
       </c>
@@ -26076,7 +26152,7 @@
         <v>118155</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>254</v>
       </c>
@@ -26171,7 +26247,7 @@
         <v>103811</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>254</v>
       </c>
@@ -26266,7 +26342,7 @@
         <v>128207</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>254</v>
       </c>
@@ -26361,7 +26437,7 @@
         <v>123970</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>254</v>
       </c>
@@ -26456,7 +26532,7 @@
         <v>112839</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>254</v>
       </c>
@@ -26551,7 +26627,7 @@
         <v>112755</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>254</v>
       </c>
@@ -26646,7 +26722,7 @@
         <v>106860</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>254</v>
       </c>
@@ -26741,7 +26817,7 @@
         <v>145099</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>254</v>
       </c>
@@ -26836,7 +26912,7 @@
         <v>79932</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>254</v>
       </c>
@@ -26931,7 +27007,7 @@
         <v>109770</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>254</v>
       </c>
@@ -27026,7 +27102,7 @@
         <v>125350</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>254</v>
       </c>
@@ -27121,7 +27197,7 @@
         <v>88201</v>
       </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>254</v>
       </c>
@@ -27216,7 +27292,7 @@
         <v>126356</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>254</v>
       </c>
@@ -27311,7 +27387,7 @@
         <v>76981</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>254</v>
       </c>
@@ -27406,7 +27482,7 @@
         <v>102671</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>254</v>
       </c>
@@ -27501,7 +27577,7 @@
         <v>105083</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>254</v>
       </c>
@@ -27596,7 +27672,7 @@
         <v>89360</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>254</v>
       </c>
@@ -27691,7 +27767,7 @@
         <v>118761</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>254</v>
       </c>
@@ -27786,7 +27862,7 @@
         <v>99790</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>254</v>
       </c>
@@ -27881,7 +27957,7 @@
         <v>95343</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>254</v>
       </c>
@@ -27976,7 +28052,7 @@
         <v>104397</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>254</v>
       </c>
@@ -28071,7 +28147,7 @@
         <v>106545</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>254</v>
       </c>
@@ -28166,7 +28242,7 @@
         <v>122287</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>254</v>
       </c>
@@ -28261,7 +28337,7 @@
         <v>100452</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>254</v>
       </c>
@@ -28356,7 +28432,7 @@
         <v>109897</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>254</v>
       </c>
@@ -28451,7 +28527,7 @@
         <v>109258</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>254</v>
       </c>
@@ -28546,7 +28622,7 @@
         <v>101871</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>254</v>
       </c>
@@ -28641,7 +28717,7 @@
         <v>108209</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>254</v>
       </c>
@@ -28736,7 +28812,7 @@
         <v>98012</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>254</v>
       </c>
@@ -28831,7 +28907,7 @@
         <v>93330</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>254</v>
       </c>
@@ -28926,7 +29002,7 @@
         <v>117037</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>254</v>
       </c>
@@ -29021,7 +29097,7 @@
         <v>121984</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>254</v>
       </c>
@@ -29116,7 +29192,7 @@
         <v>136347</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>254</v>
       </c>
@@ -29211,7 +29287,7 @@
         <v>110626</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>254</v>
       </c>
@@ -29306,7 +29382,7 @@
         <v>97897</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>254</v>
       </c>
@@ -29401,7 +29477,7 @@
         <v>115033</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>254</v>
       </c>
@@ -29496,7 +29572,7 @@
         <v>98929</v>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>254</v>
       </c>
@@ -29591,7 +29667,7 @@
         <v>80623</v>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>254</v>
       </c>
@@ -29686,7 +29762,7 @@
         <v>158230</v>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>254</v>
       </c>
@@ -29781,7 +29857,7 @@
         <v>104499</v>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>254</v>
       </c>
@@ -29876,7 +29952,7 @@
         <v>110991</v>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>254</v>
       </c>
@@ -29971,7 +30047,7 @@
         <v>98824</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>254</v>
       </c>
@@ -30066,7 +30142,7 @@
         <v>130554</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>254</v>
       </c>
@@ -30161,7 +30237,7 @@
         <v>88417</v>
       </c>
     </row>
-    <row r="302" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>258</v>
       </c>
@@ -30225,105 +30301,140 @@
       <c r="U302" s="10">
         <v>0.151</v>
       </c>
-      <c r="V302" s="11"/>
-      <c r="W302" s="11"/>
-      <c r="X302" s="11"/>
-      <c r="Y302" s="11"/>
-      <c r="Z302" s="11"/>
-      <c r="AA302" s="11"/>
-      <c r="AB302" s="11"/>
-      <c r="AC302" s="11"/>
-      <c r="AD302" s="11"/>
-      <c r="AE302" s="11"/>
-    </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V302" s="15">
+        <v>12500</v>
+      </c>
+      <c r="W302" s="15">
+        <v>23662</v>
+      </c>
+      <c r="X302" s="15">
+        <v>36200</v>
+      </c>
+      <c r="Y302" s="15">
+        <v>55205</v>
+      </c>
+      <c r="Z302" s="15">
+        <v>94748</v>
+      </c>
+      <c r="AA302" s="15">
+        <v>17920</v>
+      </c>
+      <c r="AB302" s="15">
+        <v>33000</v>
+      </c>
+      <c r="AC302" s="15">
+        <v>52174</v>
+      </c>
+      <c r="AD302" s="15">
+        <v>81766</v>
+      </c>
+      <c r="AE302" s="15">
+        <v>145220</v>
+      </c>
+      <c r="AF302" s="15">
+        <v>20000</v>
+      </c>
+      <c r="AG302" s="15">
+        <v>38000</v>
+      </c>
+      <c r="AH302" s="15">
+        <v>61500</v>
+      </c>
+      <c r="AI302" s="15">
+        <v>100029</v>
+      </c>
+      <c r="AJ302" s="15">
+        <v>180485</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D303" s="3"/>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D304" s="3"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D305" s="3"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D306" s="3"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D308" s="3"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D309" s="3"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D310" s="3"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D311" s="3"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D312" s="3"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D313" s="3"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D314" s="3"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D315" s="3"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D317" s="3"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D318" s="3"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D321" s="3"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D323" s="3"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D324" s="3"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D325" s="3"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D326" s="3"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D327" s="3"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D328" s="3"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D329" s="3"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D331" s="3"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D332" s="3"/>
     </row>
   </sheetData>

--- a/final data set-1.xlsx
+++ b/final data set-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACF2D52-538F-3340-93FA-C25EC5657EAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F6ABFC-BDE2-4D46-97AB-160AF0A96689}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{DC3E5AA7-7033-AF48-8182-68477F67646B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="312">
   <si>
     <t>STATE</t>
   </si>
@@ -961,6 +961,12 @@
   <si>
     <t>https://www.census.gov/data/tables/time-series/demo/income-poverty/historical-income-households.html</t>
   </si>
+  <si>
+    <t>https://www.census.gov/data/tables/time-series/dec/historical-income-counties.html</t>
+  </si>
+  <si>
+    <t>https://factfinder.census.gov/faces/tableservices/jsf/pages/productview.xhtml?src=bkmk</t>
+  </si>
 </sst>
 </file>
 
@@ -1409,9 +1415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A7E2-1E9C-554D-B7C1-C1CBE767890F}">
   <dimension ref="A1:AT332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="83" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V302" sqref="V302:AJ302"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="107" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,8 +1436,9 @@
     <col min="26" max="26" width="13" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="12" style="11" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="11.1640625" style="2" bestFit="1"/>
-    <col min="35" max="36" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="46" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1651,6 +1658,21 @@
       <c r="AE2" s="13">
         <v>100936</v>
       </c>
+      <c r="AF2" s="11">
+        <v>23263</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>38250</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>55798</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>80256</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>124048</v>
+      </c>
       <c r="AQ2" s="2" t="s">
         <v>262</v>
       </c>
@@ -1752,8 +1774,26 @@
       <c r="AE3" s="13">
         <v>128825</v>
       </c>
+      <c r="AF3" s="11">
+        <v>23023</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>40059</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>60016</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>90780</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>152506</v>
+      </c>
       <c r="AQ3" s="2" t="s">
         <v>263</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
@@ -1850,8 +1890,26 @@
       <c r="AE4" s="13">
         <v>121452</v>
       </c>
+      <c r="AF4" s="11">
+        <v>24578</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>43644</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>64946</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>100113</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>165789</v>
+      </c>
       <c r="AQ4" s="2" t="s">
         <v>264</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.2">
@@ -1948,6 +2006,21 @@
       <c r="AE5" s="13">
         <v>88118</v>
       </c>
+      <c r="AF5" s="11">
+        <v>22473</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>39568</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>56881</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>81990</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>126349</v>
+      </c>
       <c r="AQ5" s="2" t="s">
         <v>265</v>
       </c>
@@ -2046,6 +2119,21 @@
       <c r="AE6" s="13">
         <v>82712</v>
       </c>
+      <c r="AF6" s="11">
+        <v>20201</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>32216</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>49747</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>73131</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>115262</v>
+      </c>
       <c r="AQ6" s="2" t="s">
         <v>266</v>
       </c>
@@ -2144,6 +2232,21 @@
       <c r="AE7" s="13">
         <v>156554</v>
       </c>
+      <c r="AF7" s="11">
+        <v>29152</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>53521</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>82322</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>127056</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>250000</v>
+      </c>
       <c r="AQ7" s="2" t="s">
         <v>267</v>
       </c>
@@ -2242,6 +2345,21 @@
       <c r="AE8" s="13">
         <v>115798</v>
       </c>
+      <c r="AF8" s="11">
+        <v>22686</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>39460</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>59466</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>89667</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>160293</v>
+      </c>
       <c r="AQ8" s="2" t="s">
         <v>268</v>
       </c>
@@ -2340,6 +2458,21 @@
       <c r="AE9" s="13">
         <v>108114</v>
       </c>
+      <c r="AF9" s="11">
+        <v>21753</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>41012</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>59845</v>
+      </c>
+      <c r="AI9" s="11">
+        <v>84143</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>138236</v>
+      </c>
       <c r="AQ9" s="2" t="s">
         <v>269</v>
       </c>
@@ -2441,6 +2574,21 @@
       <c r="AE10" s="13">
         <v>109094</v>
       </c>
+      <c r="AF10" s="11">
+        <v>21194</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>34348</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>52908</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>76701</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>125190</v>
+      </c>
       <c r="AQ10" s="2" t="s">
         <v>270</v>
       </c>
@@ -2542,6 +2690,21 @@
       <c r="AE11" s="13">
         <v>109995</v>
       </c>
+      <c r="AF11" s="11">
+        <v>21804</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>39352</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>60506</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>88550</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>138779</v>
+      </c>
       <c r="AQ11" s="2" t="s">
         <v>271</v>
       </c>
@@ -2640,6 +2803,21 @@
       <c r="AE12" s="13">
         <v>90271</v>
       </c>
+      <c r="AF12" s="11">
+        <v>22269</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>38234</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>57710</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>82695</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>126050</v>
+      </c>
       <c r="AQ12" s="2" t="s">
         <v>272</v>
       </c>
@@ -2738,6 +2916,21 @@
       <c r="AE13" s="13">
         <v>96467</v>
       </c>
+      <c r="AF13" s="11">
+        <v>21593</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>38360</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>59131</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>85361</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>131089</v>
+      </c>
       <c r="AQ13" s="2" t="s">
         <v>273</v>
       </c>
@@ -2836,6 +3029,21 @@
       <c r="AE14" s="13">
         <v>98571</v>
       </c>
+      <c r="AF14" s="11">
+        <v>16260</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>31554</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>47594</v>
+      </c>
+      <c r="AI14" s="11">
+        <v>70771</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>101363</v>
+      </c>
       <c r="AQ14" s="2" t="s">
         <v>274</v>
       </c>
@@ -2934,6 +3142,21 @@
       <c r="AE15" s="13">
         <v>100216</v>
       </c>
+      <c r="AF15" s="11">
+        <v>23632</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>38167</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>54063</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>80279</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>126709</v>
+      </c>
       <c r="AQ15" s="2" t="s">
         <v>275</v>
       </c>
@@ -3032,6 +3255,21 @@
       <c r="AE16" s="13">
         <v>115548</v>
       </c>
+      <c r="AF16" s="11">
+        <v>27035</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>46567</v>
+      </c>
+      <c r="AH16" s="11">
+        <v>68885</v>
+      </c>
+      <c r="AI16" s="11">
+        <v>99171</v>
+      </c>
+      <c r="AJ16" s="11">
+        <v>158570</v>
+      </c>
       <c r="AQ16" s="2" t="s">
         <v>276</v>
       </c>
@@ -3130,6 +3368,21 @@
       <c r="AE17" s="13">
         <v>105296</v>
       </c>
+      <c r="AF17" s="11">
+        <v>21592</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>39168</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>55574</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>80933</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>131314</v>
+      </c>
       <c r="AQ17" s="2" t="s">
         <v>277</v>
       </c>
@@ -3228,6 +3481,21 @@
       <c r="AE18" s="13">
         <v>107078</v>
       </c>
+      <c r="AF18" s="11">
+        <v>22196</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>38898</v>
+      </c>
+      <c r="AH18" s="11">
+        <v>57681</v>
+      </c>
+      <c r="AI18" s="11">
+        <v>86323</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>135263</v>
+      </c>
       <c r="AQ18" s="2" t="s">
         <v>278</v>
       </c>
@@ -3335,11 +3603,29 @@
       <c r="AE19" s="13">
         <v>118716</v>
       </c>
+      <c r="AF19" s="11">
+        <v>16471</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>30722</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>47941</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>76346</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>131641</v>
+      </c>
       <c r="AQ19" s="2" t="s">
         <v>279</v>
       </c>
       <c r="AR19" s="2" t="s">
         <v>300</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.2">
@@ -3436,11 +3722,29 @@
       <c r="AE20" s="13">
         <v>120132</v>
       </c>
+      <c r="AF20" s="11">
+        <v>25094</v>
+      </c>
+      <c r="AG20" s="11">
+        <v>43260</v>
+      </c>
+      <c r="AH20" s="11">
+        <v>64046</v>
+      </c>
+      <c r="AI20" s="11">
+        <v>91228</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>147195</v>
+      </c>
       <c r="AQ20" s="2" t="s">
         <v>280</v>
       </c>
       <c r="AR20" s="2" t="s">
         <v>305</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.2">
@@ -3537,11 +3841,29 @@
       <c r="AE21" s="13">
         <v>126531</v>
       </c>
+      <c r="AF21" s="11">
+        <v>22524</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>38624</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>57004</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>83616</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>142548</v>
+      </c>
       <c r="AQ21" s="2" t="s">
         <v>281</v>
       </c>
       <c r="AR21" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.2">
@@ -3638,11 +3960,29 @@
       <c r="AE22" s="13">
         <v>103577</v>
       </c>
+      <c r="AF22" s="11">
+        <v>14829</v>
+      </c>
+      <c r="AG22" s="11">
+        <v>28981</v>
+      </c>
+      <c r="AH22" s="11">
+        <v>43955</v>
+      </c>
+      <c r="AI22" s="11">
+        <v>69125</v>
+      </c>
+      <c r="AJ22" s="11">
+        <v>116904</v>
+      </c>
       <c r="AQ22" s="2" t="s">
         <v>282</v>
       </c>
       <c r="AR22" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
@@ -3739,11 +4079,29 @@
       <c r="AE23" s="13">
         <v>131266</v>
       </c>
+      <c r="AF23" s="11">
+        <v>23537</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>41703</v>
+      </c>
+      <c r="AH23" s="11">
+        <v>64876</v>
+      </c>
+      <c r="AI23" s="11">
+        <v>99227</v>
+      </c>
+      <c r="AJ23" s="11">
+        <v>164179</v>
+      </c>
       <c r="AQ23" s="2" t="s">
         <v>283</v>
       </c>
       <c r="AR23" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.2">
@@ -3840,11 +4198,29 @@
       <c r="AE24" s="13">
         <v>97849</v>
       </c>
+      <c r="AF24" s="11">
+        <v>21719</v>
+      </c>
+      <c r="AG24" s="11">
+        <v>37026</v>
+      </c>
+      <c r="AH24" s="11">
+        <v>54432</v>
+      </c>
+      <c r="AI24" s="11">
+        <v>83345</v>
+      </c>
+      <c r="AJ24" s="11">
+        <v>128479</v>
+      </c>
       <c r="AQ24" s="2" t="s">
         <v>284</v>
       </c>
       <c r="AR24" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
@@ -3941,11 +4317,29 @@
       <c r="AE25" s="13">
         <v>113542</v>
       </c>
+      <c r="AF25" s="11">
+        <v>25896</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>42324</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>63078</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>92911</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>155256</v>
+      </c>
       <c r="AQ25" s="2" t="s">
         <v>285</v>
       </c>
       <c r="AR25" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
@@ -4042,11 +4436,29 @@
       <c r="AE26" s="13">
         <v>95616</v>
       </c>
+      <c r="AF26" s="11">
+        <v>20531</v>
+      </c>
+      <c r="AG26" s="11">
+        <v>34853</v>
+      </c>
+      <c r="AH26" s="11">
+        <v>53968</v>
+      </c>
+      <c r="AI26" s="11">
+        <v>81496</v>
+      </c>
+      <c r="AJ26" s="11">
+        <v>120031</v>
+      </c>
       <c r="AQ26" s="2" t="s">
         <v>286</v>
       </c>
       <c r="AR26" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
@@ -4143,11 +4555,29 @@
       <c r="AE27" s="13">
         <v>101161</v>
       </c>
+      <c r="AF27" s="11">
+        <v>21320</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>39132</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>60863</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>88536</v>
+      </c>
+      <c r="AJ27" s="11">
+        <v>137204</v>
+      </c>
       <c r="AQ27" s="2" t="s">
         <v>287</v>
       </c>
       <c r="AR27" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
@@ -4244,11 +4674,29 @@
       <c r="AE28" s="13">
         <v>105808</v>
       </c>
+      <c r="AF28" s="11">
+        <v>17664</v>
+      </c>
+      <c r="AG28" s="11">
+        <v>31314</v>
+      </c>
+      <c r="AH28" s="11">
+        <v>48388</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>75803</v>
+      </c>
+      <c r="AJ28" s="11">
+        <v>124478</v>
+      </c>
       <c r="AQ28" s="2" t="s">
         <v>288</v>
       </c>
       <c r="AR28" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.2">
@@ -4345,11 +4793,29 @@
       <c r="AE29" s="13">
         <v>90056</v>
       </c>
+      <c r="AF29" s="11">
+        <v>19448</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>35984</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>53789</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>83723</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>139458</v>
+      </c>
       <c r="AQ29" s="2" t="s">
         <v>289</v>
       </c>
       <c r="AR29" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.2">
@@ -4446,11 +4912,29 @@
       <c r="AE30" s="13">
         <v>216870</v>
       </c>
+      <c r="AF30" s="11">
+        <v>40927</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>69582</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>100175</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>146709</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>250000</v>
+      </c>
       <c r="AQ30" s="2" t="s">
         <v>290</v>
       </c>
       <c r="AR30" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.2">
@@ -4547,11 +5031,29 @@
       <c r="AE31" s="13">
         <v>143095</v>
       </c>
+      <c r="AF31" s="11">
+        <v>29986</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>52374</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>73845</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>105144</v>
+      </c>
+      <c r="AJ31" s="11">
+        <v>172362</v>
+      </c>
       <c r="AQ31" s="2" t="s">
         <v>291</v>
       </c>
       <c r="AR31" s="2" t="s">
         <v>309</v>
+      </c>
+      <c r="AS31" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.2">
@@ -4648,14 +5150,32 @@
       <c r="AE32" s="13">
         <v>113391</v>
       </c>
+      <c r="AF32" s="11">
+        <v>22437</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>43609</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>62922</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>91204</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>137139</v>
+      </c>
       <c r="AQ32" s="2" t="s">
         <v>292</v>
       </c>
       <c r="AR32" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="AS32" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>124</v>
       </c>
@@ -4749,14 +5269,32 @@
       <c r="AE33" s="13">
         <v>128916</v>
       </c>
+      <c r="AF33" s="11">
+        <v>35388</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>55963</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>81503</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>116126</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>180211</v>
+      </c>
       <c r="AQ33" s="2" t="s">
         <v>293</v>
       </c>
       <c r="AR33" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="AS33" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>124</v>
       </c>
@@ -4850,14 +5388,32 @@
       <c r="AE34" s="13">
         <v>107379</v>
       </c>
+      <c r="AF34" s="11">
+        <v>18161</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>32816</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>50148</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>76691</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>121842</v>
+      </c>
       <c r="AQ34" s="2" t="s">
         <v>294</v>
       </c>
       <c r="AR34" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="AS34" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
@@ -4951,14 +5507,32 @@
       <c r="AE35" s="13">
         <v>120294</v>
       </c>
+      <c r="AF35" s="11">
+        <v>19509</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>35714</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>56388</v>
+      </c>
+      <c r="AI35" s="11">
+        <v>87806</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>138140</v>
+      </c>
       <c r="AQ35" s="2" t="s">
         <v>295</v>
       </c>
       <c r="AR35" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="AS35" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>124</v>
       </c>
@@ -5052,8 +5626,23 @@
       <c r="AE36" s="13">
         <v>114341</v>
       </c>
+      <c r="AF36" s="11">
+        <v>22000</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>37799</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>57569</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>81314</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>123828</v>
+      </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>124</v>
       </c>
@@ -5147,11 +5736,26 @@
       <c r="AE37" s="13">
         <v>103559</v>
       </c>
+      <c r="AF37" s="11">
+        <v>22235</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>36870</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>54681</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>81469</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>129816</v>
+      </c>
       <c r="AQ37" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>124</v>
       </c>
@@ -5245,6 +5849,21 @@
       <c r="AE38" s="13">
         <v>115721</v>
       </c>
+      <c r="AF38" s="11">
+        <v>28552</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>46761</v>
+      </c>
+      <c r="AH38" s="11">
+        <v>68782</v>
+      </c>
+      <c r="AI38" s="11">
+        <v>91144</v>
+      </c>
+      <c r="AJ38" s="11">
+        <v>131612</v>
+      </c>
       <c r="AQ38" s="2" t="s">
         <v>307</v>
       </c>
@@ -5252,7 +5871,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>124</v>
       </c>
@@ -5346,8 +5965,23 @@
       <c r="AE39" s="13">
         <v>92942</v>
       </c>
+      <c r="AF39" s="11">
+        <v>19364</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>33048</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>48732</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>72956</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>110221</v>
+      </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>124</v>
       </c>
@@ -5441,8 +6075,23 @@
       <c r="AE40" s="13">
         <v>94597</v>
       </c>
+      <c r="AF40" s="11">
+        <v>20205</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>34577</v>
+      </c>
+      <c r="AH40" s="11">
+        <v>52774</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>83276</v>
+      </c>
+      <c r="AJ40" s="11">
+        <v>138080</v>
+      </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -5536,8 +6185,23 @@
       <c r="AE41" s="13">
         <v>97998</v>
       </c>
+      <c r="AF41" s="11">
+        <v>22201</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>38355</v>
+      </c>
+      <c r="AH41" s="11">
+        <v>51918</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>76789</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>118475</v>
+      </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -5631,8 +6295,23 @@
       <c r="AE42" s="13">
         <v>130948</v>
       </c>
+      <c r="AF42" s="11">
+        <v>30015</v>
+      </c>
+      <c r="AG42" s="11">
+        <v>51211</v>
+      </c>
+      <c r="AH42" s="11">
+        <v>75988</v>
+      </c>
+      <c r="AI42" s="11">
+        <v>108982</v>
+      </c>
+      <c r="AJ42" s="11">
+        <v>178750</v>
+      </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
@@ -5726,8 +6405,23 @@
       <c r="AE43" s="13">
         <v>93751</v>
       </c>
+      <c r="AF43" s="11">
+        <v>15874</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>31880</v>
+      </c>
+      <c r="AH43" s="11">
+        <v>51737</v>
+      </c>
+      <c r="AI43" s="11">
+        <v>76316</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>129494</v>
+      </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>124</v>
       </c>
@@ -5821,8 +6515,23 @@
       <c r="AE44" s="13">
         <v>117058</v>
       </c>
+      <c r="AF44" s="11">
+        <v>24700</v>
+      </c>
+      <c r="AG44" s="11">
+        <v>42786</v>
+      </c>
+      <c r="AH44" s="11">
+        <v>60125</v>
+      </c>
+      <c r="AI44" s="11">
+        <v>87152</v>
+      </c>
+      <c r="AJ44" s="11">
+        <v>147287</v>
+      </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -5916,8 +6625,23 @@
       <c r="AE45" s="13">
         <v>107978</v>
       </c>
+      <c r="AF45" s="11">
+        <v>23720</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>39368</v>
+      </c>
+      <c r="AH45" s="11">
+        <v>54625</v>
+      </c>
+      <c r="AI45" s="11">
+        <v>78872</v>
+      </c>
+      <c r="AJ45" s="11">
+        <v>127497</v>
+      </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>124</v>
       </c>
@@ -6011,8 +6735,23 @@
       <c r="AE46" s="13">
         <v>120724</v>
       </c>
+      <c r="AF46" s="11">
+        <v>19599</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>38463</v>
+      </c>
+      <c r="AH46" s="11">
+        <v>60954</v>
+      </c>
+      <c r="AI46" s="11">
+        <v>93317</v>
+      </c>
+      <c r="AJ46" s="11">
+        <v>150880</v>
+      </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
@@ -6106,8 +6845,23 @@
       <c r="AE47" s="13">
         <v>108418</v>
       </c>
+      <c r="AF47" s="11">
+        <v>20366</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>36879</v>
+      </c>
+      <c r="AH47" s="11">
+        <v>59048</v>
+      </c>
+      <c r="AI47" s="11">
+        <v>87634</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>144596</v>
+      </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -6201,8 +6955,23 @@
       <c r="AE48" s="13">
         <v>94309</v>
       </c>
+      <c r="AF48" s="11">
+        <v>18084</v>
+      </c>
+      <c r="AG48" s="11">
+        <v>35178</v>
+      </c>
+      <c r="AH48" s="11">
+        <v>53220</v>
+      </c>
+      <c r="AI48" s="11">
+        <v>79795</v>
+      </c>
+      <c r="AJ48" s="11">
+        <v>130088</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>124</v>
       </c>
@@ -6296,8 +7065,23 @@
       <c r="AE49" s="13">
         <v>115343</v>
       </c>
+      <c r="AF49" s="11">
+        <v>19730</v>
+      </c>
+      <c r="AG49" s="11">
+        <v>35817</v>
+      </c>
+      <c r="AH49" s="11">
+        <v>53421</v>
+      </c>
+      <c r="AI49" s="11">
+        <v>80433</v>
+      </c>
+      <c r="AJ49" s="11">
+        <v>129674</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
@@ -6391,8 +7175,23 @@
       <c r="AE50" s="13">
         <v>125912</v>
       </c>
+      <c r="AF50" s="11">
+        <v>19134</v>
+      </c>
+      <c r="AG50" s="11">
+        <v>34282</v>
+      </c>
+      <c r="AH50" s="11">
+        <v>53757</v>
+      </c>
+      <c r="AI50" s="11">
+        <v>85278</v>
+      </c>
+      <c r="AJ50" s="11">
+        <v>153413</v>
+      </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>124</v>
       </c>
@@ -6486,8 +7285,23 @@
       <c r="AE51" s="13">
         <v>108117</v>
       </c>
+      <c r="AF51" s="11">
+        <v>21267</v>
+      </c>
+      <c r="AG51" s="11">
+        <v>37889</v>
+      </c>
+      <c r="AH51" s="11">
+        <v>58459</v>
+      </c>
+      <c r="AI51" s="11">
+        <v>84910</v>
+      </c>
+      <c r="AJ51" s="11">
+        <v>137198</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
@@ -6581,8 +7395,23 @@
       <c r="AE52" s="13">
         <v>91609</v>
       </c>
+      <c r="AF52" s="11">
+        <v>20071</v>
+      </c>
+      <c r="AG52" s="11">
+        <v>37272</v>
+      </c>
+      <c r="AH52" s="11">
+        <v>52141</v>
+      </c>
+      <c r="AI52" s="11">
+        <v>80855</v>
+      </c>
+      <c r="AJ52" s="11">
+        <v>135314</v>
+      </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -6676,8 +7505,23 @@
       <c r="AE53" s="13">
         <v>98740</v>
       </c>
+      <c r="AF53" s="11">
+        <v>18789</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>33258</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>49977</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>78142</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>130151</v>
+      </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
@@ -6771,8 +7615,23 @@
       <c r="AE54" s="13">
         <v>115671</v>
       </c>
+      <c r="AF54" s="11">
+        <v>12469</v>
+      </c>
+      <c r="AG54" s="11">
+        <v>28914</v>
+      </c>
+      <c r="AH54" s="11">
+        <v>51054</v>
+      </c>
+      <c r="AI54" s="11">
+        <v>83546</v>
+      </c>
+      <c r="AJ54" s="11">
+        <v>152068</v>
+      </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>124</v>
       </c>
@@ -6866,8 +7725,23 @@
       <c r="AE55" s="13">
         <v>104433</v>
       </c>
+      <c r="AF55" s="11">
+        <v>23353</v>
+      </c>
+      <c r="AG55" s="11">
+        <v>39618</v>
+      </c>
+      <c r="AH55" s="11">
+        <v>58019</v>
+      </c>
+      <c r="AI55" s="11">
+        <v>85364</v>
+      </c>
+      <c r="AJ55" s="11">
+        <v>135105</v>
+      </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -6961,8 +7835,23 @@
       <c r="AE56" s="13">
         <v>122169</v>
       </c>
+      <c r="AF56" s="11">
+        <v>25002</v>
+      </c>
+      <c r="AG56" s="11">
+        <v>44777</v>
+      </c>
+      <c r="AH56" s="11">
+        <v>68098</v>
+      </c>
+      <c r="AI56" s="11">
+        <v>100584</v>
+      </c>
+      <c r="AJ56" s="11">
+        <v>148754</v>
+      </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>124</v>
       </c>
@@ -7056,8 +7945,23 @@
       <c r="AE57" s="13">
         <v>100139</v>
       </c>
+      <c r="AF57" s="11">
+        <v>22238</v>
+      </c>
+      <c r="AG57" s="11">
+        <v>40032</v>
+      </c>
+      <c r="AH57" s="11">
+        <v>59335</v>
+      </c>
+      <c r="AI57" s="11">
+        <v>84478</v>
+      </c>
+      <c r="AJ57" s="11">
+        <v>125391</v>
+      </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
@@ -7151,8 +8055,23 @@
       <c r="AE58" s="13">
         <v>102236</v>
       </c>
+      <c r="AF58" s="11">
+        <v>23583</v>
+      </c>
+      <c r="AG58" s="11">
+        <v>39431</v>
+      </c>
+      <c r="AH58" s="11">
+        <v>57587</v>
+      </c>
+      <c r="AI58" s="11">
+        <v>79018</v>
+      </c>
+      <c r="AJ58" s="11">
+        <v>121459</v>
+      </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
@@ -7246,8 +8165,23 @@
       <c r="AE59" s="13">
         <v>111326</v>
       </c>
+      <c r="AF59" s="11">
+        <v>24302</v>
+      </c>
+      <c r="AG59" s="11">
+        <v>43875</v>
+      </c>
+      <c r="AH59" s="11">
+        <v>66421</v>
+      </c>
+      <c r="AI59" s="11">
+        <v>104838</v>
+      </c>
+      <c r="AJ59" s="11">
+        <v>161144</v>
+      </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>124</v>
       </c>
@@ -7341,8 +8275,23 @@
       <c r="AE60" s="13">
         <v>100932</v>
       </c>
+      <c r="AF60" s="11">
+        <v>14965</v>
+      </c>
+      <c r="AG60" s="11">
+        <v>30156</v>
+      </c>
+      <c r="AH60" s="11">
+        <v>46408</v>
+      </c>
+      <c r="AI60" s="11">
+        <v>71135</v>
+      </c>
+      <c r="AJ60" s="11">
+        <v>125889</v>
+      </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>124</v>
       </c>
@@ -7436,8 +8385,23 @@
       <c r="AE61" s="13">
         <v>95852</v>
       </c>
+      <c r="AF61" s="11">
+        <v>21165</v>
+      </c>
+      <c r="AG61" s="11">
+        <v>35889</v>
+      </c>
+      <c r="AH61" s="11">
+        <v>52045</v>
+      </c>
+      <c r="AI61" s="11">
+        <v>76111</v>
+      </c>
+      <c r="AJ61" s="11">
+        <v>130761</v>
+      </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -7531,8 +8495,23 @@
       <c r="AE62" s="13">
         <v>98981</v>
       </c>
+      <c r="AF62" s="11">
+        <v>20625</v>
+      </c>
+      <c r="AG62" s="11">
+        <v>34977</v>
+      </c>
+      <c r="AH62" s="11">
+        <v>52765</v>
+      </c>
+      <c r="AI62" s="11">
+        <v>78785</v>
+      </c>
+      <c r="AJ62" s="11">
+        <v>125781</v>
+      </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -7626,8 +8605,23 @@
       <c r="AE63" s="13">
         <v>92274</v>
       </c>
+      <c r="AF63" s="11">
+        <v>19360</v>
+      </c>
+      <c r="AG63" s="11">
+        <v>35688</v>
+      </c>
+      <c r="AH63" s="11">
+        <v>54555</v>
+      </c>
+      <c r="AI63" s="11">
+        <v>77240</v>
+      </c>
+      <c r="AJ63" s="11">
+        <v>119313</v>
+      </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -7721,8 +8715,23 @@
       <c r="AE64" s="13">
         <v>84864</v>
       </c>
+      <c r="AF64" s="11">
+        <v>18227</v>
+      </c>
+      <c r="AG64" s="11">
+        <v>33067</v>
+      </c>
+      <c r="AH64" s="11">
+        <v>49968</v>
+      </c>
+      <c r="AI64" s="11">
+        <v>75965</v>
+      </c>
+      <c r="AJ64" s="11">
+        <v>114200</v>
+      </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
@@ -7816,8 +8825,23 @@
       <c r="AE65" s="13">
         <v>142410</v>
       </c>
+      <c r="AF65" s="11">
+        <v>26991</v>
+      </c>
+      <c r="AG65" s="11">
+        <v>49351</v>
+      </c>
+      <c r="AH65" s="11">
+        <v>75747</v>
+      </c>
+      <c r="AI65" s="11">
+        <v>108648</v>
+      </c>
+      <c r="AJ65" s="11">
+        <v>173762</v>
+      </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -7911,8 +8935,23 @@
       <c r="AE66" s="13">
         <v>109156</v>
       </c>
+      <c r="AF66" s="11">
+        <v>25438</v>
+      </c>
+      <c r="AG66" s="11">
+        <v>45572</v>
+      </c>
+      <c r="AH66" s="11">
+        <v>70422</v>
+      </c>
+      <c r="AI66" s="11">
+        <v>101600</v>
+      </c>
+      <c r="AJ66" s="11">
+        <v>153405</v>
+      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>124</v>
       </c>
@@ -8006,8 +9045,23 @@
       <c r="AE67" s="13">
         <v>95849</v>
       </c>
+      <c r="AF67" s="11">
+        <v>20652</v>
+      </c>
+      <c r="AG67" s="11">
+        <v>36510</v>
+      </c>
+      <c r="AH67" s="11">
+        <v>53882</v>
+      </c>
+      <c r="AI67" s="11">
+        <v>81240</v>
+      </c>
+      <c r="AJ67" s="11">
+        <v>133601</v>
+      </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -8101,8 +9155,23 @@
       <c r="AE68" s="13">
         <v>103127</v>
       </c>
+      <c r="AF68" s="11">
+        <v>23668</v>
+      </c>
+      <c r="AG68" s="11">
+        <v>40917</v>
+      </c>
+      <c r="AH68" s="11">
+        <v>61161</v>
+      </c>
+      <c r="AI68" s="11">
+        <v>89163</v>
+      </c>
+      <c r="AJ68" s="11">
+        <v>148996</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -8196,8 +9265,23 @@
       <c r="AE69" s="13">
         <v>93763</v>
       </c>
+      <c r="AF69" s="11">
+        <v>19781</v>
+      </c>
+      <c r="AG69" s="11">
+        <v>33796</v>
+      </c>
+      <c r="AH69" s="11">
+        <v>48777</v>
+      </c>
+      <c r="AI69" s="11">
+        <v>73500</v>
+      </c>
+      <c r="AJ69" s="11">
+        <v>117219</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>124</v>
       </c>
@@ -8291,8 +9375,23 @@
       <c r="AE70" s="13">
         <v>98536</v>
       </c>
+      <c r="AF70" s="11">
+        <v>21673</v>
+      </c>
+      <c r="AG70" s="11">
+        <v>39395</v>
+      </c>
+      <c r="AH70" s="11">
+        <v>60955</v>
+      </c>
+      <c r="AI70" s="11">
+        <v>87463</v>
+      </c>
+      <c r="AJ70" s="11">
+        <v>136642</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -8386,8 +9485,23 @@
       <c r="AE71" s="13">
         <v>104807</v>
       </c>
+      <c r="AF71" s="11">
+        <v>22225</v>
+      </c>
+      <c r="AG71" s="11">
+        <v>37375</v>
+      </c>
+      <c r="AH71" s="11">
+        <v>56399</v>
+      </c>
+      <c r="AI71" s="11">
+        <v>86292</v>
+      </c>
+      <c r="AJ71" s="11">
+        <v>130544</v>
+      </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -8481,8 +9595,23 @@
       <c r="AE72" s="13">
         <v>119140</v>
       </c>
+      <c r="AF72" s="11">
+        <v>19972</v>
+      </c>
+      <c r="AG72" s="11">
+        <v>35841</v>
+      </c>
+      <c r="AH72" s="11">
+        <v>55725</v>
+      </c>
+      <c r="AI72" s="11">
+        <v>87699</v>
+      </c>
+      <c r="AJ72" s="11">
+        <v>153960</v>
+      </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>124</v>
       </c>
@@ -8576,8 +9705,23 @@
       <c r="AE73" s="13">
         <v>92971</v>
       </c>
+      <c r="AF73" s="11">
+        <v>19332</v>
+      </c>
+      <c r="AG73" s="11">
+        <v>32307</v>
+      </c>
+      <c r="AH73" s="11">
+        <v>49947</v>
+      </c>
+      <c r="AI73" s="11">
+        <v>73435</v>
+      </c>
+      <c r="AJ73" s="11">
+        <v>127350</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>124</v>
       </c>
@@ -8671,8 +9815,23 @@
       <c r="AE74" s="13">
         <v>115955</v>
       </c>
+      <c r="AF74" s="11">
+        <v>23829</v>
+      </c>
+      <c r="AG74" s="11">
+        <v>41612</v>
+      </c>
+      <c r="AH74" s="11">
+        <v>62883</v>
+      </c>
+      <c r="AI74" s="11">
+        <v>94611</v>
+      </c>
+      <c r="AJ74" s="11">
+        <v>159034</v>
+      </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>124</v>
       </c>
@@ -8766,8 +9925,23 @@
       <c r="AE75" s="13">
         <v>99544</v>
       </c>
+      <c r="AF75" s="11">
+        <v>22599</v>
+      </c>
+      <c r="AG75" s="11">
+        <v>42137</v>
+      </c>
+      <c r="AH75" s="11">
+        <v>64271</v>
+      </c>
+      <c r="AI75" s="11">
+        <v>89840</v>
+      </c>
+      <c r="AJ75" s="11">
+        <v>135348</v>
+      </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>124</v>
       </c>
@@ -8861,8 +10035,23 @@
       <c r="AE76" s="13">
         <v>95692</v>
       </c>
+      <c r="AF76" s="11">
+        <v>18860</v>
+      </c>
+      <c r="AG76" s="11">
+        <v>30857</v>
+      </c>
+      <c r="AH76" s="11">
+        <v>47441</v>
+      </c>
+      <c r="AI76" s="11">
+        <v>71193</v>
+      </c>
+      <c r="AJ76" s="11">
+        <v>110688</v>
+      </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>124</v>
       </c>
@@ -8956,8 +10145,23 @@
       <c r="AE77" s="13">
         <v>117386</v>
       </c>
+      <c r="AF77" s="11">
+        <v>25486</v>
+      </c>
+      <c r="AG77" s="11">
+        <v>40577</v>
+      </c>
+      <c r="AH77" s="11">
+        <v>57383</v>
+      </c>
+      <c r="AI77" s="11">
+        <v>85913</v>
+      </c>
+      <c r="AJ77" s="11">
+        <v>139908</v>
+      </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>124</v>
       </c>
@@ -9051,8 +10255,23 @@
       <c r="AE78" s="13">
         <v>95554</v>
       </c>
+      <c r="AF78" s="11">
+        <v>20270</v>
+      </c>
+      <c r="AG78" s="11">
+        <v>36353</v>
+      </c>
+      <c r="AH78" s="11">
+        <v>56478</v>
+      </c>
+      <c r="AI78" s="11">
+        <v>83604</v>
+      </c>
+      <c r="AJ78" s="11">
+        <v>139692</v>
+      </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>124</v>
       </c>
@@ -9146,8 +10365,23 @@
       <c r="AE79" s="13">
         <v>107995</v>
       </c>
+      <c r="AF79" s="11">
+        <v>21229</v>
+      </c>
+      <c r="AG79" s="11">
+        <v>35721</v>
+      </c>
+      <c r="AH79" s="11">
+        <v>52483</v>
+      </c>
+      <c r="AI79" s="11">
+        <v>78035</v>
+      </c>
+      <c r="AJ79" s="11">
+        <v>133308</v>
+      </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>124</v>
       </c>
@@ -9241,8 +10475,23 @@
       <c r="AE80" s="13">
         <v>120962</v>
       </c>
+      <c r="AF80" s="11">
+        <v>17219</v>
+      </c>
+      <c r="AG80" s="11">
+        <v>33831</v>
+      </c>
+      <c r="AH80" s="11">
+        <v>54882</v>
+      </c>
+      <c r="AI80" s="11">
+        <v>89157</v>
+      </c>
+      <c r="AJ80" s="11">
+        <v>157996</v>
+      </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>124</v>
       </c>
@@ -9336,8 +10585,23 @@
       <c r="AE81" s="13">
         <v>115884</v>
       </c>
+      <c r="AF81" s="11">
+        <v>26233</v>
+      </c>
+      <c r="AG81" s="11">
+        <v>42376</v>
+      </c>
+      <c r="AH81" s="11">
+        <v>62858</v>
+      </c>
+      <c r="AI81" s="11">
+        <v>85033</v>
+      </c>
+      <c r="AJ81" s="11">
+        <v>136032</v>
+      </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>124</v>
       </c>
@@ -9431,8 +10695,23 @@
       <c r="AE82" s="13">
         <v>122151</v>
       </c>
+      <c r="AF82" s="11">
+        <v>20742</v>
+      </c>
+      <c r="AG82" s="11">
+        <v>35931</v>
+      </c>
+      <c r="AH82" s="11">
+        <v>52071</v>
+      </c>
+      <c r="AI82" s="11">
+        <v>73828</v>
+      </c>
+      <c r="AJ82" s="11">
+        <v>111011</v>
+      </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>124</v>
       </c>
@@ -9526,8 +10805,23 @@
       <c r="AE83" s="13">
         <v>122421</v>
       </c>
+      <c r="AF83" s="11">
+        <v>18402</v>
+      </c>
+      <c r="AG83" s="11">
+        <v>34683</v>
+      </c>
+      <c r="AH83" s="11">
+        <v>54559</v>
+      </c>
+      <c r="AI83" s="11">
+        <v>83446</v>
+      </c>
+      <c r="AJ83" s="11">
+        <v>139636</v>
+      </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>124</v>
       </c>
@@ -9621,8 +10915,23 @@
       <c r="AE84" s="13">
         <v>110187</v>
       </c>
+      <c r="AF84" s="11">
+        <v>18573</v>
+      </c>
+      <c r="AG84" s="11">
+        <v>34578</v>
+      </c>
+      <c r="AH84" s="11">
+        <v>52491</v>
+      </c>
+      <c r="AI84" s="11">
+        <v>79534</v>
+      </c>
+      <c r="AJ84" s="11">
+        <v>129825</v>
+      </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>124</v>
       </c>
@@ -9716,8 +11025,23 @@
       <c r="AE85" s="13">
         <v>105947</v>
       </c>
+      <c r="AF85" s="11">
+        <v>16564</v>
+      </c>
+      <c r="AG85" s="11">
+        <v>31212</v>
+      </c>
+      <c r="AH85" s="11">
+        <v>50607</v>
+      </c>
+      <c r="AI85" s="11">
+        <v>81542</v>
+      </c>
+      <c r="AJ85" s="11">
+        <v>138308</v>
+      </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>124</v>
       </c>
@@ -9811,8 +11135,23 @@
       <c r="AE86" s="13">
         <v>97699</v>
       </c>
+      <c r="AF86" s="11">
+        <v>19443</v>
+      </c>
+      <c r="AG86" s="11">
+        <v>36219</v>
+      </c>
+      <c r="AH86" s="11">
+        <v>53346</v>
+      </c>
+      <c r="AI86" s="11">
+        <v>76204</v>
+      </c>
+      <c r="AJ86" s="11">
+        <v>119724</v>
+      </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>124</v>
       </c>
@@ -9906,8 +11245,23 @@
       <c r="AE87" s="13">
         <v>95492</v>
       </c>
+      <c r="AF87" s="11">
+        <v>22259</v>
+      </c>
+      <c r="AG87" s="11">
+        <v>41640</v>
+      </c>
+      <c r="AH87" s="11">
+        <v>61421</v>
+      </c>
+      <c r="AI87" s="11">
+        <v>88937</v>
+      </c>
+      <c r="AJ87" s="11">
+        <v>159300</v>
+      </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>124</v>
       </c>
@@ -10001,8 +11355,23 @@
       <c r="AE88" s="13">
         <v>129604</v>
       </c>
+      <c r="AF88" s="11">
+        <v>30195</v>
+      </c>
+      <c r="AG88" s="11">
+        <v>51295</v>
+      </c>
+      <c r="AH88" s="11">
+        <v>76051</v>
+      </c>
+      <c r="AI88" s="11">
+        <v>109266</v>
+      </c>
+      <c r="AJ88" s="11">
+        <v>192309</v>
+      </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>124</v>
       </c>
@@ -10096,8 +11465,23 @@
       <c r="AE89" s="13">
         <v>97931</v>
       </c>
+      <c r="AF89" s="11">
+        <v>19420</v>
+      </c>
+      <c r="AG89" s="11">
+        <v>32790</v>
+      </c>
+      <c r="AH89" s="11">
+        <v>47357</v>
+      </c>
+      <c r="AI89" s="11">
+        <v>73203</v>
+      </c>
+      <c r="AJ89" s="11">
+        <v>114563</v>
+      </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>124</v>
       </c>
@@ -10191,8 +11575,23 @@
       <c r="AE90" s="13">
         <v>99351</v>
       </c>
+      <c r="AF90" s="11">
+        <v>17498</v>
+      </c>
+      <c r="AG90" s="11">
+        <v>32311</v>
+      </c>
+      <c r="AH90" s="11">
+        <v>50224</v>
+      </c>
+      <c r="AI90" s="11">
+        <v>76784</v>
+      </c>
+      <c r="AJ90" s="11">
+        <v>125508</v>
+      </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>124</v>
       </c>
@@ -10286,8 +11685,23 @@
       <c r="AE91" s="13">
         <v>103881</v>
       </c>
+      <c r="AF91" s="11">
+        <v>24763</v>
+      </c>
+      <c r="AG91" s="11">
+        <v>40208</v>
+      </c>
+      <c r="AH91" s="11">
+        <v>57555</v>
+      </c>
+      <c r="AI91" s="11">
+        <v>85213</v>
+      </c>
+      <c r="AJ91" s="11">
+        <v>135928</v>
+      </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>124</v>
       </c>
@@ -10381,8 +11795,23 @@
       <c r="AE92" s="13">
         <v>98892</v>
       </c>
+      <c r="AF92" s="11">
+        <v>23161</v>
+      </c>
+      <c r="AG92" s="11">
+        <v>38772</v>
+      </c>
+      <c r="AH92" s="11">
+        <v>58292</v>
+      </c>
+      <c r="AI92" s="11">
+        <v>80435</v>
+      </c>
+      <c r="AJ92" s="11">
+        <v>130550</v>
+      </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>124</v>
       </c>
@@ -10476,8 +11905,23 @@
       <c r="AE93" s="13">
         <v>113598</v>
       </c>
+      <c r="AF93" s="11">
+        <v>25313</v>
+      </c>
+      <c r="AG93" s="11">
+        <v>43102</v>
+      </c>
+      <c r="AH93" s="11">
+        <v>62346</v>
+      </c>
+      <c r="AI93" s="11">
+        <v>89650</v>
+      </c>
+      <c r="AJ93" s="11">
+        <v>148903</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>205</v>
       </c>
@@ -10571,8 +12015,23 @@
       <c r="AE94" s="13">
         <v>105533</v>
       </c>
+      <c r="AF94" s="11">
+        <v>11319</v>
+      </c>
+      <c r="AG94" s="11">
+        <v>24418</v>
+      </c>
+      <c r="AH94" s="11">
+        <v>41254</v>
+      </c>
+      <c r="AI94" s="11">
+        <v>61590</v>
+      </c>
+      <c r="AJ94" s="11">
+        <v>104674</v>
+      </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>205</v>
       </c>
@@ -10666,8 +12125,23 @@
       <c r="AE95" s="13">
         <v>83204</v>
       </c>
+      <c r="AF95" s="11">
+        <v>13500</v>
+      </c>
+      <c r="AG95" s="11">
+        <v>26708</v>
+      </c>
+      <c r="AH95" s="11">
+        <v>44493</v>
+      </c>
+      <c r="AI95" s="11">
+        <v>70308</v>
+      </c>
+      <c r="AJ95" s="11">
+        <v>101255</v>
+      </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>205</v>
       </c>
@@ -10761,8 +12235,23 @@
       <c r="AE96" s="13">
         <v>98434</v>
       </c>
+      <c r="AF96" s="11">
+        <v>25137</v>
+      </c>
+      <c r="AG96" s="11">
+        <v>44382</v>
+      </c>
+      <c r="AH96" s="11">
+        <v>65866</v>
+      </c>
+      <c r="AI96" s="11">
+        <v>88200</v>
+      </c>
+      <c r="AJ96" s="11">
+        <v>134989</v>
+      </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>205</v>
       </c>
@@ -10856,8 +12345,23 @@
       <c r="AE97" s="13">
         <v>115080</v>
       </c>
+      <c r="AF97" s="11">
+        <v>16538</v>
+      </c>
+      <c r="AG97" s="11">
+        <v>33588</v>
+      </c>
+      <c r="AH97" s="11">
+        <v>50250</v>
+      </c>
+      <c r="AI97" s="11">
+        <v>90241</v>
+      </c>
+      <c r="AJ97" s="11">
+        <v>136683</v>
+      </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>205</v>
       </c>
@@ -10951,8 +12455,23 @@
       <c r="AE98" s="13">
         <v>101085</v>
       </c>
+      <c r="AF98" s="11">
+        <v>14187</v>
+      </c>
+      <c r="AG98" s="11">
+        <v>29632</v>
+      </c>
+      <c r="AH98" s="11">
+        <v>50136</v>
+      </c>
+      <c r="AI98" s="11">
+        <v>75596</v>
+      </c>
+      <c r="AJ98" s="11">
+        <v>123553</v>
+      </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>205</v>
       </c>
@@ -11046,8 +12565,23 @@
       <c r="AE99" s="13">
         <v>100751</v>
       </c>
+      <c r="AF99" s="11">
+        <v>10929</v>
+      </c>
+      <c r="AG99" s="11">
+        <v>23099</v>
+      </c>
+      <c r="AH99" s="11">
+        <v>36676</v>
+      </c>
+      <c r="AI99" s="11">
+        <v>56701</v>
+      </c>
+      <c r="AJ99" s="11">
+        <v>110047</v>
+      </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>205</v>
       </c>
@@ -11141,8 +12675,23 @@
       <c r="AE100" s="13">
         <v>76529</v>
       </c>
+      <c r="AF100" s="11">
+        <v>9768</v>
+      </c>
+      <c r="AG100" s="11">
+        <v>17935</v>
+      </c>
+      <c r="AH100" s="11">
+        <v>33227</v>
+      </c>
+      <c r="AI100" s="11">
+        <v>54893</v>
+      </c>
+      <c r="AJ100" s="11">
+        <v>101298</v>
+      </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>205</v>
       </c>
@@ -11236,8 +12785,23 @@
       <c r="AE101" s="13">
         <v>143590</v>
       </c>
+      <c r="AF101" s="11">
+        <v>31975</v>
+      </c>
+      <c r="AG101" s="11">
+        <v>54876</v>
+      </c>
+      <c r="AH101" s="11">
+        <v>80747</v>
+      </c>
+      <c r="AI101" s="11">
+        <v>113897</v>
+      </c>
+      <c r="AJ101" s="11">
+        <v>181126</v>
+      </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>205</v>
       </c>
@@ -11331,8 +12895,23 @@
       <c r="AE102" s="13">
         <v>112447</v>
       </c>
+      <c r="AF102" s="11">
+        <v>16637</v>
+      </c>
+      <c r="AG102" s="11">
+        <v>32971</v>
+      </c>
+      <c r="AH102" s="11">
+        <v>52638</v>
+      </c>
+      <c r="AI102" s="11">
+        <v>87532</v>
+      </c>
+      <c r="AJ102" s="11">
+        <v>128938</v>
+      </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
@@ -11426,8 +13005,23 @@
       <c r="AE103" s="13">
         <v>108601</v>
       </c>
+      <c r="AF103" s="11">
+        <v>15607</v>
+      </c>
+      <c r="AG103" s="11">
+        <v>30792</v>
+      </c>
+      <c r="AH103" s="11">
+        <v>49852</v>
+      </c>
+      <c r="AI103" s="11">
+        <v>82274</v>
+      </c>
+      <c r="AJ103" s="11">
+        <v>139861</v>
+      </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>205</v>
       </c>
@@ -11521,8 +13115,23 @@
       <c r="AE104" s="13">
         <v>114748</v>
       </c>
+      <c r="AF104" s="11">
+        <v>18060</v>
+      </c>
+      <c r="AG104" s="11">
+        <v>33238</v>
+      </c>
+      <c r="AH104" s="11">
+        <v>50495</v>
+      </c>
+      <c r="AI104" s="11">
+        <v>80583</v>
+      </c>
+      <c r="AJ104" s="11">
+        <v>147250</v>
+      </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>205</v>
       </c>
@@ -11616,8 +13225,23 @@
       <c r="AE105" s="13">
         <v>95869</v>
       </c>
+      <c r="AF105" s="11">
+        <v>17768</v>
+      </c>
+      <c r="AG105" s="11">
+        <v>30827</v>
+      </c>
+      <c r="AH105" s="11">
+        <v>48333</v>
+      </c>
+      <c r="AI105" s="11">
+        <v>74441</v>
+      </c>
+      <c r="AJ105" s="11">
+        <v>126250</v>
+      </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>205</v>
       </c>
@@ -11711,8 +13335,23 @@
       <c r="AE106" s="13">
         <v>75048</v>
       </c>
+      <c r="AF106" s="11">
+        <v>9760</v>
+      </c>
+      <c r="AG106" s="11">
+        <v>18520</v>
+      </c>
+      <c r="AH106" s="11">
+        <v>31068</v>
+      </c>
+      <c r="AI106" s="11">
+        <v>56342</v>
+      </c>
+      <c r="AJ106" s="11">
+        <v>100875</v>
+      </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>205</v>
       </c>
@@ -11806,8 +13445,23 @@
       <c r="AE107" s="13">
         <v>92085</v>
       </c>
+      <c r="AF107" s="11">
+        <v>18249</v>
+      </c>
+      <c r="AG107" s="11">
+        <v>29786</v>
+      </c>
+      <c r="AH107" s="11">
+        <v>47449</v>
+      </c>
+      <c r="AI107" s="11">
+        <v>66205</v>
+      </c>
+      <c r="AJ107" s="11">
+        <v>111717</v>
+      </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>205</v>
       </c>
@@ -11901,8 +13555,23 @@
       <c r="AE108" s="13">
         <v>103821</v>
       </c>
+      <c r="AF108" s="11">
+        <v>24862</v>
+      </c>
+      <c r="AG108" s="11">
+        <v>42895</v>
+      </c>
+      <c r="AH108" s="11">
+        <v>62500</v>
+      </c>
+      <c r="AI108" s="11">
+        <v>90361</v>
+      </c>
+      <c r="AJ108" s="11">
+        <v>137858</v>
+      </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>205</v>
       </c>
@@ -11996,8 +13665,23 @@
       <c r="AE109" s="13">
         <v>89382</v>
       </c>
+      <c r="AF109" s="11">
+        <v>12667</v>
+      </c>
+      <c r="AG109" s="11">
+        <v>24602</v>
+      </c>
+      <c r="AH109" s="11">
+        <v>42256</v>
+      </c>
+      <c r="AI109" s="11">
+        <v>65632</v>
+      </c>
+      <c r="AJ109" s="11">
+        <v>104347</v>
+      </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>205</v>
       </c>
@@ -12091,8 +13775,23 @@
       <c r="AE110" s="13">
         <v>98034</v>
       </c>
+      <c r="AF110" s="11">
+        <v>12157</v>
+      </c>
+      <c r="AG110" s="11">
+        <v>26867</v>
+      </c>
+      <c r="AH110" s="11">
+        <v>44256</v>
+      </c>
+      <c r="AI110" s="11">
+        <v>74413</v>
+      </c>
+      <c r="AJ110" s="11">
+        <v>136723</v>
+      </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>205</v>
       </c>
@@ -12186,8 +13885,23 @@
       <c r="AE111" s="13">
         <v>98917</v>
       </c>
+      <c r="AF111" s="11">
+        <v>15588</v>
+      </c>
+      <c r="AG111" s="11">
+        <v>30648</v>
+      </c>
+      <c r="AH111" s="11">
+        <v>47884</v>
+      </c>
+      <c r="AI111" s="11">
+        <v>75735</v>
+      </c>
+      <c r="AJ111" s="11">
+        <v>130565</v>
+      </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>205</v>
       </c>
@@ -12281,8 +13995,23 @@
       <c r="AE112" s="13">
         <v>119185</v>
       </c>
+      <c r="AF112" s="11">
+        <v>22311</v>
+      </c>
+      <c r="AG112" s="11">
+        <v>41749</v>
+      </c>
+      <c r="AH112" s="11">
+        <v>65053</v>
+      </c>
+      <c r="AI112" s="11">
+        <v>102037</v>
+      </c>
+      <c r="AJ112" s="11">
+        <v>164280</v>
+      </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>205</v>
       </c>
@@ -12376,8 +14105,23 @@
       <c r="AE113" s="13">
         <v>92922</v>
       </c>
+      <c r="AF113" s="11">
+        <v>16310</v>
+      </c>
+      <c r="AG113" s="11">
+        <v>27820</v>
+      </c>
+      <c r="AH113" s="11">
+        <v>42439</v>
+      </c>
+      <c r="AI113" s="11">
+        <v>67117</v>
+      </c>
+      <c r="AJ113" s="11">
+        <v>105393</v>
+      </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>205</v>
       </c>
@@ -12471,8 +14215,23 @@
       <c r="AE114" s="13">
         <v>95796</v>
       </c>
+      <c r="AF114" s="11">
+        <v>16786</v>
+      </c>
+      <c r="AG114" s="11">
+        <v>30695</v>
+      </c>
+      <c r="AH114" s="11">
+        <v>53258</v>
+      </c>
+      <c r="AI114" s="11">
+        <v>87438</v>
+      </c>
+      <c r="AJ114" s="11">
+        <v>136272</v>
+      </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>205</v>
       </c>
@@ -12566,8 +14325,23 @@
       <c r="AE115" s="13">
         <v>83728</v>
       </c>
+      <c r="AF115" s="11">
+        <v>14178</v>
+      </c>
+      <c r="AG115" s="11">
+        <v>27380</v>
+      </c>
+      <c r="AH115" s="11">
+        <v>44213</v>
+      </c>
+      <c r="AI115" s="11">
+        <v>69703</v>
+      </c>
+      <c r="AJ115" s="11">
+        <v>119879</v>
+      </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>205</v>
       </c>
@@ -12661,8 +14435,23 @@
       <c r="AE116" s="13">
         <v>80957</v>
       </c>
+      <c r="AF116" s="11">
+        <v>12204</v>
+      </c>
+      <c r="AG116" s="11">
+        <v>21853</v>
+      </c>
+      <c r="AH116" s="11">
+        <v>35912</v>
+      </c>
+      <c r="AI116" s="11">
+        <v>56000</v>
+      </c>
+      <c r="AJ116" s="11">
+        <v>101865</v>
+      </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>205</v>
       </c>
@@ -12756,8 +14545,23 @@
       <c r="AE117" s="13">
         <v>89431</v>
       </c>
+      <c r="AF117" s="11">
+        <v>17009</v>
+      </c>
+      <c r="AG117" s="11">
+        <v>30572</v>
+      </c>
+      <c r="AH117" s="11">
+        <v>46681</v>
+      </c>
+      <c r="AI117" s="11">
+        <v>71212</v>
+      </c>
+      <c r="AJ117" s="11">
+        <v>124231</v>
+      </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>205</v>
       </c>
@@ -12851,8 +14655,23 @@
       <c r="AE118" s="13">
         <v>109085</v>
       </c>
+      <c r="AF118" s="11">
+        <v>17711</v>
+      </c>
+      <c r="AG118" s="11">
+        <v>35684</v>
+      </c>
+      <c r="AH118" s="11">
+        <v>56364</v>
+      </c>
+      <c r="AI118" s="11">
+        <v>89339</v>
+      </c>
+      <c r="AJ118" s="11">
+        <v>146190</v>
+      </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>205</v>
       </c>
@@ -12946,8 +14765,23 @@
       <c r="AE119" s="13">
         <v>67680</v>
       </c>
+      <c r="AF119" s="11">
+        <v>9304</v>
+      </c>
+      <c r="AG119" s="11">
+        <v>15374</v>
+      </c>
+      <c r="AH119" s="11">
+        <v>29631</v>
+      </c>
+      <c r="AI119" s="11">
+        <v>53245</v>
+      </c>
+      <c r="AJ119" s="11">
+        <v>93198</v>
+      </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>205</v>
       </c>
@@ -13041,8 +14875,23 @@
       <c r="AE120" s="13">
         <v>85355</v>
       </c>
+      <c r="AF120" s="11">
+        <v>11030</v>
+      </c>
+      <c r="AG120" s="11">
+        <v>21944</v>
+      </c>
+      <c r="AH120" s="11">
+        <v>34223</v>
+      </c>
+      <c r="AI120" s="11">
+        <v>52272</v>
+      </c>
+      <c r="AJ120" s="11">
+        <v>108783</v>
+      </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>205</v>
       </c>
@@ -13136,8 +14985,23 @@
       <c r="AE121" s="13">
         <v>84791</v>
       </c>
+      <c r="AF121" s="11">
+        <v>14101</v>
+      </c>
+      <c r="AG121" s="11">
+        <v>26376</v>
+      </c>
+      <c r="AH121" s="11">
+        <v>42842</v>
+      </c>
+      <c r="AI121" s="11">
+        <v>68409</v>
+      </c>
+      <c r="AJ121" s="11">
+        <v>112674</v>
+      </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>205</v>
       </c>
@@ -13231,8 +15095,23 @@
       <c r="AE122" s="13">
         <v>78756</v>
       </c>
+      <c r="AF122" s="11">
+        <v>13256</v>
+      </c>
+      <c r="AG122" s="11">
+        <v>24563</v>
+      </c>
+      <c r="AH122" s="11">
+        <v>35816</v>
+      </c>
+      <c r="AI122" s="11">
+        <v>58078</v>
+      </c>
+      <c r="AJ122" s="11">
+        <v>105914</v>
+      </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>205</v>
       </c>
@@ -13326,8 +15205,23 @@
       <c r="AE123" s="13">
         <v>112550</v>
       </c>
+      <c r="AF123" s="11">
+        <v>18774</v>
+      </c>
+      <c r="AG123" s="11">
+        <v>35273</v>
+      </c>
+      <c r="AH123" s="11">
+        <v>55812</v>
+      </c>
+      <c r="AI123" s="11">
+        <v>83349</v>
+      </c>
+      <c r="AJ123" s="11">
+        <v>141897</v>
+      </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>205</v>
       </c>
@@ -13421,8 +15315,23 @@
       <c r="AE124" s="13">
         <v>92979</v>
       </c>
+      <c r="AF124" s="11">
+        <v>14262</v>
+      </c>
+      <c r="AG124" s="11">
+        <v>26861</v>
+      </c>
+      <c r="AH124" s="11">
+        <v>44624</v>
+      </c>
+      <c r="AI124" s="11">
+        <v>69326</v>
+      </c>
+      <c r="AJ124" s="11">
+        <v>107559</v>
+      </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>205</v>
       </c>
@@ -13516,8 +15425,23 @@
       <c r="AE125" s="13">
         <v>80358</v>
       </c>
+      <c r="AF125" s="11">
+        <v>10363</v>
+      </c>
+      <c r="AG125" s="11">
+        <v>18213</v>
+      </c>
+      <c r="AH125" s="11">
+        <v>33444</v>
+      </c>
+      <c r="AI125" s="11">
+        <v>58863</v>
+      </c>
+      <c r="AJ125" s="11">
+        <v>100884</v>
+      </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>205</v>
       </c>
@@ -13611,8 +15535,23 @@
       <c r="AE126" s="13">
         <v>75502</v>
       </c>
+      <c r="AF126" s="11">
+        <v>9906</v>
+      </c>
+      <c r="AG126" s="11">
+        <v>22793</v>
+      </c>
+      <c r="AH126" s="11">
+        <v>36892</v>
+      </c>
+      <c r="AI126" s="11">
+        <v>61154</v>
+      </c>
+      <c r="AJ126" s="11">
+        <v>104185</v>
+      </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>205</v>
       </c>
@@ -13706,8 +15645,23 @@
       <c r="AE127" s="13">
         <v>137342</v>
       </c>
+      <c r="AF127" s="11">
+        <v>19175</v>
+      </c>
+      <c r="AG127" s="11">
+        <v>37773</v>
+      </c>
+      <c r="AH127" s="11">
+        <v>61015</v>
+      </c>
+      <c r="AI127" s="11">
+        <v>99108</v>
+      </c>
+      <c r="AJ127" s="11">
+        <v>181523</v>
+      </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>205</v>
       </c>
@@ -13801,8 +15755,23 @@
       <c r="AE128" s="13">
         <v>86566</v>
       </c>
+      <c r="AF128" s="11">
+        <v>12751</v>
+      </c>
+      <c r="AG128" s="11">
+        <v>24680</v>
+      </c>
+      <c r="AH128" s="11">
+        <v>43779</v>
+      </c>
+      <c r="AI128" s="11">
+        <v>76037</v>
+      </c>
+      <c r="AJ128" s="11">
+        <v>111501</v>
+      </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>205</v>
       </c>
@@ -13896,8 +15865,23 @@
       <c r="AE129" s="13">
         <v>83069</v>
       </c>
+      <c r="AF129" s="11">
+        <v>11802</v>
+      </c>
+      <c r="AG129" s="11">
+        <v>22458</v>
+      </c>
+      <c r="AH129" s="11">
+        <v>35654</v>
+      </c>
+      <c r="AI129" s="11">
+        <v>60430</v>
+      </c>
+      <c r="AJ129" s="11">
+        <v>110550</v>
+      </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>205</v>
       </c>
@@ -13991,8 +15975,23 @@
       <c r="AE130" s="13">
         <v>118680</v>
       </c>
+      <c r="AF130" s="11">
+        <v>21003</v>
+      </c>
+      <c r="AG130" s="11">
+        <v>38129</v>
+      </c>
+      <c r="AH130" s="11">
+        <v>59529</v>
+      </c>
+      <c r="AI130" s="11">
+        <v>92116</v>
+      </c>
+      <c r="AJ130" s="11">
+        <v>153367</v>
+      </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>205</v>
       </c>
@@ -14086,8 +16085,23 @@
       <c r="AE131" s="13">
         <v>88341</v>
       </c>
+      <c r="AF131" s="11">
+        <v>13167</v>
+      </c>
+      <c r="AG131" s="11">
+        <v>25175</v>
+      </c>
+      <c r="AH131" s="11">
+        <v>42774</v>
+      </c>
+      <c r="AI131" s="11">
+        <v>62643</v>
+      </c>
+      <c r="AJ131" s="11">
+        <v>108979</v>
+      </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>205</v>
       </c>
@@ -14181,8 +16195,23 @@
       <c r="AE132" s="13">
         <v>101456</v>
       </c>
+      <c r="AF132" s="11">
+        <v>16254</v>
+      </c>
+      <c r="AG132" s="11">
+        <v>33158</v>
+      </c>
+      <c r="AH132" s="11">
+        <v>54419</v>
+      </c>
+      <c r="AI132" s="11">
+        <v>76767</v>
+      </c>
+      <c r="AJ132" s="11">
+        <v>126654</v>
+      </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>205</v>
       </c>
@@ -14276,8 +16305,23 @@
       <c r="AE133" s="13">
         <v>101359</v>
       </c>
+      <c r="AF133" s="11">
+        <v>17140</v>
+      </c>
+      <c r="AG133" s="11">
+        <v>30517</v>
+      </c>
+      <c r="AH133" s="11">
+        <v>51466</v>
+      </c>
+      <c r="AI133" s="11">
+        <v>79242</v>
+      </c>
+      <c r="AJ133" s="11">
+        <v>121600</v>
+      </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>205</v>
       </c>
@@ -14371,8 +16415,23 @@
       <c r="AE134" s="13">
         <v>98189</v>
       </c>
+      <c r="AF134" s="11">
+        <v>21910</v>
+      </c>
+      <c r="AG134" s="11">
+        <v>37943</v>
+      </c>
+      <c r="AH134" s="11">
+        <v>53475</v>
+      </c>
+      <c r="AI134" s="11">
+        <v>85229</v>
+      </c>
+      <c r="AJ134" s="11">
+        <v>143521</v>
+      </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>205</v>
       </c>
@@ -14466,8 +16525,23 @@
       <c r="AE135" s="13">
         <v>103879</v>
       </c>
+      <c r="AF135" s="11">
+        <v>14470</v>
+      </c>
+      <c r="AG135" s="11">
+        <v>28605</v>
+      </c>
+      <c r="AH135" s="11">
+        <v>44764</v>
+      </c>
+      <c r="AI135" s="11">
+        <v>76246</v>
+      </c>
+      <c r="AJ135" s="11">
+        <v>134175</v>
+      </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>205</v>
       </c>
@@ -14561,8 +16635,23 @@
       <c r="AE136" s="13">
         <v>89359</v>
       </c>
+      <c r="AF136" s="11">
+        <v>13649</v>
+      </c>
+      <c r="AG136" s="11">
+        <v>25517</v>
+      </c>
+      <c r="AH136" s="11">
+        <v>41293</v>
+      </c>
+      <c r="AI136" s="11">
+        <v>66002</v>
+      </c>
+      <c r="AJ136" s="11">
+        <v>111066</v>
+      </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>205</v>
       </c>
@@ -14656,8 +16745,23 @@
       <c r="AE137" s="13">
         <v>109815</v>
       </c>
+      <c r="AF137" s="11">
+        <v>13474</v>
+      </c>
+      <c r="AG137" s="11">
+        <v>26431</v>
+      </c>
+      <c r="AH137" s="11">
+        <v>44968</v>
+      </c>
+      <c r="AI137" s="11">
+        <v>74110</v>
+      </c>
+      <c r="AJ137" s="11">
+        <v>128863</v>
+      </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>205</v>
       </c>
@@ -14751,8 +16855,23 @@
       <c r="AE138" s="13">
         <v>105097</v>
       </c>
+      <c r="AF138" s="11">
+        <v>16846</v>
+      </c>
+      <c r="AG138" s="11">
+        <v>31922</v>
+      </c>
+      <c r="AH138" s="11">
+        <v>51777</v>
+      </c>
+      <c r="AI138" s="11">
+        <v>77261</v>
+      </c>
+      <c r="AJ138" s="11">
+        <v>139839</v>
+      </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>205</v>
       </c>
@@ -14846,8 +16965,23 @@
       <c r="AE139" s="13">
         <v>94257</v>
       </c>
+      <c r="AF139" s="11">
+        <v>21823</v>
+      </c>
+      <c r="AG139" s="11">
+        <v>39613</v>
+      </c>
+      <c r="AH139" s="11">
+        <v>56560</v>
+      </c>
+      <c r="AI139" s="11">
+        <v>82434</v>
+      </c>
+      <c r="AJ139" s="11">
+        <v>108244</v>
+      </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>205</v>
       </c>
@@ -14941,8 +17075,23 @@
       <c r="AE140" s="13">
         <v>103576</v>
       </c>
+      <c r="AF140" s="11">
+        <v>22059</v>
+      </c>
+      <c r="AG140" s="11">
+        <v>39745</v>
+      </c>
+      <c r="AH140" s="11">
+        <v>59990</v>
+      </c>
+      <c r="AI140" s="11">
+        <v>91736</v>
+      </c>
+      <c r="AJ140" s="11">
+        <v>144803</v>
+      </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>205</v>
       </c>
@@ -15036,8 +17185,23 @@
       <c r="AE141" s="13">
         <v>80441</v>
       </c>
+      <c r="AF141" s="11">
+        <v>11421</v>
+      </c>
+      <c r="AG141" s="11">
+        <v>20131</v>
+      </c>
+      <c r="AH141" s="11">
+        <v>34972</v>
+      </c>
+      <c r="AI141" s="11">
+        <v>60152</v>
+      </c>
+      <c r="AJ141" s="11">
+        <v>110790</v>
+      </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>205</v>
       </c>
@@ -15131,8 +17295,23 @@
       <c r="AE142" s="13">
         <v>100385</v>
       </c>
+      <c r="AF142" s="11">
+        <v>15191</v>
+      </c>
+      <c r="AG142" s="11">
+        <v>28948</v>
+      </c>
+      <c r="AH142" s="11">
+        <v>49500</v>
+      </c>
+      <c r="AI142" s="11">
+        <v>79397</v>
+      </c>
+      <c r="AJ142" s="11">
+        <v>124304</v>
+      </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>205</v>
       </c>
@@ -15226,8 +17405,23 @@
       <c r="AE143" s="13">
         <v>88621</v>
       </c>
+      <c r="AF143" s="11">
+        <v>11951</v>
+      </c>
+      <c r="AG143" s="11">
+        <v>24321</v>
+      </c>
+      <c r="AH143" s="11">
+        <v>41377</v>
+      </c>
+      <c r="AI143" s="11">
+        <v>61757</v>
+      </c>
+      <c r="AJ143" s="11">
+        <v>122690</v>
+      </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>205</v>
       </c>
@@ -15321,8 +17515,23 @@
       <c r="AE144" s="13">
         <v>106341</v>
       </c>
+      <c r="AF144" s="11">
+        <v>17820</v>
+      </c>
+      <c r="AG144" s="11">
+        <v>32452</v>
+      </c>
+      <c r="AH144" s="11">
+        <v>52512</v>
+      </c>
+      <c r="AI144" s="11">
+        <v>82031</v>
+      </c>
+      <c r="AJ144" s="11">
+        <v>134734</v>
+      </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>205</v>
       </c>
@@ -15416,8 +17625,23 @@
       <c r="AE145" s="13">
         <v>106379</v>
       </c>
+      <c r="AF145" s="11">
+        <v>17134</v>
+      </c>
+      <c r="AG145" s="11">
+        <v>34959</v>
+      </c>
+      <c r="AH145" s="11">
+        <v>50929</v>
+      </c>
+      <c r="AI145" s="11">
+        <v>82017</v>
+      </c>
+      <c r="AJ145" s="11">
+        <v>136903</v>
+      </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>205</v>
       </c>
@@ -15511,8 +17735,23 @@
       <c r="AE146" s="13">
         <v>96843</v>
       </c>
+      <c r="AF146" s="11">
+        <v>16003</v>
+      </c>
+      <c r="AG146" s="11">
+        <v>30148</v>
+      </c>
+      <c r="AH146" s="11">
+        <v>48190</v>
+      </c>
+      <c r="AI146" s="11">
+        <v>73512</v>
+      </c>
+      <c r="AJ146" s="11">
+        <v>120089</v>
+      </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>205</v>
       </c>
@@ -15606,8 +17845,23 @@
       <c r="AE147" s="13">
         <v>108513</v>
       </c>
+      <c r="AF147" s="11">
+        <v>16308</v>
+      </c>
+      <c r="AG147" s="11">
+        <v>30583</v>
+      </c>
+      <c r="AH147" s="11">
+        <v>49795</v>
+      </c>
+      <c r="AI147" s="11">
+        <v>78967</v>
+      </c>
+      <c r="AJ147" s="11">
+        <v>132086</v>
+      </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>205</v>
       </c>
@@ -15701,8 +17955,23 @@
       <c r="AE148" s="13">
         <v>66218</v>
       </c>
+      <c r="AF148" s="11">
+        <v>9133</v>
+      </c>
+      <c r="AG148" s="11">
+        <v>16563</v>
+      </c>
+      <c r="AH148" s="11">
+        <v>28535</v>
+      </c>
+      <c r="AI148" s="11">
+        <v>52681</v>
+      </c>
+      <c r="AJ148" s="11">
+        <v>96021</v>
+      </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>205</v>
       </c>
@@ -15796,8 +18065,23 @@
       <c r="AE149" s="13">
         <v>134350</v>
       </c>
+      <c r="AF149" s="11">
+        <v>19492</v>
+      </c>
+      <c r="AG149" s="11">
+        <v>36778</v>
+      </c>
+      <c r="AH149" s="11">
+        <v>58736</v>
+      </c>
+      <c r="AI149" s="11">
+        <v>93266</v>
+      </c>
+      <c r="AJ149" s="11">
+        <v>171228</v>
+      </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>205</v>
       </c>
@@ -15891,8 +18175,23 @@
       <c r="AE150" s="13">
         <v>125126</v>
       </c>
+      <c r="AF150" s="11">
+        <v>19201</v>
+      </c>
+      <c r="AG150" s="11">
+        <v>37398</v>
+      </c>
+      <c r="AH150" s="11">
+        <v>59715</v>
+      </c>
+      <c r="AI150" s="11">
+        <v>90065</v>
+      </c>
+      <c r="AJ150" s="11">
+        <v>169709</v>
+      </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>205</v>
       </c>
@@ -15986,8 +18285,23 @@
       <c r="AE151" s="13">
         <v>95031</v>
       </c>
+      <c r="AF151" s="11">
+        <v>13909</v>
+      </c>
+      <c r="AG151" s="11">
+        <v>25469</v>
+      </c>
+      <c r="AH151" s="11">
+        <v>42125</v>
+      </c>
+      <c r="AI151" s="11">
+        <v>69857</v>
+      </c>
+      <c r="AJ151" s="11">
+        <v>119286</v>
+      </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>205</v>
       </c>
@@ -16081,8 +18395,23 @@
       <c r="AE152" s="13">
         <v>132634</v>
       </c>
+      <c r="AF152" s="11">
+        <v>23294</v>
+      </c>
+      <c r="AG152" s="11">
+        <v>42951</v>
+      </c>
+      <c r="AH152" s="11">
+        <v>65124</v>
+      </c>
+      <c r="AI152" s="11">
+        <v>98992</v>
+      </c>
+      <c r="AJ152" s="11">
+        <v>170656</v>
+      </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>205</v>
       </c>
@@ -16176,8 +18505,23 @@
       <c r="AE153" s="13">
         <v>77057</v>
       </c>
+      <c r="AF153" s="11">
+        <v>13400</v>
+      </c>
+      <c r="AG153" s="11">
+        <v>24516</v>
+      </c>
+      <c r="AH153" s="11">
+        <v>41112</v>
+      </c>
+      <c r="AI153" s="11">
+        <v>70752</v>
+      </c>
+      <c r="AJ153" s="11">
+        <v>113275</v>
+      </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>205</v>
       </c>
@@ -16271,8 +18615,23 @@
       <c r="AE154" s="13">
         <v>71029</v>
       </c>
+      <c r="AF154" s="11">
+        <v>9663</v>
+      </c>
+      <c r="AG154" s="11">
+        <v>17122</v>
+      </c>
+      <c r="AH154" s="11">
+        <v>30084</v>
+      </c>
+      <c r="AI154" s="11">
+        <v>51734</v>
+      </c>
+      <c r="AJ154" s="11">
+        <v>110995</v>
+      </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -16366,8 +18725,23 @@
       <c r="AE155" s="13">
         <v>92900</v>
       </c>
+      <c r="AF155" s="11">
+        <v>14966</v>
+      </c>
+      <c r="AG155" s="11">
+        <v>30199</v>
+      </c>
+      <c r="AH155" s="11">
+        <v>48538</v>
+      </c>
+      <c r="AI155" s="11">
+        <v>71423</v>
+      </c>
+      <c r="AJ155" s="11">
+        <v>124830</v>
+      </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -16461,8 +18835,23 @@
       <c r="AE156" s="13">
         <v>90825</v>
       </c>
+      <c r="AF156" s="11">
+        <v>15173</v>
+      </c>
+      <c r="AG156" s="11">
+        <v>29456</v>
+      </c>
+      <c r="AH156" s="11">
+        <v>47848</v>
+      </c>
+      <c r="AI156" s="11">
+        <v>74131</v>
+      </c>
+      <c r="AJ156" s="11">
+        <v>127491</v>
+      </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -16556,8 +18945,23 @@
       <c r="AE157" s="13">
         <v>81576</v>
       </c>
+      <c r="AF157" s="11">
+        <v>14433</v>
+      </c>
+      <c r="AG157" s="11">
+        <v>24099</v>
+      </c>
+      <c r="AH157" s="11">
+        <v>39094</v>
+      </c>
+      <c r="AI157" s="11">
+        <v>60540</v>
+      </c>
+      <c r="AJ157" s="11">
+        <v>116154</v>
+      </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -16651,8 +19055,23 @@
       <c r="AE158" s="13">
         <v>105387</v>
       </c>
+      <c r="AF158" s="11">
+        <v>9254</v>
+      </c>
+      <c r="AG158" s="11">
+        <v>18787</v>
+      </c>
+      <c r="AH158" s="11">
+        <v>34570</v>
+      </c>
+      <c r="AI158" s="11">
+        <v>55500</v>
+      </c>
+      <c r="AJ158" s="11">
+        <v>113724</v>
+      </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -16746,8 +19165,23 @@
       <c r="AE159" s="13">
         <v>66246</v>
       </c>
+      <c r="AF159" s="11">
+        <v>10435</v>
+      </c>
+      <c r="AG159" s="11">
+        <v>21035</v>
+      </c>
+      <c r="AH159" s="11">
+        <v>37891</v>
+      </c>
+      <c r="AI159" s="11">
+        <v>66767</v>
+      </c>
+      <c r="AJ159" s="11">
+        <v>104060</v>
+      </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -16841,8 +19275,23 @@
       <c r="AE160" s="13">
         <v>75913</v>
       </c>
+      <c r="AF160" s="11">
+        <v>11417</v>
+      </c>
+      <c r="AG160" s="11">
+        <v>22154</v>
+      </c>
+      <c r="AH160" s="11">
+        <v>41127</v>
+      </c>
+      <c r="AI160" s="11">
+        <v>73075</v>
+      </c>
+      <c r="AJ160" s="11">
+        <v>110216</v>
+      </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -16936,8 +19385,23 @@
       <c r="AE161" s="13">
         <v>77221</v>
       </c>
+      <c r="AF161" s="11">
+        <v>11210</v>
+      </c>
+      <c r="AG161" s="11">
+        <v>20278</v>
+      </c>
+      <c r="AH161" s="11">
+        <v>35965</v>
+      </c>
+      <c r="AI161" s="11">
+        <v>61908</v>
+      </c>
+      <c r="AJ161" s="11">
+        <v>110581</v>
+      </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -17031,8 +19495,23 @@
       <c r="AE162" s="13">
         <v>81211</v>
       </c>
+      <c r="AF162" s="11">
+        <v>12713</v>
+      </c>
+      <c r="AG162" s="11">
+        <v>26524</v>
+      </c>
+      <c r="AH162" s="11">
+        <v>40447</v>
+      </c>
+      <c r="AI162" s="11">
+        <v>62882</v>
+      </c>
+      <c r="AJ162" s="11">
+        <v>101566</v>
+      </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -17126,8 +19605,23 @@
       <c r="AE163" s="13">
         <v>98651</v>
       </c>
+      <c r="AF163" s="11">
+        <v>19790</v>
+      </c>
+      <c r="AG163" s="11">
+        <v>31364</v>
+      </c>
+      <c r="AH163" s="11">
+        <v>46268</v>
+      </c>
+      <c r="AI163" s="11">
+        <v>77854</v>
+      </c>
+      <c r="AJ163" s="11">
+        <v>135622</v>
+      </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -17221,8 +19715,23 @@
       <c r="AE164" s="13">
         <v>92141</v>
       </c>
+      <c r="AF164" s="11">
+        <v>16306</v>
+      </c>
+      <c r="AG164" s="11">
+        <v>29223</v>
+      </c>
+      <c r="AH164" s="11">
+        <v>46452</v>
+      </c>
+      <c r="AI164" s="11">
+        <v>69859</v>
+      </c>
+      <c r="AJ164" s="11">
+        <v>117735</v>
+      </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -17316,8 +19825,23 @@
       <c r="AE165" s="13">
         <v>90319</v>
       </c>
+      <c r="AF165" s="11">
+        <v>16136</v>
+      </c>
+      <c r="AG165" s="11">
+        <v>31755</v>
+      </c>
+      <c r="AH165" s="11">
+        <v>49175</v>
+      </c>
+      <c r="AI165" s="11">
+        <v>82391</v>
+      </c>
+      <c r="AJ165" s="11">
+        <v>118566</v>
+      </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -17411,8 +19935,23 @@
       <c r="AE166" s="13">
         <v>113177</v>
       </c>
+      <c r="AF166" s="11">
+        <v>17747</v>
+      </c>
+      <c r="AG166" s="11">
+        <v>33640</v>
+      </c>
+      <c r="AH166" s="11">
+        <v>54220</v>
+      </c>
+      <c r="AI166" s="11">
+        <v>89229</v>
+      </c>
+      <c r="AJ166" s="11">
+        <v>157760</v>
+      </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -17506,8 +20045,23 @@
       <c r="AE167" s="13">
         <v>61824</v>
       </c>
+      <c r="AF167" s="11">
+        <v>12048</v>
+      </c>
+      <c r="AG167" s="11">
+        <v>19275</v>
+      </c>
+      <c r="AH167" s="11">
+        <v>29673</v>
+      </c>
+      <c r="AI167" s="11">
+        <v>51380</v>
+      </c>
+      <c r="AJ167" s="11">
+        <v>87174</v>
+      </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -17601,8 +20155,23 @@
       <c r="AE168" s="13">
         <v>97458</v>
       </c>
+      <c r="AF168" s="11">
+        <v>17417</v>
+      </c>
+      <c r="AG168" s="11">
+        <v>29607</v>
+      </c>
+      <c r="AH168" s="11">
+        <v>50248</v>
+      </c>
+      <c r="AI168" s="11">
+        <v>78833</v>
+      </c>
+      <c r="AJ168" s="11">
+        <v>133375</v>
+      </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -17696,8 +20265,23 @@
       <c r="AE169" s="13">
         <v>104490</v>
       </c>
+      <c r="AF169" s="11">
+        <v>16359</v>
+      </c>
+      <c r="AG169" s="11">
+        <v>33261</v>
+      </c>
+      <c r="AH169" s="11">
+        <v>53622</v>
+      </c>
+      <c r="AI169" s="11">
+        <v>83796</v>
+      </c>
+      <c r="AJ169" s="11">
+        <v>141961</v>
+      </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -17791,8 +20375,23 @@
       <c r="AE170" s="13">
         <v>75294</v>
       </c>
+      <c r="AF170" s="11">
+        <v>9211</v>
+      </c>
+      <c r="AG170" s="11">
+        <v>17532</v>
+      </c>
+      <c r="AH170" s="11">
+        <v>34191</v>
+      </c>
+      <c r="AI170" s="11">
+        <v>59238</v>
+      </c>
+      <c r="AJ170" s="11">
+        <v>104063</v>
+      </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -17886,8 +20485,23 @@
       <c r="AE171" s="13">
         <v>92643</v>
       </c>
+      <c r="AF171" s="11">
+        <v>15085</v>
+      </c>
+      <c r="AG171" s="11">
+        <v>31998</v>
+      </c>
+      <c r="AH171" s="11">
+        <v>47626</v>
+      </c>
+      <c r="AI171" s="11">
+        <v>76970</v>
+      </c>
+      <c r="AJ171" s="11">
+        <v>118920</v>
+      </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -17981,8 +20595,23 @@
       <c r="AE172" s="13">
         <v>97609</v>
       </c>
+      <c r="AF172" s="11">
+        <v>19685</v>
+      </c>
+      <c r="AG172" s="11">
+        <v>37852</v>
+      </c>
+      <c r="AH172" s="11">
+        <v>55550</v>
+      </c>
+      <c r="AI172" s="11">
+        <v>83705</v>
+      </c>
+      <c r="AJ172" s="11">
+        <v>123905</v>
+      </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -18076,8 +20705,23 @@
       <c r="AE173" s="13">
         <v>73584</v>
       </c>
+      <c r="AF173" s="11">
+        <v>11025</v>
+      </c>
+      <c r="AG173" s="11">
+        <v>18756</v>
+      </c>
+      <c r="AH173" s="11">
+        <v>30760</v>
+      </c>
+      <c r="AI173" s="11">
+        <v>65762</v>
+      </c>
+      <c r="AJ173" s="11">
+        <v>108676</v>
+      </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -18171,8 +20815,23 @@
       <c r="AE174" s="13">
         <v>99947</v>
       </c>
+      <c r="AF174" s="11">
+        <v>16656</v>
+      </c>
+      <c r="AG174" s="11">
+        <v>30944</v>
+      </c>
+      <c r="AH174" s="11">
+        <v>52647</v>
+      </c>
+      <c r="AI174" s="11">
+        <v>79625</v>
+      </c>
+      <c r="AJ174" s="11">
+        <v>134150</v>
+      </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -18266,8 +20925,23 @@
       <c r="AE175" s="13">
         <v>96698</v>
       </c>
+      <c r="AF175" s="11">
+        <v>21716</v>
+      </c>
+      <c r="AG175" s="11">
+        <v>37477</v>
+      </c>
+      <c r="AH175" s="11">
+        <v>55093</v>
+      </c>
+      <c r="AI175" s="11">
+        <v>83084</v>
+      </c>
+      <c r="AJ175" s="11">
+        <v>127792</v>
+      </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -18361,8 +21035,23 @@
       <c r="AE176" s="13">
         <v>70431</v>
       </c>
+      <c r="AF176" s="11">
+        <v>11240</v>
+      </c>
+      <c r="AG176" s="11">
+        <v>22978</v>
+      </c>
+      <c r="AH176" s="11">
+        <v>35654</v>
+      </c>
+      <c r="AI176" s="11">
+        <v>60568</v>
+      </c>
+      <c r="AJ176" s="11">
+        <v>92258</v>
+      </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -18456,8 +21145,23 @@
       <c r="AE177" s="13">
         <v>99004</v>
       </c>
+      <c r="AF177" s="11">
+        <v>18025</v>
+      </c>
+      <c r="AG177" s="11">
+        <v>36035</v>
+      </c>
+      <c r="AH177" s="11">
+        <v>57674</v>
+      </c>
+      <c r="AI177" s="11">
+        <v>87739</v>
+      </c>
+      <c r="AJ177" s="11">
+        <v>145042</v>
+      </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -18551,8 +21255,23 @@
       <c r="AE178" s="13">
         <v>82692</v>
       </c>
+      <c r="AF178" s="11">
+        <v>13458</v>
+      </c>
+      <c r="AG178" s="11">
+        <v>28813</v>
+      </c>
+      <c r="AH178" s="11">
+        <v>39590</v>
+      </c>
+      <c r="AI178" s="11">
+        <v>62635</v>
+      </c>
+      <c r="AJ178" s="11">
+        <v>105613</v>
+      </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -18646,8 +21365,23 @@
       <c r="AE179" s="13">
         <v>97145</v>
       </c>
+      <c r="AF179" s="11">
+        <v>10599</v>
+      </c>
+      <c r="AG179" s="11">
+        <v>21059</v>
+      </c>
+      <c r="AH179" s="11">
+        <v>35620</v>
+      </c>
+      <c r="AI179" s="11">
+        <v>58932</v>
+      </c>
+      <c r="AJ179" s="11">
+        <v>102205</v>
+      </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -18741,8 +21475,23 @@
       <c r="AE180" s="13">
         <v>100006</v>
       </c>
+      <c r="AF180" s="11">
+        <v>14918</v>
+      </c>
+      <c r="AG180" s="11">
+        <v>29828</v>
+      </c>
+      <c r="AH180" s="11">
+        <v>49593</v>
+      </c>
+      <c r="AI180" s="11">
+        <v>78451</v>
+      </c>
+      <c r="AJ180" s="11">
+        <v>132892</v>
+      </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -18836,8 +21585,23 @@
       <c r="AE181" s="13">
         <v>102404</v>
       </c>
+      <c r="AF181" s="11">
+        <v>12968</v>
+      </c>
+      <c r="AG181" s="11">
+        <v>22913</v>
+      </c>
+      <c r="AH181" s="11">
+        <v>39205</v>
+      </c>
+      <c r="AI181" s="11">
+        <v>67343</v>
+      </c>
+      <c r="AJ181" s="11">
+        <v>121530</v>
+      </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -18931,8 +21695,23 @@
       <c r="AE182" s="13">
         <v>92270</v>
       </c>
+      <c r="AF182" s="11">
+        <v>15272</v>
+      </c>
+      <c r="AG182" s="11">
+        <v>28200</v>
+      </c>
+      <c r="AH182" s="11">
+        <v>45818</v>
+      </c>
+      <c r="AI182" s="11">
+        <v>72073</v>
+      </c>
+      <c r="AJ182" s="11">
+        <v>124867</v>
+      </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -19026,8 +21805,23 @@
       <c r="AE183" s="13">
         <v>113235</v>
       </c>
+      <c r="AF183" s="11">
+        <v>21176</v>
+      </c>
+      <c r="AG183" s="11">
+        <v>36823</v>
+      </c>
+      <c r="AH183" s="11">
+        <v>54904</v>
+      </c>
+      <c r="AI183" s="11">
+        <v>82657</v>
+      </c>
+      <c r="AJ183" s="11">
+        <v>140990</v>
+      </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -19121,8 +21915,23 @@
       <c r="AE184" s="13">
         <v>100893</v>
       </c>
+      <c r="AF184" s="11">
+        <v>13107</v>
+      </c>
+      <c r="AG184" s="11">
+        <v>30716</v>
+      </c>
+      <c r="AH184" s="11">
+        <v>45454</v>
+      </c>
+      <c r="AI184" s="11">
+        <v>73284</v>
+      </c>
+      <c r="AJ184" s="11">
+        <v>105705</v>
+      </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -19216,8 +22025,23 @@
       <c r="AE185" s="13">
         <v>95621</v>
       </c>
+      <c r="AF185" s="11">
+        <v>16164</v>
+      </c>
+      <c r="AG185" s="11">
+        <v>31020</v>
+      </c>
+      <c r="AH185" s="11">
+        <v>47098</v>
+      </c>
+      <c r="AI185" s="11">
+        <v>71464</v>
+      </c>
+      <c r="AJ185" s="11">
+        <v>112777</v>
+      </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -19311,8 +22135,23 @@
       <c r="AE186" s="13">
         <v>171439</v>
       </c>
+      <c r="AF186" s="11">
+        <v>36759</v>
+      </c>
+      <c r="AG186" s="11">
+        <v>67124</v>
+      </c>
+      <c r="AH186" s="11">
+        <v>99208</v>
+      </c>
+      <c r="AI186" s="11">
+        <v>142537</v>
+      </c>
+      <c r="AJ186" s="11">
+        <v>250000</v>
+      </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -19406,8 +22245,23 @@
       <c r="AE187" s="13">
         <v>89734</v>
       </c>
+      <c r="AF187" s="11">
+        <v>19101</v>
+      </c>
+      <c r="AG187" s="11">
+        <v>36126</v>
+      </c>
+      <c r="AH187" s="11">
+        <v>56419</v>
+      </c>
+      <c r="AI187" s="11">
+        <v>83324</v>
+      </c>
+      <c r="AJ187" s="11">
+        <v>129275</v>
+      </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -19501,8 +22355,23 @@
       <c r="AE188" s="13">
         <v>79117</v>
       </c>
+      <c r="AF188" s="11">
+        <v>9287</v>
+      </c>
+      <c r="AG188" s="11">
+        <v>16114</v>
+      </c>
+      <c r="AH188" s="11">
+        <v>24595</v>
+      </c>
+      <c r="AI188" s="11">
+        <v>38839</v>
+      </c>
+      <c r="AJ188" s="11">
+        <v>86397</v>
+      </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -19596,8 +22465,23 @@
       <c r="AE189" s="13">
         <v>102703</v>
       </c>
+      <c r="AF189" s="11">
+        <v>19500</v>
+      </c>
+      <c r="AG189" s="11">
+        <v>35708</v>
+      </c>
+      <c r="AH189" s="11">
+        <v>56929</v>
+      </c>
+      <c r="AI189" s="11">
+        <v>85368</v>
+      </c>
+      <c r="AJ189" s="11">
+        <v>139419</v>
+      </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -19691,8 +22575,23 @@
       <c r="AE190" s="13">
         <v>80431</v>
       </c>
+      <c r="AF190" s="11">
+        <v>11254</v>
+      </c>
+      <c r="AG190" s="11">
+        <v>23230</v>
+      </c>
+      <c r="AH190" s="11">
+        <v>42536</v>
+      </c>
+      <c r="AI190" s="11">
+        <v>71889</v>
+      </c>
+      <c r="AJ190" s="11">
+        <v>128193</v>
+      </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -19786,8 +22685,23 @@
       <c r="AE191" s="13">
         <v>91032</v>
       </c>
+      <c r="AF191" s="11">
+        <v>13977</v>
+      </c>
+      <c r="AG191" s="11">
+        <v>25259</v>
+      </c>
+      <c r="AH191" s="11">
+        <v>42098</v>
+      </c>
+      <c r="AI191" s="11">
+        <v>69834</v>
+      </c>
+      <c r="AJ191" s="11">
+        <v>121189</v>
+      </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -19881,8 +22795,23 @@
       <c r="AE192" s="13">
         <v>82919</v>
       </c>
+      <c r="AF192" s="11">
+        <v>10953</v>
+      </c>
+      <c r="AG192" s="11">
+        <v>24097</v>
+      </c>
+      <c r="AH192" s="11">
+        <v>37361</v>
+      </c>
+      <c r="AI192" s="11">
+        <v>63180</v>
+      </c>
+      <c r="AJ192" s="11">
+        <v>99933</v>
+      </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -19976,8 +22905,23 @@
       <c r="AE193" s="13">
         <v>96454</v>
       </c>
+      <c r="AF193" s="11">
+        <v>12269</v>
+      </c>
+      <c r="AG193" s="11">
+        <v>24986</v>
+      </c>
+      <c r="AH193" s="11">
+        <v>41949</v>
+      </c>
+      <c r="AI193" s="11">
+        <v>71310</v>
+      </c>
+      <c r="AJ193" s="11">
+        <v>128454</v>
+      </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -20071,8 +23015,23 @@
       <c r="AE194" s="13">
         <v>77199</v>
       </c>
+      <c r="AF194" s="11">
+        <v>13451</v>
+      </c>
+      <c r="AG194" s="11">
+        <v>20182</v>
+      </c>
+      <c r="AH194" s="11">
+        <v>38600</v>
+      </c>
+      <c r="AI194" s="11">
+        <v>62935</v>
+      </c>
+      <c r="AJ194" s="11">
+        <v>87538</v>
+      </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -20166,8 +23125,23 @@
       <c r="AE195" s="13">
         <v>74217</v>
       </c>
+      <c r="AF195" s="11">
+        <v>9576</v>
+      </c>
+      <c r="AG195" s="11">
+        <v>19411</v>
+      </c>
+      <c r="AH195" s="11">
+        <v>37770</v>
+      </c>
+      <c r="AI195" s="11">
+        <v>63875</v>
+      </c>
+      <c r="AJ195" s="11">
+        <v>108026</v>
+      </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -20261,8 +23235,23 @@
       <c r="AE196" s="13">
         <v>92543</v>
       </c>
+      <c r="AF196" s="11">
+        <v>12056</v>
+      </c>
+      <c r="AG196" s="11">
+        <v>24968</v>
+      </c>
+      <c r="AH196" s="11">
+        <v>45635</v>
+      </c>
+      <c r="AI196" s="11">
+        <v>75495</v>
+      </c>
+      <c r="AJ196" s="11">
+        <v>126033</v>
+      </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -20356,8 +23345,23 @@
       <c r="AE197" s="13">
         <v>79074</v>
       </c>
+      <c r="AF197" s="11">
+        <v>10468</v>
+      </c>
+      <c r="AG197" s="11">
+        <v>23942</v>
+      </c>
+      <c r="AH197" s="11">
+        <v>37863</v>
+      </c>
+      <c r="AI197" s="11">
+        <v>61040</v>
+      </c>
+      <c r="AJ197" s="11">
+        <v>109443</v>
+      </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -20451,8 +23455,23 @@
       <c r="AE198" s="13">
         <v>130355</v>
       </c>
+      <c r="AF198" s="11">
+        <v>24624</v>
+      </c>
+      <c r="AG198" s="11">
+        <v>47158</v>
+      </c>
+      <c r="AH198" s="11">
+        <v>71757</v>
+      </c>
+      <c r="AI198" s="11">
+        <v>105829</v>
+      </c>
+      <c r="AJ198" s="11">
+        <v>173085</v>
+      </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>205</v>
       </c>
@@ -20546,8 +23565,23 @@
       <c r="AE199" s="13">
         <v>122103</v>
       </c>
+      <c r="AF199" s="11">
+        <v>26013</v>
+      </c>
+      <c r="AG199" s="11">
+        <v>45456</v>
+      </c>
+      <c r="AH199" s="11">
+        <v>71255</v>
+      </c>
+      <c r="AI199" s="11">
+        <v>104020</v>
+      </c>
+      <c r="AJ199" s="11">
+        <v>194599</v>
+      </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>205</v>
       </c>
@@ -20641,8 +23675,23 @@
       <c r="AE200" s="13">
         <v>98971</v>
       </c>
+      <c r="AF200" s="11">
+        <v>18716</v>
+      </c>
+      <c r="AG200" s="11">
+        <v>33574</v>
+      </c>
+      <c r="AH200" s="11">
+        <v>53518</v>
+      </c>
+      <c r="AI200" s="11">
+        <v>76848</v>
+      </c>
+      <c r="AJ200" s="11">
+        <v>122766</v>
+      </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>205</v>
       </c>
@@ -20736,8 +23785,23 @@
       <c r="AE201" s="13">
         <v>117656</v>
       </c>
+      <c r="AF201" s="11">
+        <v>31167</v>
+      </c>
+      <c r="AG201" s="11">
+        <v>51988</v>
+      </c>
+      <c r="AH201" s="11">
+        <v>75279</v>
+      </c>
+      <c r="AI201" s="11">
+        <v>106464</v>
+      </c>
+      <c r="AJ201" s="11">
+        <v>163475</v>
+      </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>205</v>
       </c>
@@ -20831,8 +23895,23 @@
       <c r="AE202" s="13">
         <v>94255</v>
       </c>
+      <c r="AF202" s="11">
+        <v>13901</v>
+      </c>
+      <c r="AG202" s="11">
+        <v>27059</v>
+      </c>
+      <c r="AH202" s="11">
+        <v>43855</v>
+      </c>
+      <c r="AI202" s="11">
+        <v>69267</v>
+      </c>
+      <c r="AJ202" s="11">
+        <v>118082</v>
+      </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>205</v>
       </c>
@@ -20926,8 +24005,23 @@
       <c r="AE203" s="13">
         <v>97757</v>
       </c>
+      <c r="AF203" s="11">
+        <v>15943</v>
+      </c>
+      <c r="AG203" s="11">
+        <v>31153</v>
+      </c>
+      <c r="AH203" s="11">
+        <v>46522</v>
+      </c>
+      <c r="AI203" s="11">
+        <v>67768</v>
+      </c>
+      <c r="AJ203" s="11">
+        <v>120757</v>
+      </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>205</v>
       </c>
@@ -21021,8 +24115,23 @@
       <c r="AE204" s="13">
         <v>94640</v>
       </c>
+      <c r="AF204" s="11">
+        <v>17627</v>
+      </c>
+      <c r="AG204" s="11">
+        <v>34076</v>
+      </c>
+      <c r="AH204" s="11">
+        <v>51780</v>
+      </c>
+      <c r="AI204" s="11">
+        <v>78425</v>
+      </c>
+      <c r="AJ204" s="11">
+        <v>130163</v>
+      </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>205</v>
       </c>
@@ -21116,8 +24225,23 @@
       <c r="AE205" s="13">
         <v>93600</v>
       </c>
+      <c r="AF205" s="11">
+        <v>19737</v>
+      </c>
+      <c r="AG205" s="11">
+        <v>41181</v>
+      </c>
+      <c r="AH205" s="11">
+        <v>63182</v>
+      </c>
+      <c r="AI205" s="11">
+        <v>85914</v>
+      </c>
+      <c r="AJ205" s="11">
+        <v>124773</v>
+      </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -21211,8 +24335,23 @@
       <c r="AE206" s="13">
         <v>112921</v>
       </c>
+      <c r="AF206" s="11">
+        <v>15950</v>
+      </c>
+      <c r="AG206" s="11">
+        <v>31753</v>
+      </c>
+      <c r="AH206" s="11">
+        <v>50052</v>
+      </c>
+      <c r="AI206" s="11">
+        <v>77090</v>
+      </c>
+      <c r="AJ206" s="11">
+        <v>114878</v>
+      </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -21306,8 +24445,23 @@
       <c r="AE207" s="13">
         <v>121083</v>
       </c>
+      <c r="AF207" s="11">
+        <v>17998</v>
+      </c>
+      <c r="AG207" s="11">
+        <v>33274</v>
+      </c>
+      <c r="AH207" s="11">
+        <v>54138</v>
+      </c>
+      <c r="AI207" s="11">
+        <v>87394</v>
+      </c>
+      <c r="AJ207" s="11">
+        <v>145493</v>
+      </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>205</v>
       </c>
@@ -21401,8 +24555,23 @@
       <c r="AE208" s="13">
         <v>99371</v>
       </c>
+      <c r="AF208" s="11">
+        <v>20563</v>
+      </c>
+      <c r="AG208" s="11">
+        <v>33643</v>
+      </c>
+      <c r="AH208" s="11">
+        <v>55184</v>
+      </c>
+      <c r="AI208" s="11">
+        <v>80823</v>
+      </c>
+      <c r="AJ208" s="11">
+        <v>135316</v>
+      </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>205</v>
       </c>
@@ -21496,8 +24665,23 @@
       <c r="AE209" s="13">
         <v>84940</v>
       </c>
+      <c r="AF209" s="11">
+        <v>9948</v>
+      </c>
+      <c r="AG209" s="11">
+        <v>19304</v>
+      </c>
+      <c r="AH209" s="11">
+        <v>33124</v>
+      </c>
+      <c r="AI209" s="11">
+        <v>52117</v>
+      </c>
+      <c r="AJ209" s="11">
+        <v>101795</v>
+      </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>205</v>
       </c>
@@ -21591,8 +24775,23 @@
       <c r="AE210" s="13">
         <v>87401</v>
       </c>
+      <c r="AF210" s="11">
+        <v>17935</v>
+      </c>
+      <c r="AG210" s="11">
+        <v>32184</v>
+      </c>
+      <c r="AH210" s="11">
+        <v>51165</v>
+      </c>
+      <c r="AI210" s="11">
+        <v>76780</v>
+      </c>
+      <c r="AJ210" s="11">
+        <v>126875</v>
+      </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>205</v>
       </c>
@@ -21686,8 +24885,23 @@
       <c r="AE211" s="13">
         <v>86385</v>
       </c>
+      <c r="AF211" s="11">
+        <v>12815</v>
+      </c>
+      <c r="AG211" s="11">
+        <v>21867</v>
+      </c>
+      <c r="AH211" s="11">
+        <v>37377</v>
+      </c>
+      <c r="AI211" s="11">
+        <v>58567</v>
+      </c>
+      <c r="AJ211" s="11">
+        <v>110013</v>
+      </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>205</v>
       </c>
@@ -21781,8 +24995,23 @@
       <c r="AE212" s="13">
         <v>63163</v>
       </c>
+      <c r="AF212" s="11">
+        <v>8484</v>
+      </c>
+      <c r="AG212" s="11">
+        <v>15321</v>
+      </c>
+      <c r="AH212" s="11">
+        <v>28225</v>
+      </c>
+      <c r="AI212" s="11">
+        <v>57058</v>
+      </c>
+      <c r="AJ212" s="11">
+        <v>92730</v>
+      </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>205</v>
       </c>
@@ -21876,8 +25105,23 @@
       <c r="AE213" s="13">
         <v>129425</v>
       </c>
+      <c r="AF213" s="11">
+        <v>24451</v>
+      </c>
+      <c r="AG213" s="11">
+        <v>44158</v>
+      </c>
+      <c r="AH213" s="11">
+        <v>67439</v>
+      </c>
+      <c r="AI213" s="11">
+        <v>101340</v>
+      </c>
+      <c r="AJ213" s="11">
+        <v>178875</v>
+      </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>254</v>
       </c>
@@ -21971,8 +25215,23 @@
       <c r="AE214" s="13">
         <v>89124</v>
       </c>
+      <c r="AF214" s="11">
+        <v>13402</v>
+      </c>
+      <c r="AG214" s="11">
+        <v>26140</v>
+      </c>
+      <c r="AH214" s="11">
+        <v>42303</v>
+      </c>
+      <c r="AI214" s="11">
+        <v>69833</v>
+      </c>
+      <c r="AJ214" s="11">
+        <v>113043</v>
+      </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>254</v>
       </c>
@@ -22066,8 +25325,23 @@
       <c r="AE215" s="13">
         <v>104745</v>
       </c>
+      <c r="AF215" s="11">
+        <v>17870</v>
+      </c>
+      <c r="AG215" s="11">
+        <v>34042</v>
+      </c>
+      <c r="AH215" s="11">
+        <v>54760</v>
+      </c>
+      <c r="AI215" s="11">
+        <v>82813</v>
+      </c>
+      <c r="AJ215" s="11">
+        <v>135141</v>
+      </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>254</v>
       </c>
@@ -22161,8 +25435,23 @@
       <c r="AE216" s="13">
         <v>97801</v>
       </c>
+      <c r="AF216" s="11">
+        <v>21025</v>
+      </c>
+      <c r="AG216" s="11">
+        <v>36210</v>
+      </c>
+      <c r="AH216" s="11">
+        <v>55535</v>
+      </c>
+      <c r="AI216" s="11">
+        <v>81893</v>
+      </c>
+      <c r="AJ216" s="11">
+        <v>129215</v>
+      </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>254</v>
       </c>
@@ -22256,8 +25545,23 @@
       <c r="AE217" s="13">
         <v>95883</v>
       </c>
+      <c r="AF217" s="11">
+        <v>17588</v>
+      </c>
+      <c r="AG217" s="11">
+        <v>32724</v>
+      </c>
+      <c r="AH217" s="11">
+        <v>51071</v>
+      </c>
+      <c r="AI217" s="11">
+        <v>76722</v>
+      </c>
+      <c r="AJ217" s="11">
+        <v>125163</v>
+      </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>254</v>
       </c>
@@ -22351,8 +25655,23 @@
       <c r="AE218" s="13">
         <v>96657</v>
       </c>
+      <c r="AF218" s="11">
+        <v>11683</v>
+      </c>
+      <c r="AG218" s="11">
+        <v>23766</v>
+      </c>
+      <c r="AH218" s="11">
+        <v>43729</v>
+      </c>
+      <c r="AI218" s="11">
+        <v>72051</v>
+      </c>
+      <c r="AJ218" s="11">
+        <v>135926</v>
+      </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>254</v>
       </c>
@@ -22446,8 +25765,23 @@
       <c r="AE219" s="13">
         <v>112469</v>
       </c>
+      <c r="AF219" s="11">
+        <v>26798</v>
+      </c>
+      <c r="AG219" s="11">
+        <v>43622</v>
+      </c>
+      <c r="AH219" s="11">
+        <v>62308</v>
+      </c>
+      <c r="AI219" s="11">
+        <v>89977</v>
+      </c>
+      <c r="AJ219" s="11">
+        <v>142508</v>
+      </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>254</v>
       </c>
@@ -22541,8 +25875,23 @@
       <c r="AE220" s="13">
         <v>94438</v>
       </c>
+      <c r="AF220" s="11">
+        <v>17831</v>
+      </c>
+      <c r="AG220" s="11">
+        <v>31955</v>
+      </c>
+      <c r="AH220" s="11">
+        <v>49275</v>
+      </c>
+      <c r="AI220" s="11">
+        <v>77196</v>
+      </c>
+      <c r="AJ220" s="11">
+        <v>118492</v>
+      </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>254</v>
       </c>
@@ -22636,8 +25985,23 @@
       <c r="AE221" s="13">
         <v>102675</v>
       </c>
+      <c r="AF221" s="11">
+        <v>20994</v>
+      </c>
+      <c r="AG221" s="11">
+        <v>37649</v>
+      </c>
+      <c r="AH221" s="11">
+        <v>56116</v>
+      </c>
+      <c r="AI221" s="11">
+        <v>79275</v>
+      </c>
+      <c r="AJ221" s="11">
+        <v>122853</v>
+      </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>254</v>
       </c>
@@ -22731,8 +26095,23 @@
       <c r="AE222" s="13">
         <v>132723</v>
       </c>
+      <c r="AF222" s="11">
+        <v>23948</v>
+      </c>
+      <c r="AG222" s="11">
+        <v>43990</v>
+      </c>
+      <c r="AH222" s="11">
+        <v>68643</v>
+      </c>
+      <c r="AI222" s="11">
+        <v>105268</v>
+      </c>
+      <c r="AJ222" s="11">
+        <v>171978</v>
+      </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>254</v>
       </c>
@@ -22826,8 +26205,23 @@
       <c r="AE223" s="13">
         <v>94449</v>
       </c>
+      <c r="AF223" s="11">
+        <v>22009</v>
+      </c>
+      <c r="AG223" s="11">
+        <v>36294</v>
+      </c>
+      <c r="AH223" s="11">
+        <v>51807</v>
+      </c>
+      <c r="AI223" s="11">
+        <v>78177</v>
+      </c>
+      <c r="AJ223" s="11">
+        <v>125968</v>
+      </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>254</v>
       </c>
@@ -22921,8 +26315,23 @@
       <c r="AE224" s="13">
         <v>105633</v>
       </c>
+      <c r="AF224" s="11">
+        <v>21660</v>
+      </c>
+      <c r="AG224" s="11">
+        <v>37904</v>
+      </c>
+      <c r="AH224" s="11">
+        <v>58573</v>
+      </c>
+      <c r="AI224" s="11">
+        <v>85641</v>
+      </c>
+      <c r="AJ224" s="11">
+        <v>134035</v>
+      </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>254</v>
       </c>
@@ -23016,8 +26425,23 @@
       <c r="AE225" s="13">
         <v>109675</v>
       </c>
+      <c r="AF225" s="11">
+        <v>19039</v>
+      </c>
+      <c r="AG225" s="11">
+        <v>35387</v>
+      </c>
+      <c r="AH225" s="11">
+        <v>53853</v>
+      </c>
+      <c r="AI225" s="11">
+        <v>83694</v>
+      </c>
+      <c r="AJ225" s="11">
+        <v>138082</v>
+      </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>254</v>
       </c>
@@ -23111,8 +26535,23 @@
       <c r="AE226" s="13">
         <v>134305</v>
       </c>
+      <c r="AF226" s="11">
+        <v>27276</v>
+      </c>
+      <c r="AG226" s="11">
+        <v>48748</v>
+      </c>
+      <c r="AH226" s="11">
+        <v>72740</v>
+      </c>
+      <c r="AI226" s="11">
+        <v>109675</v>
+      </c>
+      <c r="AJ226" s="11">
+        <v>185547</v>
+      </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>254</v>
       </c>
@@ -23206,8 +26645,23 @@
       <c r="AE227" s="13">
         <v>103105</v>
       </c>
+      <c r="AF227" s="11">
+        <v>20461</v>
+      </c>
+      <c r="AG227" s="11">
+        <v>37313</v>
+      </c>
+      <c r="AH227" s="11">
+        <v>58234</v>
+      </c>
+      <c r="AI227" s="11">
+        <v>86044</v>
+      </c>
+      <c r="AJ227" s="11">
+        <v>136237</v>
+      </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>254</v>
       </c>
@@ -23301,8 +26755,23 @@
       <c r="AE228" s="13">
         <v>96567</v>
       </c>
+      <c r="AF228" s="11">
+        <v>18359</v>
+      </c>
+      <c r="AG228" s="11">
+        <v>32940</v>
+      </c>
+      <c r="AH228" s="11">
+        <v>51157</v>
+      </c>
+      <c r="AI228" s="11">
+        <v>76361</v>
+      </c>
+      <c r="AJ228" s="11">
+        <v>122052</v>
+      </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>254</v>
       </c>
@@ -23396,8 +26865,23 @@
       <c r="AE229" s="13">
         <v>90166</v>
       </c>
+      <c r="AF229" s="11">
+        <v>18164</v>
+      </c>
+      <c r="AG229" s="11">
+        <v>32205</v>
+      </c>
+      <c r="AH229" s="11">
+        <v>49079</v>
+      </c>
+      <c r="AI229" s="11">
+        <v>73537</v>
+      </c>
+      <c r="AJ229" s="11">
+        <v>122425</v>
+      </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>254</v>
       </c>
@@ -23491,8 +26975,23 @@
       <c r="AE230" s="13">
         <v>93521</v>
       </c>
+      <c r="AF230" s="11">
+        <v>20028</v>
+      </c>
+      <c r="AG230" s="11">
+        <v>35026</v>
+      </c>
+      <c r="AH230" s="11">
+        <v>49673</v>
+      </c>
+      <c r="AI230" s="11">
+        <v>71986</v>
+      </c>
+      <c r="AJ230" s="11">
+        <v>111262</v>
+      </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>254</v>
       </c>
@@ -23586,8 +27085,23 @@
       <c r="AE231" s="13">
         <v>136762</v>
       </c>
+      <c r="AF231" s="11">
+        <v>17057</v>
+      </c>
+      <c r="AG231" s="11">
+        <v>34323</v>
+      </c>
+      <c r="AH231" s="11">
+        <v>55732</v>
+      </c>
+      <c r="AI231" s="11">
+        <v>91029</v>
+      </c>
+      <c r="AJ231" s="11">
+        <v>168290</v>
+      </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>254</v>
       </c>
@@ -23681,8 +27195,23 @@
       <c r="AE232" s="13">
         <v>108789</v>
       </c>
+      <c r="AF232" s="11">
+        <v>20897</v>
+      </c>
+      <c r="AG232" s="11">
+        <v>36941</v>
+      </c>
+      <c r="AH232" s="11">
+        <v>54885</v>
+      </c>
+      <c r="AI232" s="11">
+        <v>80710</v>
+      </c>
+      <c r="AJ232" s="11">
+        <v>126919</v>
+      </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>254</v>
       </c>
@@ -23776,8 +27305,23 @@
       <c r="AE233" s="13">
         <v>104630</v>
       </c>
+      <c r="AF233" s="11">
+        <v>22168</v>
+      </c>
+      <c r="AG233" s="11">
+        <v>39149</v>
+      </c>
+      <c r="AH233" s="11">
+        <v>57756</v>
+      </c>
+      <c r="AI233" s="11">
+        <v>83252</v>
+      </c>
+      <c r="AJ233" s="11">
+        <v>132594</v>
+      </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>254</v>
       </c>
@@ -23871,8 +27415,23 @@
       <c r="AE234" s="13">
         <v>209739</v>
       </c>
+      <c r="AF234" s="11">
+        <v>41455</v>
+      </c>
+      <c r="AG234" s="11">
+        <v>73167</v>
+      </c>
+      <c r="AH234" s="11">
+        <v>107191</v>
+      </c>
+      <c r="AI234" s="11">
+        <v>156901</v>
+      </c>
+      <c r="AJ234" s="11">
+        <v>250000</v>
+      </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>254</v>
       </c>
@@ -23966,8 +27525,23 @@
       <c r="AE235" s="13">
         <v>122957</v>
       </c>
+      <c r="AF235" s="11">
+        <v>20543</v>
+      </c>
+      <c r="AG235" s="11">
+        <v>38791</v>
+      </c>
+      <c r="AH235" s="11">
+        <v>59679</v>
+      </c>
+      <c r="AI235" s="11">
+        <v>92210</v>
+      </c>
+      <c r="AJ235" s="11">
+        <v>152218</v>
+      </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>254</v>
       </c>
@@ -24061,8 +27635,23 @@
       <c r="AE236" s="13">
         <v>128413</v>
       </c>
+      <c r="AF236" s="11">
+        <v>25996</v>
+      </c>
+      <c r="AG236" s="11">
+        <v>46483</v>
+      </c>
+      <c r="AH236" s="11">
+        <v>70327</v>
+      </c>
+      <c r="AI236" s="11">
+        <v>103708</v>
+      </c>
+      <c r="AJ236" s="11">
+        <v>164731</v>
+      </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>254</v>
       </c>
@@ -24156,8 +27745,23 @@
       <c r="AE237" s="13">
         <v>104448</v>
       </c>
+      <c r="AF237" s="11">
+        <v>19024</v>
+      </c>
+      <c r="AG237" s="11">
+        <v>32850</v>
+      </c>
+      <c r="AH237" s="11">
+        <v>48635</v>
+      </c>
+      <c r="AI237" s="11">
+        <v>75886</v>
+      </c>
+      <c r="AJ237" s="11">
+        <v>121291</v>
+      </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>254</v>
       </c>
@@ -24251,8 +27855,23 @@
       <c r="AE238" s="13">
         <v>133530</v>
       </c>
+      <c r="AF238" s="11">
+        <v>20627</v>
+      </c>
+      <c r="AG238" s="11">
+        <v>39494</v>
+      </c>
+      <c r="AH238" s="11">
+        <v>62466</v>
+      </c>
+      <c r="AI238" s="11">
+        <v>98188</v>
+      </c>
+      <c r="AJ238" s="11">
+        <v>177840</v>
+      </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>254</v>
       </c>
@@ -24346,8 +27965,23 @@
       <c r="AE239" s="13">
         <v>107826</v>
       </c>
+      <c r="AF239" s="11">
+        <v>25319</v>
+      </c>
+      <c r="AG239" s="11">
+        <v>43721</v>
+      </c>
+      <c r="AH239" s="11">
+        <v>62761</v>
+      </c>
+      <c r="AI239" s="11">
+        <v>90451</v>
+      </c>
+      <c r="AJ239" s="11">
+        <v>133594</v>
+      </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>254</v>
       </c>
@@ -24441,8 +28075,23 @@
       <c r="AE240" s="13">
         <v>92768</v>
       </c>
+      <c r="AF240" s="11">
+        <v>15340</v>
+      </c>
+      <c r="AG240" s="11">
+        <v>28000</v>
+      </c>
+      <c r="AH240" s="11">
+        <v>46520</v>
+      </c>
+      <c r="AI240" s="11">
+        <v>78380</v>
+      </c>
+      <c r="AJ240" s="11">
+        <v>136230</v>
+      </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>254</v>
       </c>
@@ -24536,8 +28185,23 @@
       <c r="AE241" s="13">
         <v>193712</v>
       </c>
+      <c r="AF241" s="11">
+        <v>31164</v>
+      </c>
+      <c r="AG241" s="11">
+        <v>54591</v>
+      </c>
+      <c r="AH241" s="11">
+        <v>80718</v>
+      </c>
+      <c r="AI241" s="11">
+        <v>124219</v>
+      </c>
+      <c r="AJ241" s="11">
+        <v>239962</v>
+      </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>254</v>
       </c>
@@ -24631,8 +28295,23 @@
       <c r="AE242" s="13">
         <v>138849</v>
       </c>
+      <c r="AF242" s="11">
+        <v>24603</v>
+      </c>
+      <c r="AG242" s="11">
+        <v>46252</v>
+      </c>
+      <c r="AH242" s="11">
+        <v>70733</v>
+      </c>
+      <c r="AI242" s="11">
+        <v>109788</v>
+      </c>
+      <c r="AJ242" s="11">
+        <v>183231</v>
+      </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>254</v>
       </c>
@@ -24726,8 +28405,23 @@
       <c r="AE243" s="13">
         <v>92827</v>
       </c>
+      <c r="AF243" s="11">
+        <v>16362</v>
+      </c>
+      <c r="AG243" s="11">
+        <v>29382</v>
+      </c>
+      <c r="AH243" s="11">
+        <v>47771</v>
+      </c>
+      <c r="AI243" s="11">
+        <v>71874</v>
+      </c>
+      <c r="AJ243" s="11">
+        <v>111931</v>
+      </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>254</v>
       </c>
@@ -24821,8 +28515,23 @@
       <c r="AE244" s="13">
         <v>151317</v>
       </c>
+      <c r="AF244" s="11">
+        <v>18777</v>
+      </c>
+      <c r="AG244" s="11">
+        <v>37400</v>
+      </c>
+      <c r="AH244" s="11">
+        <v>62407</v>
+      </c>
+      <c r="AI244" s="11">
+        <v>101425</v>
+      </c>
+      <c r="AJ244" s="11">
+        <v>190068</v>
+      </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>254</v>
       </c>
@@ -24916,8 +28625,23 @@
       <c r="AE245" s="13">
         <v>119214</v>
       </c>
+      <c r="AF245" s="11">
+        <v>21639</v>
+      </c>
+      <c r="AG245" s="11">
+        <v>40630</v>
+      </c>
+      <c r="AH245" s="11">
+        <v>60198</v>
+      </c>
+      <c r="AI245" s="11">
+        <v>90630</v>
+      </c>
+      <c r="AJ245" s="11">
+        <v>149620</v>
+      </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>254</v>
       </c>
@@ -25011,8 +28735,23 @@
       <c r="AE246" s="13">
         <v>95683</v>
       </c>
+      <c r="AF246" s="11">
+        <v>15617</v>
+      </c>
+      <c r="AG246" s="11">
+        <v>31516</v>
+      </c>
+      <c r="AH246" s="11">
+        <v>50676</v>
+      </c>
+      <c r="AI246" s="11">
+        <v>73647</v>
+      </c>
+      <c r="AJ246" s="11">
+        <v>120214</v>
+      </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>254</v>
       </c>
@@ -25106,8 +28845,23 @@
       <c r="AE247" s="13">
         <v>98202</v>
       </c>
+      <c r="AF247" s="11">
+        <v>16409</v>
+      </c>
+      <c r="AG247" s="11">
+        <v>28789</v>
+      </c>
+      <c r="AH247" s="11">
+        <v>44039</v>
+      </c>
+      <c r="AI247" s="11">
+        <v>70634</v>
+      </c>
+      <c r="AJ247" s="11">
+        <v>112339</v>
+      </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>254</v>
       </c>
@@ -25201,8 +28955,23 @@
       <c r="AE248" s="13">
         <v>103709</v>
       </c>
+      <c r="AF248" s="11">
+        <v>22527</v>
+      </c>
+      <c r="AG248" s="11">
+        <v>40035</v>
+      </c>
+      <c r="AH248" s="11">
+        <v>59563</v>
+      </c>
+      <c r="AI248" s="11">
+        <v>86753</v>
+      </c>
+      <c r="AJ248" s="11">
+        <v>136370</v>
+      </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>254</v>
       </c>
@@ -25296,8 +29065,23 @@
       <c r="AE249" s="13">
         <v>96401</v>
       </c>
+      <c r="AF249" s="11">
+        <v>17840</v>
+      </c>
+      <c r="AG249" s="11">
+        <v>32291</v>
+      </c>
+      <c r="AH249" s="11">
+        <v>49637</v>
+      </c>
+      <c r="AI249" s="11">
+        <v>72247</v>
+      </c>
+      <c r="AJ249" s="11">
+        <v>111782</v>
+      </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>254</v>
       </c>
@@ -25391,8 +29175,23 @@
       <c r="AE250" s="13">
         <v>93083</v>
       </c>
+      <c r="AF250" s="11">
+        <v>17435</v>
+      </c>
+      <c r="AG250" s="11">
+        <v>34550</v>
+      </c>
+      <c r="AH250" s="11">
+        <v>52534</v>
+      </c>
+      <c r="AI250" s="11">
+        <v>77696</v>
+      </c>
+      <c r="AJ250" s="11">
+        <v>116986</v>
+      </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>254</v>
       </c>
@@ -25486,8 +29285,23 @@
       <c r="AE251" s="13">
         <v>113115</v>
       </c>
+      <c r="AF251" s="11">
+        <v>23580</v>
+      </c>
+      <c r="AG251" s="11">
+        <v>37896</v>
+      </c>
+      <c r="AH251" s="11">
+        <v>52505</v>
+      </c>
+      <c r="AI251" s="11">
+        <v>82028</v>
+      </c>
+      <c r="AJ251" s="11">
+        <v>132844</v>
+      </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>254</v>
       </c>
@@ -25581,8 +29395,23 @@
       <c r="AE252" s="13">
         <v>101970</v>
       </c>
+      <c r="AF252" s="11">
+        <v>21775</v>
+      </c>
+      <c r="AG252" s="11">
+        <v>39256</v>
+      </c>
+      <c r="AH252" s="11">
+        <v>58141</v>
+      </c>
+      <c r="AI252" s="11">
+        <v>83324</v>
+      </c>
+      <c r="AJ252" s="11">
+        <v>130509</v>
+      </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>254</v>
       </c>
@@ -25676,8 +29505,23 @@
       <c r="AE253" s="13">
         <v>87095</v>
       </c>
+      <c r="AF253" s="11">
+        <v>15744</v>
+      </c>
+      <c r="AG253" s="11">
+        <v>28364</v>
+      </c>
+      <c r="AH253" s="11">
+        <v>45829</v>
+      </c>
+      <c r="AI253" s="11">
+        <v>75529</v>
+      </c>
+      <c r="AJ253" s="11">
+        <v>121269</v>
+      </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>254</v>
       </c>
@@ -25771,8 +29615,23 @@
       <c r="AE254" s="13">
         <v>93458</v>
       </c>
+      <c r="AF254" s="11">
+        <v>16710</v>
+      </c>
+      <c r="AG254" s="11">
+        <v>32091</v>
+      </c>
+      <c r="AH254" s="11">
+        <v>48695</v>
+      </c>
+      <c r="AI254" s="11">
+        <v>76341</v>
+      </c>
+      <c r="AJ254" s="11">
+        <v>125380</v>
+      </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -25866,8 +29725,23 @@
       <c r="AE255" s="13">
         <v>106990</v>
       </c>
+      <c r="AF255" s="11">
+        <v>22002</v>
+      </c>
+      <c r="AG255" s="11">
+        <v>39687</v>
+      </c>
+      <c r="AH255" s="11">
+        <v>58608</v>
+      </c>
+      <c r="AI255" s="11">
+        <v>85935</v>
+      </c>
+      <c r="AJ255" s="11">
+        <v>135342</v>
+      </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -25961,8 +29835,23 @@
       <c r="AE256" s="13">
         <v>126534</v>
       </c>
+      <c r="AF256" s="11">
+        <v>26408</v>
+      </c>
+      <c r="AG256" s="11">
+        <v>45787</v>
+      </c>
+      <c r="AH256" s="11">
+        <v>67462</v>
+      </c>
+      <c r="AI256" s="11">
+        <v>100270</v>
+      </c>
+      <c r="AJ256" s="11">
+        <v>163190</v>
+      </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>254</v>
       </c>
@@ -26056,8 +29945,23 @@
       <c r="AE257" s="13">
         <v>86404</v>
       </c>
+      <c r="AF257" s="11">
+        <v>17434</v>
+      </c>
+      <c r="AG257" s="11">
+        <v>30815</v>
+      </c>
+      <c r="AH257" s="11">
+        <v>47397</v>
+      </c>
+      <c r="AI257" s="11">
+        <v>74046</v>
+      </c>
+      <c r="AJ257" s="11">
+        <v>124257</v>
+      </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>254</v>
       </c>
@@ -26151,8 +30055,23 @@
       <c r="AE258" s="13">
         <v>118155</v>
       </c>
+      <c r="AF258" s="11">
+        <v>23849</v>
+      </c>
+      <c r="AG258" s="11">
+        <v>43001</v>
+      </c>
+      <c r="AH258" s="11">
+        <v>66702</v>
+      </c>
+      <c r="AI258" s="11">
+        <v>99973</v>
+      </c>
+      <c r="AJ258" s="11">
+        <v>158493</v>
+      </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>254</v>
       </c>
@@ -26246,8 +30165,23 @@
       <c r="AE259" s="13">
         <v>103811</v>
       </c>
+      <c r="AF259" s="11">
+        <v>20959</v>
+      </c>
+      <c r="AG259" s="11">
+        <v>37286</v>
+      </c>
+      <c r="AH259" s="11">
+        <v>56155</v>
+      </c>
+      <c r="AI259" s="11">
+        <v>81782</v>
+      </c>
+      <c r="AJ259" s="11">
+        <v>135102</v>
+      </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>254</v>
       </c>
@@ -26341,8 +30275,23 @@
       <c r="AE260" s="13">
         <v>128207</v>
       </c>
+      <c r="AF260" s="11">
+        <v>22624</v>
+      </c>
+      <c r="AG260" s="11">
+        <v>41330</v>
+      </c>
+      <c r="AH260" s="11">
+        <v>63982</v>
+      </c>
+      <c r="AI260" s="11">
+        <v>96356</v>
+      </c>
+      <c r="AJ260" s="11">
+        <v>160672</v>
+      </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>254</v>
       </c>
@@ -26436,8 +30385,23 @@
       <c r="AE261" s="13">
         <v>123970</v>
       </c>
+      <c r="AF261" s="11">
+        <v>16703</v>
+      </c>
+      <c r="AG261" s="11">
+        <v>32633</v>
+      </c>
+      <c r="AH261" s="11">
+        <v>53101</v>
+      </c>
+      <c r="AI261" s="11">
+        <v>85081</v>
+      </c>
+      <c r="AJ261" s="11">
+        <v>150851</v>
+      </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>254</v>
       </c>
@@ -26531,8 +30495,23 @@
       <c r="AE262" s="13">
         <v>112839</v>
       </c>
+      <c r="AF262" s="11">
+        <v>22768</v>
+      </c>
+      <c r="AG262" s="11">
+        <v>42467</v>
+      </c>
+      <c r="AH262" s="11">
+        <v>70050</v>
+      </c>
+      <c r="AI262" s="11">
+        <v>102127</v>
+      </c>
+      <c r="AJ262" s="11">
+        <v>162595</v>
+      </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>254</v>
       </c>
@@ -26626,8 +30605,23 @@
       <c r="AE263" s="13">
         <v>112755</v>
       </c>
+      <c r="AF263" s="11">
+        <v>16918</v>
+      </c>
+      <c r="AG263" s="11">
+        <v>31873</v>
+      </c>
+      <c r="AH263" s="11">
+        <v>51066</v>
+      </c>
+      <c r="AI263" s="11">
+        <v>80371</v>
+      </c>
+      <c r="AJ263" s="11">
+        <v>137455</v>
+      </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>254</v>
       </c>
@@ -26721,8 +30715,23 @@
       <c r="AE264" s="13">
         <v>106860</v>
       </c>
+      <c r="AF264" s="11">
+        <v>17560</v>
+      </c>
+      <c r="AG264" s="11">
+        <v>32599</v>
+      </c>
+      <c r="AH264" s="11">
+        <v>51776</v>
+      </c>
+      <c r="AI264" s="11">
+        <v>80405</v>
+      </c>
+      <c r="AJ264" s="11">
+        <v>130298</v>
+      </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>254</v>
       </c>
@@ -26816,8 +30825,23 @@
       <c r="AE265" s="13">
         <v>145099</v>
       </c>
+      <c r="AF265" s="11">
+        <v>31024</v>
+      </c>
+      <c r="AG265" s="11">
+        <v>54450</v>
+      </c>
+      <c r="AH265" s="11">
+        <v>79205</v>
+      </c>
+      <c r="AI265" s="11">
+        <v>113172</v>
+      </c>
+      <c r="AJ265" s="11">
+        <v>190560</v>
+      </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>254</v>
       </c>
@@ -26911,8 +30935,23 @@
       <c r="AE266" s="13">
         <v>79932</v>
       </c>
+      <c r="AF266" s="11">
+        <v>14645</v>
+      </c>
+      <c r="AG266" s="11">
+        <v>26209</v>
+      </c>
+      <c r="AH266" s="11">
+        <v>41333</v>
+      </c>
+      <c r="AI266" s="11">
+        <v>67136</v>
+      </c>
+      <c r="AJ266" s="11">
+        <v>113593</v>
+      </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>254</v>
       </c>
@@ -27006,8 +31045,23 @@
       <c r="AE267" s="13">
         <v>109770</v>
       </c>
+      <c r="AF267" s="11">
+        <v>23683</v>
+      </c>
+      <c r="AG267" s="11">
+        <v>41378</v>
+      </c>
+      <c r="AH267" s="11">
+        <v>61067</v>
+      </c>
+      <c r="AI267" s="11">
+        <v>87635</v>
+      </c>
+      <c r="AJ267" s="11">
+        <v>131099</v>
+      </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>254</v>
       </c>
@@ -27101,8 +31155,23 @@
       <c r="AE268" s="13">
         <v>125350</v>
       </c>
+      <c r="AF268" s="11">
+        <v>23171</v>
+      </c>
+      <c r="AG268" s="11">
+        <v>41200</v>
+      </c>
+      <c r="AH268" s="11">
+        <v>62273</v>
+      </c>
+      <c r="AI268" s="11">
+        <v>91395</v>
+      </c>
+      <c r="AJ268" s="11">
+        <v>145016</v>
+      </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>254</v>
       </c>
@@ -27196,8 +31265,23 @@
       <c r="AE269" s="13">
         <v>88201</v>
       </c>
+      <c r="AF269" s="11">
+        <v>16698</v>
+      </c>
+      <c r="AG269" s="11">
+        <v>32867</v>
+      </c>
+      <c r="AH269" s="11">
+        <v>45870</v>
+      </c>
+      <c r="AI269" s="11">
+        <v>71279</v>
+      </c>
+      <c r="AJ269" s="11">
+        <v>114113</v>
+      </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>254</v>
       </c>
@@ -27291,8 +31375,23 @@
       <c r="AE270" s="13">
         <v>126356</v>
       </c>
+      <c r="AF270" s="11">
+        <v>18891</v>
+      </c>
+      <c r="AG270" s="11">
+        <v>34929</v>
+      </c>
+      <c r="AH270" s="11">
+        <v>55603</v>
+      </c>
+      <c r="AI270" s="11">
+        <v>88373</v>
+      </c>
+      <c r="AJ270" s="11">
+        <v>153617</v>
+      </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>254</v>
       </c>
@@ -27386,8 +31485,23 @@
       <c r="AE271" s="13">
         <v>76981</v>
       </c>
+      <c r="AF271" s="11">
+        <v>15811</v>
+      </c>
+      <c r="AG271" s="11">
+        <v>28851</v>
+      </c>
+      <c r="AH271" s="11">
+        <v>43151</v>
+      </c>
+      <c r="AI271" s="11">
+        <v>66805</v>
+      </c>
+      <c r="AJ271" s="11">
+        <v>120056</v>
+      </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>254</v>
       </c>
@@ -27481,8 +31595,23 @@
       <c r="AE272" s="13">
         <v>102671</v>
       </c>
+      <c r="AF272" s="11">
+        <v>22769</v>
+      </c>
+      <c r="AG272" s="11">
+        <v>41610</v>
+      </c>
+      <c r="AH272" s="11">
+        <v>59724</v>
+      </c>
+      <c r="AI272" s="11">
+        <v>86085</v>
+      </c>
+      <c r="AJ272" s="11">
+        <v>142224</v>
+      </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>254</v>
       </c>
@@ -27576,8 +31705,23 @@
       <c r="AE273" s="13">
         <v>105083</v>
       </c>
+      <c r="AF273" s="11">
+        <v>17033</v>
+      </c>
+      <c r="AG273" s="11">
+        <v>32171</v>
+      </c>
+      <c r="AH273" s="11">
+        <v>50475</v>
+      </c>
+      <c r="AI273" s="11">
+        <v>78035</v>
+      </c>
+      <c r="AJ273" s="11">
+        <v>126898</v>
+      </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>254</v>
       </c>
@@ -27671,8 +31815,23 @@
       <c r="AE274" s="13">
         <v>89360</v>
       </c>
+      <c r="AF274" s="11">
+        <v>17225</v>
+      </c>
+      <c r="AG274" s="11">
+        <v>31112</v>
+      </c>
+      <c r="AH274" s="11">
+        <v>45581</v>
+      </c>
+      <c r="AI274" s="11">
+        <v>72456</v>
+      </c>
+      <c r="AJ274" s="11">
+        <v>135440</v>
+      </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>254</v>
       </c>
@@ -27766,8 +31925,23 @@
       <c r="AE275" s="13">
         <v>118761</v>
       </c>
+      <c r="AF275" s="11">
+        <v>24015</v>
+      </c>
+      <c r="AG275" s="11">
+        <v>42972</v>
+      </c>
+      <c r="AH275" s="11">
+        <v>65654</v>
+      </c>
+      <c r="AI275" s="11">
+        <v>98326</v>
+      </c>
+      <c r="AJ275" s="11">
+        <v>160830</v>
+      </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>254</v>
       </c>
@@ -27861,8 +32035,23 @@
       <c r="AE276" s="13">
         <v>99790</v>
       </c>
+      <c r="AF276" s="11">
+        <v>20230</v>
+      </c>
+      <c r="AG276" s="11">
+        <v>34649</v>
+      </c>
+      <c r="AH276" s="11">
+        <v>55161</v>
+      </c>
+      <c r="AI276" s="11">
+        <v>80182</v>
+      </c>
+      <c r="AJ276" s="11">
+        <v>125968</v>
+      </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>254</v>
       </c>
@@ -27956,8 +32145,23 @@
       <c r="AE277" s="13">
         <v>95343</v>
       </c>
+      <c r="AF277" s="11">
+        <v>17476</v>
+      </c>
+      <c r="AG277" s="11">
+        <v>34744</v>
+      </c>
+      <c r="AH277" s="11">
+        <v>52092</v>
+      </c>
+      <c r="AI277" s="11">
+        <v>76520</v>
+      </c>
+      <c r="AJ277" s="11">
+        <v>119270</v>
+      </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>254</v>
       </c>
@@ -28051,8 +32255,23 @@
       <c r="AE278" s="13">
         <v>104397</v>
       </c>
+      <c r="AF278" s="11">
+        <v>23782</v>
+      </c>
+      <c r="AG278" s="11">
+        <v>43137</v>
+      </c>
+      <c r="AH278" s="11">
+        <v>63629</v>
+      </c>
+      <c r="AI278" s="11">
+        <v>92512</v>
+      </c>
+      <c r="AJ278" s="11">
+        <v>146107</v>
+      </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>254</v>
       </c>
@@ -28146,8 +32365,23 @@
       <c r="AE279" s="13">
         <v>106545</v>
       </c>
+      <c r="AF279" s="11">
+        <v>14423</v>
+      </c>
+      <c r="AG279" s="11">
+        <v>29720</v>
+      </c>
+      <c r="AH279" s="11">
+        <v>48124</v>
+      </c>
+      <c r="AI279" s="11">
+        <v>73799</v>
+      </c>
+      <c r="AJ279" s="11">
+        <v>121939</v>
+      </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>254</v>
       </c>
@@ -28241,8 +32475,23 @@
       <c r="AE280" s="13">
         <v>122287</v>
       </c>
+      <c r="AF280" s="11">
+        <v>21228</v>
+      </c>
+      <c r="AG280" s="11">
+        <v>40965</v>
+      </c>
+      <c r="AH280" s="11">
+        <v>64527</v>
+      </c>
+      <c r="AI280" s="11">
+        <v>95703</v>
+      </c>
+      <c r="AJ280" s="11">
+        <v>159236</v>
+      </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>254</v>
       </c>
@@ -28336,8 +32585,23 @@
       <c r="AE281" s="13">
         <v>100452</v>
       </c>
+      <c r="AF281" s="11">
+        <v>22799</v>
+      </c>
+      <c r="AG281" s="11">
+        <v>40726</v>
+      </c>
+      <c r="AH281" s="11">
+        <v>57862</v>
+      </c>
+      <c r="AI281" s="11">
+        <v>84840</v>
+      </c>
+      <c r="AJ281" s="11">
+        <v>133122</v>
+      </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>254</v>
       </c>
@@ -28431,8 +32695,23 @@
       <c r="AE282" s="13">
         <v>109897</v>
       </c>
+      <c r="AF282" s="11">
+        <v>28862</v>
+      </c>
+      <c r="AG282" s="11">
+        <v>48620</v>
+      </c>
+      <c r="AH282" s="11">
+        <v>69828</v>
+      </c>
+      <c r="AI282" s="11">
+        <v>97508</v>
+      </c>
+      <c r="AJ282" s="11">
+        <v>144970</v>
+      </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>254</v>
       </c>
@@ -28526,8 +32805,23 @@
       <c r="AE283" s="13">
         <v>109258</v>
       </c>
+      <c r="AF283" s="11">
+        <v>20329</v>
+      </c>
+      <c r="AG283" s="11">
+        <v>35481</v>
+      </c>
+      <c r="AH283" s="11">
+        <v>53318</v>
+      </c>
+      <c r="AI283" s="11">
+        <v>81722</v>
+      </c>
+      <c r="AJ283" s="11">
+        <v>132605</v>
+      </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>254</v>
       </c>
@@ -28621,8 +32915,23 @@
       <c r="AE284" s="13">
         <v>101871</v>
       </c>
+      <c r="AF284" s="11">
+        <v>19271</v>
+      </c>
+      <c r="AG284" s="11">
+        <v>35261</v>
+      </c>
+      <c r="AH284" s="11">
+        <v>54898</v>
+      </c>
+      <c r="AI284" s="11">
+        <v>84234</v>
+      </c>
+      <c r="AJ284" s="11">
+        <v>134460</v>
+      </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>254</v>
       </c>
@@ -28716,8 +33025,23 @@
       <c r="AE285" s="13">
         <v>108209</v>
       </c>
+      <c r="AF285" s="11">
+        <v>22452</v>
+      </c>
+      <c r="AG285" s="11">
+        <v>38233</v>
+      </c>
+      <c r="AH285" s="11">
+        <v>57870</v>
+      </c>
+      <c r="AI285" s="11">
+        <v>85903</v>
+      </c>
+      <c r="AJ285" s="11">
+        <v>133211</v>
+      </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>254</v>
       </c>
@@ -28811,8 +33135,23 @@
       <c r="AE286" s="13">
         <v>98012</v>
       </c>
+      <c r="AF286" s="11">
+        <v>13695</v>
+      </c>
+      <c r="AG286" s="11">
+        <v>25827</v>
+      </c>
+      <c r="AH286" s="11">
+        <v>43918</v>
+      </c>
+      <c r="AI286" s="11">
+        <v>72513</v>
+      </c>
+      <c r="AJ286" s="11">
+        <v>123613</v>
+      </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>254</v>
       </c>
@@ -28906,8 +33245,23 @@
       <c r="AE287" s="13">
         <v>93330</v>
       </c>
+      <c r="AF287" s="11">
+        <v>20716</v>
+      </c>
+      <c r="AG287" s="11">
+        <v>34971</v>
+      </c>
+      <c r="AH287" s="11">
+        <v>52175</v>
+      </c>
+      <c r="AI287" s="11">
+        <v>77732</v>
+      </c>
+      <c r="AJ287" s="11">
+        <v>129860</v>
+      </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>254</v>
       </c>
@@ -29000,6 +33354,21 @@
       </c>
       <c r="AE288" s="13">
         <v>117037</v>
+      </c>
+      <c r="AF288" s="11">
+        <v>23146</v>
+      </c>
+      <c r="AG288" s="11">
+        <v>41129</v>
+      </c>
+      <c r="AH288" s="11">
+        <v>61845</v>
+      </c>
+      <c r="AI288" s="11">
+        <v>86888</v>
+      </c>
+      <c r="AJ288" s="11">
+        <v>145287</v>
       </c>
     </row>
     <row r="289" spans="1:36" x14ac:dyDescent="0.2">
@@ -29096,6 +33465,21 @@
       <c r="AE289" s="13">
         <v>121984</v>
       </c>
+      <c r="AF289" s="11">
+        <v>19935</v>
+      </c>
+      <c r="AG289" s="11">
+        <v>36175</v>
+      </c>
+      <c r="AH289" s="11">
+        <v>55912</v>
+      </c>
+      <c r="AI289" s="11">
+        <v>85918</v>
+      </c>
+      <c r="AJ289" s="11">
+        <v>148371</v>
+      </c>
     </row>
     <row r="290" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
@@ -29191,6 +33575,21 @@
       <c r="AE290" s="13">
         <v>136347</v>
       </c>
+      <c r="AF290" s="11">
+        <v>20362</v>
+      </c>
+      <c r="AG290" s="11">
+        <v>38742</v>
+      </c>
+      <c r="AH290" s="11">
+        <v>60511</v>
+      </c>
+      <c r="AI290" s="11">
+        <v>95225</v>
+      </c>
+      <c r="AJ290" s="11">
+        <v>169592</v>
+      </c>
     </row>
     <row r="291" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
@@ -29286,6 +33685,21 @@
       <c r="AE291" s="13">
         <v>110626</v>
       </c>
+      <c r="AF291" s="11">
+        <v>17944</v>
+      </c>
+      <c r="AG291" s="11">
+        <v>33645</v>
+      </c>
+      <c r="AH291" s="11">
+        <v>52366</v>
+      </c>
+      <c r="AI291" s="11">
+        <v>79377</v>
+      </c>
+      <c r="AJ291" s="11">
+        <v>125834</v>
+      </c>
     </row>
     <row r="292" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
@@ -29381,6 +33795,21 @@
       <c r="AE292" s="13">
         <v>97897</v>
       </c>
+      <c r="AF292" s="11">
+        <v>18948</v>
+      </c>
+      <c r="AG292" s="11">
+        <v>33618</v>
+      </c>
+      <c r="AH292" s="11">
+        <v>52131</v>
+      </c>
+      <c r="AI292" s="11">
+        <v>79865</v>
+      </c>
+      <c r="AJ292" s="11">
+        <v>124740</v>
+      </c>
     </row>
     <row r="293" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
@@ -29476,6 +33905,21 @@
       <c r="AE293" s="13">
         <v>115033</v>
       </c>
+      <c r="AF293" s="11">
+        <v>31652</v>
+      </c>
+      <c r="AG293" s="11">
+        <v>54949</v>
+      </c>
+      <c r="AH293" s="11">
+        <v>82574</v>
+      </c>
+      <c r="AI293" s="11">
+        <v>114657</v>
+      </c>
+      <c r="AJ293" s="11">
+        <v>169780</v>
+      </c>
     </row>
     <row r="294" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
@@ -29571,6 +34015,21 @@
       <c r="AE294" s="13">
         <v>98929</v>
       </c>
+      <c r="AF294" s="11">
+        <v>23125</v>
+      </c>
+      <c r="AG294" s="11">
+        <v>37033</v>
+      </c>
+      <c r="AH294" s="11">
+        <v>52610</v>
+      </c>
+      <c r="AI294" s="11">
+        <v>75835</v>
+      </c>
+      <c r="AJ294" s="11">
+        <v>121232</v>
+      </c>
     </row>
     <row r="295" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
@@ -29666,6 +34125,21 @@
       <c r="AE295" s="13">
         <v>80623</v>
       </c>
+      <c r="AF295" s="11">
+        <v>15446</v>
+      </c>
+      <c r="AG295" s="11">
+        <v>29612</v>
+      </c>
+      <c r="AH295" s="11">
+        <v>42313</v>
+      </c>
+      <c r="AI295" s="11">
+        <v>72523</v>
+      </c>
+      <c r="AJ295" s="11">
+        <v>109175</v>
+      </c>
     </row>
     <row r="296" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
@@ -29761,6 +34235,21 @@
       <c r="AE296" s="13">
         <v>158230</v>
       </c>
+      <c r="AF296" s="11">
+        <v>33897</v>
+      </c>
+      <c r="AG296" s="11">
+        <v>59894</v>
+      </c>
+      <c r="AH296" s="11">
+        <v>86476</v>
+      </c>
+      <c r="AI296" s="11">
+        <v>128334</v>
+      </c>
+      <c r="AJ296" s="11">
+        <v>214983</v>
+      </c>
     </row>
     <row r="297" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
@@ -29856,6 +34345,21 @@
       <c r="AE297" s="13">
         <v>104499</v>
       </c>
+      <c r="AF297" s="11">
+        <v>19085</v>
+      </c>
+      <c r="AG297" s="11">
+        <v>34318</v>
+      </c>
+      <c r="AH297" s="11">
+        <v>53635</v>
+      </c>
+      <c r="AI297" s="11">
+        <v>80495</v>
+      </c>
+      <c r="AJ297" s="11">
+        <v>134141</v>
+      </c>
     </row>
     <row r="298" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
@@ -29951,6 +34455,21 @@
       <c r="AE298" s="13">
         <v>110991</v>
       </c>
+      <c r="AF298" s="11">
+        <v>23062</v>
+      </c>
+      <c r="AG298" s="11">
+        <v>39704</v>
+      </c>
+      <c r="AH298" s="11">
+        <v>59613</v>
+      </c>
+      <c r="AI298" s="11">
+        <v>86545</v>
+      </c>
+      <c r="AJ298" s="11">
+        <v>142729</v>
+      </c>
     </row>
     <row r="299" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
@@ -30046,6 +34565,21 @@
       <c r="AE299" s="13">
         <v>98824</v>
       </c>
+      <c r="AF299" s="11">
+        <v>21758</v>
+      </c>
+      <c r="AG299" s="11">
+        <v>36398</v>
+      </c>
+      <c r="AH299" s="11">
+        <v>53940</v>
+      </c>
+      <c r="AI299" s="11">
+        <v>80770</v>
+      </c>
+      <c r="AJ299" s="11">
+        <v>119970</v>
+      </c>
     </row>
     <row r="300" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
@@ -30141,6 +34675,21 @@
       <c r="AE300" s="13">
         <v>130554</v>
       </c>
+      <c r="AF300" s="11">
+        <v>22770</v>
+      </c>
+      <c r="AG300" s="11">
+        <v>41995</v>
+      </c>
+      <c r="AH300" s="11">
+        <v>65688</v>
+      </c>
+      <c r="AI300" s="11">
+        <v>100896</v>
+      </c>
+      <c r="AJ300" s="11">
+        <v>161735</v>
+      </c>
     </row>
     <row r="301" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
@@ -30235,6 +34784,21 @@
       </c>
       <c r="AE301" s="13">
         <v>88417</v>
+      </c>
+      <c r="AF301" s="11">
+        <v>22789</v>
+      </c>
+      <c r="AG301" s="11">
+        <v>38537</v>
+      </c>
+      <c r="AH301" s="11">
+        <v>57362</v>
+      </c>
+      <c r="AI301" s="11">
+        <v>80173</v>
+      </c>
+      <c r="AJ301" s="11">
+        <v>122086</v>
       </c>
     </row>
     <row r="302" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
